--- a/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(JSON)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(JSON)_サンプル.xlsx
@@ -80,7 +80,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースのファイルID/電文IDを記述する</t>
+          <t>インタフェースのファイルID/電文IDを記述する</t>
         </r>
       </text>
     </comment>
@@ -1313,7 +1313,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -3467,7 +3467,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3872,19 +3872,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2019300" y="3162300"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2171700" y="3314700"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3902,27 +3902,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -3930,27 +3918,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -3966,20 +3942,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1847850" y="2476500"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2000250" y="2628900"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3997,27 +3973,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -4025,27 +3989,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -4062,19 +4014,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1104900" y="3371850"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1257300" y="3524250"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4092,27 +4044,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -4120,27 +4060,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6034,7 +5962,7 @@
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
-            <a:t>リポジトリ内の「外部インターフェース設計関連 」を参照。</a:t>
+            <a:t>リポジトリ内の「外部インタフェース設計関連 」を参照。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
             <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
@@ -6105,19 +6033,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1104900" y="3876675"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1257300" y="4029075"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6135,27 +6063,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6163,27 +6079,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6320,20 +6224,20 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1514475" y="3648075"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1666875" y="3800475"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6351,27 +6255,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6379,27 +6271,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6895,7 +6775,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>266698</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
@@ -6912,8 +6792,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3581398" y="4914899"/>
-          <a:ext cx="4381501" cy="552451"/>
+          <a:off x="3581398" y="3324225"/>
+          <a:ext cx="4381501" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -6921,8 +6801,8 @@
             <a:gd name="adj2" fmla="val -2154"/>
             <a:gd name="adj3" fmla="val 8460"/>
             <a:gd name="adj4" fmla="val -19466"/>
-            <a:gd name="adj5" fmla="val -102001"/>
-            <a:gd name="adj6" fmla="val -27744"/>
+            <a:gd name="adj5" fmla="val -60183"/>
+            <a:gd name="adj6" fmla="val -26874"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -7048,7 +6928,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7058,7 +6938,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1400175" y="542926"/>
-          <a:ext cx="4867275" cy="371474"/>
+          <a:ext cx="4867275" cy="333374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7118,20 +6998,20 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1819275" y="2305050"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2057400" y="4933950"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7149,27 +7029,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -7177,27 +7045,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -7209,19 +7065,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1905000" y="4781550"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1800224" y="914401"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7239,27 +7095,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -7267,27 +7111,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -7678,12 +7510,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="S1" s="73"/>
@@ -7695,29 +7527,29 @@
       <c r="Y1" s="73"/>
       <c r="Z1" s="73"/>
     </row>
-    <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="17" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="18" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="19" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="20" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="21" spans="2:19" ht="9" customHeight="1"/>
+    <row r="22" spans="2:19" ht="17.25" customHeight="1">
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
       <c r="D22" s="53"/>
@@ -7735,7 +7567,7 @@
       <c r="R22" s="53"/>
       <c r="S22" s="53"/>
     </row>
-    <row r="23" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" ht="15.95" customHeight="1">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -7746,7 +7578,7 @@
       <c r="K23" s="83"/>
       <c r="L23" s="83"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:19" ht="18" customHeight="1">
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
@@ -7766,7 +7598,7 @@
       <c r="R24" s="54"/>
       <c r="S24" s="54"/>
     </row>
-    <row r="25" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19" ht="13.5" customHeight="1">
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -7778,7 +7610,7 @@
       <c r="K25" s="237"/>
       <c r="L25" s="83"/>
     </row>
-    <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" ht="13.5" customHeight="1">
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -7787,7 +7619,7 @@
       <c r="K26" s="83"/>
       <c r="L26" s="83"/>
     </row>
-    <row r="27" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" ht="13.5" customHeight="1">
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -7796,7 +7628,7 @@
       <c r="K27" s="83"/>
       <c r="L27" s="83"/>
     </row>
-    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" ht="15" customHeight="1">
       <c r="F28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="83"/>
@@ -7804,7 +7636,7 @@
       <c r="K28" s="83"/>
       <c r="L28" s="83"/>
     </row>
-    <row r="29" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" ht="13.5" customHeight="1">
       <c r="F29" s="6"/>
       <c r="G29" s="8"/>
       <c r="H29" s="6"/>
@@ -7813,7 +7645,7 @@
       <c r="K29" s="83"/>
       <c r="L29" s="83"/>
     </row>
-    <row r="30" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19" ht="18.75" customHeight="1">
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
       <c r="H30" s="6"/>
@@ -7822,7 +7654,7 @@
       <c r="K30" s="83"/>
       <c r="L30" s="83"/>
     </row>
-    <row r="31" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" ht="13.5" customHeight="1">
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
       <c r="H31" s="6"/>
@@ -7831,7 +7663,7 @@
       <c r="K31" s="83"/>
       <c r="L31" s="83"/>
     </row>
-    <row r="32" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" ht="18.75" customHeight="1">
       <c r="F32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="83"/>
@@ -7846,7 +7678,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="18.75" customHeight="1">
       <c r="F33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="83"/>
@@ -7860,7 +7692,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:19" ht="18.75" customHeight="1">
       <c r="I34" s="83"/>
       <c r="J34" s="85"/>
       <c r="K34" s="83"/>
@@ -7870,509 +7702,509 @@
       <c r="R34" s="140"/>
       <c r="S34" s="140"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1">
       <c r="P35" s="11"/>
       <c r="Q35" s="140"/>
       <c r="R35" s="140"/>
       <c r="S35" s="140"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1">
       <c r="P36" s="11"/>
       <c r="Q36" s="140"/>
       <c r="R36" s="140"/>
       <c r="S36" s="138"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1">
       <c r="P37" s="11"/>
       <c r="Q37" s="141"/>
       <c r="R37" s="141"/>
       <c r="S37" s="141"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1">
       <c r="P38" s="11"/>
       <c r="Q38" s="141"/>
       <c r="R38" s="141"/>
       <c r="S38" s="141"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1">
       <c r="P39" s="11"/>
       <c r="Q39" s="141"/>
       <c r="R39" s="141"/>
       <c r="S39" s="141"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -8397,7 +8229,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="60" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="72" customWidth="1"/>
@@ -8406,7 +8238,7 @@
     <col min="36" max="16384" width="4.83203125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="281" t="s">
         <v>63</v>
       </c>
@@ -8463,7 +8295,7 @@
       <c r="AM1" s="66"/>
       <c r="AN1" s="67"/>
     </row>
-    <row r="2" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="281" t="s">
         <v>64</v>
       </c>
@@ -8516,7 +8348,7 @@
       <c r="AM2" s="66"/>
       <c r="AN2" s="66"/>
     </row>
-    <row r="3" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="281" t="s">
         <v>65</v>
       </c>
@@ -8561,7 +8393,7 @@
       <c r="AM3" s="66"/>
       <c r="AN3" s="66"/>
     </row>
-    <row r="4" spans="1:40" s="68" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" s="68" customFormat="1" ht="19.5" customHeight="1">
       <c r="AB4" s="69"/>
       <c r="AC4" s="69"/>
       <c r="AD4" s="70"/>
@@ -8572,7 +8404,7 @@
       <c r="AI4" s="69"/>
       <c r="AJ4" s="69"/>
     </row>
-    <row r="5" spans="1:40" s="68" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="68" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="2" t="s">
         <v>0</v>
       </c>
@@ -8586,7 +8418,7 @@
       <c r="AI5" s="69"/>
       <c r="AJ5" s="69"/>
     </row>
-    <row r="6" spans="1:40" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="68" customFormat="1" ht="15" customHeight="1">
       <c r="N6" s="2"/>
       <c r="AB6" s="69"/>
       <c r="AC6" s="69"/>
@@ -8598,7 +8430,7 @@
       <c r="AI6" s="69"/>
       <c r="AJ6" s="69"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="58" t="s">
         <v>68</v>
       </c>
@@ -8650,7 +8482,7 @@
       <c r="AI7" s="261"/>
       <c r="AJ7" s="59"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="168">
         <v>1</v>
       </c>
@@ -8702,7 +8534,7 @@
       <c r="AI8" s="64"/>
       <c r="AJ8" s="59"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="169"/>
       <c r="B9" s="262"/>
       <c r="C9" s="263"/>
@@ -8740,7 +8572,7 @@
       <c r="AI9" s="130"/>
       <c r="AJ9" s="12"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="169"/>
       <c r="B10" s="262"/>
       <c r="C10" s="263"/>
@@ -8777,7 +8609,7 @@
       <c r="AH10" s="129"/>
       <c r="AI10" s="130"/>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="169"/>
       <c r="B11" s="262"/>
       <c r="C11" s="263"/>
@@ -8814,7 +8646,7 @@
       <c r="AH11" s="129"/>
       <c r="AI11" s="130"/>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="169"/>
       <c r="B12" s="262"/>
       <c r="C12" s="263"/>
@@ -8851,7 +8683,7 @@
       <c r="AH12" s="129"/>
       <c r="AI12" s="130"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="169"/>
       <c r="B13" s="262"/>
       <c r="C13" s="263"/>
@@ -8888,7 +8720,7 @@
       <c r="AH13" s="129"/>
       <c r="AI13" s="130"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="15" customHeight="1">
       <c r="A14" s="169"/>
       <c r="B14" s="111"/>
       <c r="C14" s="112"/>
@@ -8925,7 +8757,7 @@
       <c r="AH14" s="129"/>
       <c r="AI14" s="130"/>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="15" customHeight="1">
       <c r="A15" s="169"/>
       <c r="B15" s="111"/>
       <c r="C15" s="112"/>
@@ -8962,7 +8794,7 @@
       <c r="AH15" s="129"/>
       <c r="AI15" s="130"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" ht="15" customHeight="1">
       <c r="A16" s="169"/>
       <c r="B16" s="111"/>
       <c r="C16" s="112"/>
@@ -8999,7 +8831,7 @@
       <c r="AH16" s="129"/>
       <c r="AI16" s="130"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="169"/>
       <c r="B17" s="111"/>
       <c r="C17" s="112"/>
@@ -9036,7 +8868,7 @@
       <c r="AH17" s="129"/>
       <c r="AI17" s="130"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="169"/>
       <c r="B18" s="111"/>
       <c r="C18" s="112"/>
@@ -9073,7 +8905,7 @@
       <c r="AH18" s="129"/>
       <c r="AI18" s="130"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="169"/>
       <c r="B19" s="111"/>
       <c r="C19" s="112"/>
@@ -9110,7 +8942,7 @@
       <c r="AH19" s="129"/>
       <c r="AI19" s="130"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="169"/>
       <c r="B20" s="111"/>
       <c r="C20" s="112"/>
@@ -9147,7 +8979,7 @@
       <c r="AH20" s="129"/>
       <c r="AI20" s="130"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="169"/>
       <c r="B21" s="111"/>
       <c r="C21" s="112"/>
@@ -9184,7 +9016,7 @@
       <c r="AH21" s="129"/>
       <c r="AI21" s="130"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="169"/>
       <c r="B22" s="111"/>
       <c r="C22" s="112"/>
@@ -9221,7 +9053,7 @@
       <c r="AH22" s="129"/>
       <c r="AI22" s="130"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="169"/>
       <c r="B23" s="111"/>
       <c r="C23" s="112"/>
@@ -9258,7 +9090,7 @@
       <c r="AH23" s="129"/>
       <c r="AI23" s="130"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="169"/>
       <c r="B24" s="111"/>
       <c r="C24" s="112"/>
@@ -9295,7 +9127,7 @@
       <c r="AH24" s="129"/>
       <c r="AI24" s="130"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="169"/>
       <c r="B25" s="111"/>
       <c r="C25" s="112"/>
@@ -9332,7 +9164,7 @@
       <c r="AH25" s="129"/>
       <c r="AI25" s="130"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="169"/>
       <c r="B26" s="111"/>
       <c r="C26" s="112"/>
@@ -9369,7 +9201,7 @@
       <c r="AH26" s="129"/>
       <c r="AI26" s="130"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="169"/>
       <c r="B27" s="111"/>
       <c r="C27" s="112"/>
@@ -9406,7 +9238,7 @@
       <c r="AH27" s="129"/>
       <c r="AI27" s="130"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="169"/>
       <c r="B28" s="111"/>
       <c r="C28" s="112"/>
@@ -9443,7 +9275,7 @@
       <c r="AH28" s="129"/>
       <c r="AI28" s="130"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="169"/>
       <c r="B29" s="111"/>
       <c r="C29" s="112"/>
@@ -9480,7 +9312,7 @@
       <c r="AH29" s="129"/>
       <c r="AI29" s="130"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="169"/>
       <c r="B30" s="111"/>
       <c r="C30" s="112"/>
@@ -9517,7 +9349,7 @@
       <c r="AH30" s="129"/>
       <c r="AI30" s="130"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="169"/>
       <c r="B31" s="111"/>
       <c r="C31" s="112"/>
@@ -9554,7 +9386,7 @@
       <c r="AH31" s="129"/>
       <c r="AI31" s="130"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="169"/>
       <c r="B32" s="111"/>
       <c r="C32" s="112"/>
@@ -9591,7 +9423,7 @@
       <c r="AH32" s="129"/>
       <c r="AI32" s="130"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="169"/>
       <c r="B33" s="111"/>
       <c r="C33" s="112"/>
@@ -9704,7 +9536,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="60" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="100" customWidth="1"/>
@@ -9839,7 +9671,7 @@
     <col min="16163" max="16384" width="4.83203125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="92" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="92" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="302" t="s">
         <v>63</v>
       </c>
@@ -9895,7 +9727,7 @@
       <c r="AH1" s="315"/>
       <c r="AI1" s="316"/>
     </row>
-    <row r="2" spans="1:35" s="92" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" s="92" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="302" t="s">
         <v>64</v>
       </c>
@@ -9945,7 +9777,7 @@
       <c r="AH2" s="315"/>
       <c r="AI2" s="316"/>
     </row>
-    <row r="3" spans="1:35" s="92" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" s="92" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="302" t="s">
         <v>65</v>
       </c>
@@ -9993,7 +9825,7 @@
       <c r="AH3" s="315"/>
       <c r="AI3" s="316"/>
     </row>
-    <row r="4" spans="1:35" s="68" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" s="68" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
@@ -10030,7 +9862,7 @@
       <c r="AH4" s="66"/>
       <c r="AI4" s="66"/>
     </row>
-    <row r="5" spans="1:35" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="68" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="66"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
@@ -10069,11 +9901,11 @@
       <c r="AH5" s="66"/>
       <c r="AI5" s="66"/>
     </row>
-    <row r="6" spans="1:35" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" s="68" customFormat="1" ht="15" customHeight="1">
       <c r="N6" s="170"/>
       <c r="AC6" s="171"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="172"/>
       <c r="B7" s="173" t="s">
         <v>121</v>
@@ -10112,7 +9944,7 @@
       <c r="AH7" s="176"/>
       <c r="AI7" s="177"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="172"/>
       <c r="B8" s="173"/>
       <c r="C8" s="173"/>
@@ -10149,7 +9981,7 @@
       <c r="AH8" s="179"/>
       <c r="AI8" s="177"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="A9" s="172"/>
       <c r="B9" s="173" t="s">
         <v>83</v>
@@ -10188,7 +10020,7 @@
       <c r="AH9" s="180"/>
       <c r="AI9" s="172"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="15" customHeight="1">
       <c r="A10" s="172"/>
       <c r="B10" s="65"/>
       <c r="C10" s="181"/>
@@ -10225,7 +10057,7 @@
       <c r="AH10" s="176"/>
       <c r="AI10" s="177"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="172"/>
       <c r="B11" s="181" t="s">
         <v>129</v>
@@ -10264,7 +10096,7 @@
       <c r="AH11" s="176"/>
       <c r="AI11" s="177"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="15" customHeight="1">
       <c r="A12" s="172"/>
       <c r="B12" s="181"/>
       <c r="C12" s="173" t="s">
@@ -10303,7 +10135,7 @@
       <c r="AH12" s="176"/>
       <c r="AI12" s="177"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="15" customHeight="1">
       <c r="A13" s="172"/>
       <c r="B13" s="65"/>
       <c r="C13" s="172"/>
@@ -10340,7 +10172,7 @@
       <c r="AH13" s="176"/>
       <c r="AI13" s="177"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="15" customHeight="1">
       <c r="A14" s="172"/>
       <c r="B14" s="177"/>
       <c r="C14" s="173"/>
@@ -10377,7 +10209,7 @@
       <c r="AH14" s="176"/>
       <c r="AI14" s="177"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="15" customHeight="1">
       <c r="A15" s="172"/>
       <c r="B15" s="173"/>
       <c r="C15" s="172"/>
@@ -10414,7 +10246,7 @@
       <c r="AH15" s="176"/>
       <c r="AI15" s="177"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="15" customHeight="1">
       <c r="A16" s="172"/>
       <c r="B16" s="173"/>
       <c r="C16" s="173"/>
@@ -10451,7 +10283,7 @@
       <c r="AH16" s="176"/>
       <c r="AI16" s="177"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="172"/>
       <c r="B17" s="68"/>
       <c r="C17" s="173"/>
@@ -10488,7 +10320,7 @@
       <c r="AH17" s="176"/>
       <c r="AI17" s="177"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="172"/>
       <c r="B18" s="68"/>
       <c r="C18" s="172"/>
@@ -10525,7 +10357,7 @@
       <c r="AH18" s="176"/>
       <c r="AI18" s="177"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="172"/>
       <c r="B19" s="68"/>
       <c r="C19" s="172"/>
@@ -10562,7 +10394,7 @@
       <c r="AH19" s="176"/>
       <c r="AI19" s="177"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="172"/>
       <c r="B20" s="68"/>
       <c r="C20" s="172"/>
@@ -10599,7 +10431,7 @@
       <c r="AH20" s="176"/>
       <c r="AI20" s="177"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="172"/>
       <c r="B21" s="68"/>
       <c r="C21" s="172"/>
@@ -10636,7 +10468,7 @@
       <c r="AH21" s="176"/>
       <c r="AI21" s="177"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="172"/>
       <c r="B22" s="68"/>
       <c r="C22" s="172"/>
@@ -10673,7 +10505,7 @@
       <c r="AH22" s="176"/>
       <c r="AI22" s="177"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="172"/>
       <c r="B23" s="182"/>
       <c r="C23" s="65"/>
@@ -10710,7 +10542,7 @@
       <c r="AH23" s="176"/>
       <c r="AI23" s="177"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="172"/>
       <c r="B24" s="68"/>
       <c r="C24" s="172"/>
@@ -10747,7 +10579,7 @@
       <c r="AH24" s="176"/>
       <c r="AI24" s="177"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="172"/>
       <c r="B25" s="68"/>
       <c r="C25" s="172"/>
@@ -10784,7 +10616,7 @@
       <c r="AH25" s="176"/>
       <c r="AI25" s="177"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="172"/>
       <c r="B26" s="68"/>
       <c r="C26" s="172"/>
@@ -10821,7 +10653,7 @@
       <c r="AH26" s="176"/>
       <c r="AI26" s="177"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="172"/>
       <c r="B27" s="68"/>
       <c r="C27" s="172"/>
@@ -10858,7 +10690,7 @@
       <c r="AH27" s="176"/>
       <c r="AI27" s="177"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="172"/>
       <c r="B28" s="68"/>
       <c r="C28" s="172"/>
@@ -10895,7 +10727,7 @@
       <c r="AH28" s="176"/>
       <c r="AI28" s="177"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="172"/>
       <c r="B29" s="68"/>
       <c r="C29" s="172"/>
@@ -10932,7 +10764,7 @@
       <c r="AH29" s="176"/>
       <c r="AI29" s="177"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="181"/>
       <c r="B30" s="68"/>
       <c r="C30" s="68"/>
@@ -10969,7 +10801,7 @@
       <c r="AH30" s="185"/>
       <c r="AI30" s="186"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="181"/>
       <c r="B31" s="68"/>
       <c r="C31" s="171"/>
@@ -11006,7 +10838,7 @@
       <c r="AH31" s="185"/>
       <c r="AI31" s="186"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="181"/>
       <c r="B32" s="189"/>
       <c r="C32" s="172"/>
@@ -11043,7 +10875,7 @@
       <c r="AH32" s="185"/>
       <c r="AI32" s="186"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="181"/>
       <c r="B33" s="189"/>
       <c r="C33" s="172"/>
@@ -11080,7 +10912,7 @@
       <c r="AH33" s="185"/>
       <c r="AI33" s="186"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="15" customHeight="1">
       <c r="A34" s="181"/>
       <c r="B34" s="189"/>
       <c r="C34" s="172"/>
@@ -11117,7 +10949,7 @@
       <c r="AH34" s="185"/>
       <c r="AI34" s="186"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" ht="15" customHeight="1">
       <c r="A35" s="181"/>
       <c r="B35" s="189"/>
       <c r="C35" s="172"/>
@@ -11154,7 +10986,7 @@
       <c r="AH35" s="185"/>
       <c r="AI35" s="186"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" ht="15" customHeight="1">
       <c r="A36" s="181"/>
       <c r="B36" s="181"/>
       <c r="C36" s="181"/>
@@ -11191,7 +11023,7 @@
       <c r="AH36" s="194"/>
       <c r="AI36" s="181"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" ht="15" customHeight="1">
       <c r="B37" s="98"/>
       <c r="E37" s="98"/>
       <c r="F37" s="98"/>
@@ -11223,7 +11055,7 @@
       <c r="AH37" s="105"/>
       <c r="AI37" s="101"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" ht="15" customHeight="1">
       <c r="S38" s="101"/>
       <c r="T38" s="101"/>
       <c r="U38" s="102"/>
@@ -11242,7 +11074,7 @@
       <c r="AH38" s="108"/>
       <c r="AI38" s="101"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" ht="15" customHeight="1">
       <c r="Q39" s="109"/>
       <c r="S39" s="101"/>
       <c r="T39" s="102"/>
@@ -11262,7 +11094,7 @@
       <c r="AH39" s="108"/>
       <c r="AI39" s="101"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" ht="15" customHeight="1">
       <c r="S40" s="101"/>
       <c r="T40" s="101"/>
       <c r="U40" s="101"/>
@@ -11281,7 +11113,7 @@
       <c r="AH40" s="108"/>
       <c r="AI40" s="101"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" ht="15" customHeight="1">
       <c r="J41" s="98"/>
       <c r="K41" s="98"/>
       <c r="L41" s="98"/>
@@ -11295,37 +11127,37 @@
       <c r="AH41" s="108"/>
       <c r="AI41" s="101"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" ht="15" customHeight="1">
       <c r="AE42" s="101"/>
       <c r="AF42" s="106"/>
       <c r="AG42" s="107"/>
       <c r="AH42" s="108"/>
       <c r="AI42" s="101"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" ht="15" customHeight="1">
       <c r="AE43" s="101"/>
       <c r="AF43" s="106"/>
       <c r="AG43" s="106"/>
       <c r="AH43" s="108"/>
       <c r="AI43" s="101"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" ht="15" customHeight="1">
       <c r="A44" s="98"/>
       <c r="AF44" s="110"/>
       <c r="AG44" s="110"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" ht="15" customHeight="1">
       <c r="A45" s="98"/>
       <c r="AG45" s="110"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" ht="15" customHeight="1">
       <c r="AF46" s="110"/>
       <c r="AG46" s="110"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" ht="15" customHeight="1">
       <c r="AG47" s="110"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" ht="15" customHeight="1">
       <c r="S48" s="98"/>
       <c r="T48" s="98"/>
       <c r="V48" s="98"/>
@@ -11338,7 +11170,7 @@
       <c r="AC48" s="98"/>
       <c r="AD48" s="98"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" ht="15" customHeight="1">
       <c r="R49" s="98"/>
       <c r="S49" s="98"/>
       <c r="T49" s="98"/>
@@ -11353,10 +11185,10 @@
       <c r="AD49" s="98"/>
       <c r="AG49" s="110"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" ht="15" customHeight="1">
       <c r="R50" s="98"/>
     </row>
-    <row r="51" spans="1:34" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34" s="98" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="60"/>
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
@@ -11389,7 +11221,7 @@
       <c r="AD51" s="60"/>
       <c r="AH51" s="109"/>
     </row>
-    <row r="52" spans="1:34" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34" s="98" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="60"/>
       <c r="B52" s="60"/>
       <c r="C52" s="60"/>
@@ -11462,12 +11294,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="302" t="s">
         <v>63</v>
       </c>
@@ -11523,7 +11355,7 @@
       <c r="AH1" s="354"/>
       <c r="AI1" s="355"/>
     </row>
-    <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="302" t="s">
         <v>64</v>
       </c>
@@ -11573,7 +11405,7 @@
       <c r="AH2" s="354"/>
       <c r="AI2" s="355"/>
     </row>
-    <row r="3" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="302" t="s">
         <v>65</v>
       </c>
@@ -11621,7 +11453,7 @@
       <c r="AH3" s="354"/>
       <c r="AI3" s="355"/>
     </row>
-    <row r="4" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="39"/>
       <c r="AD4" s="75"/>
       <c r="AE4" s="75"/>
@@ -11630,7 +11462,7 @@
       <c r="AH4" s="49"/>
       <c r="AI4" s="49"/>
     </row>
-    <row r="5" spans="1:35" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A5" s="60" t="s">
         <v>120</v>
       </c>
@@ -11669,7 +11501,7 @@
       <c r="AH5" s="74"/>
       <c r="AI5" s="74"/>
     </row>
-    <row r="6" spans="1:35" s="55" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" s="55" customFormat="1" ht="6" customHeight="1">
       <c r="A6" s="60"/>
       <c r="B6" s="74"/>
       <c r="C6" s="88"/>
@@ -11706,7 +11538,7 @@
       <c r="AH6" s="74"/>
       <c r="AI6" s="74"/>
     </row>
-    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="317" t="s">
         <v>38</v>
       </c>
@@ -11749,7 +11581,7 @@
       <c r="AH7" s="321"/>
       <c r="AI7" s="322"/>
     </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="317" t="s">
         <v>20</v>
       </c>
@@ -11794,7 +11626,7 @@
       <c r="AH8" s="324"/>
       <c r="AI8" s="325"/>
     </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="317" t="s">
         <v>39</v>
       </c>
@@ -11833,7 +11665,7 @@
       <c r="AH9" s="128"/>
       <c r="AI9" s="25"/>
     </row>
-    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="20" t="s">
         <v>86</v>
@@ -11872,7 +11704,7 @@
       <c r="AH10" s="127"/>
       <c r="AI10" s="21"/>
     </row>
-    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="28"/>
       <c r="B11" s="127"/>
       <c r="C11" s="20"/>
@@ -11909,7 +11741,7 @@
       <c r="AH11" s="127"/>
       <c r="AI11" s="21"/>
     </row>
-    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="29"/>
       <c r="B12" s="127"/>
       <c r="C12" s="20"/>
@@ -11946,7 +11778,7 @@
       <c r="AH12" s="127"/>
       <c r="AI12" s="21"/>
     </row>
-    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="51"/>
       <c r="B13" s="126"/>
       <c r="C13" s="17" t="s">
@@ -11985,7 +11817,7 @@
       <c r="AH13" s="126"/>
       <c r="AI13" s="37"/>
     </row>
-    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="317" t="s">
         <v>23</v>
       </c>
@@ -12024,7 +11856,7 @@
       <c r="AH14" s="128"/>
       <c r="AI14" s="25"/>
     </row>
-    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="28"/>
       <c r="B15" s="127"/>
       <c r="C15" s="127"/>
@@ -12061,7 +11893,7 @@
       <c r="AH15" s="127"/>
       <c r="AI15" s="21"/>
     </row>
-    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="28"/>
       <c r="B16" s="127"/>
       <c r="C16" s="127"/>
@@ -12098,7 +11930,7 @@
       <c r="AH16" s="127"/>
       <c r="AI16" s="21"/>
     </row>
-    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="48"/>
       <c r="B17" s="126"/>
       <c r="C17" s="126"/>
@@ -12135,7 +11967,7 @@
       <c r="AH17" s="126"/>
       <c r="AI17" s="37"/>
     </row>
-    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="331" t="s">
         <v>19</v>
       </c>
@@ -12176,7 +12008,7 @@
       <c r="AH18" s="20"/>
       <c r="AI18" s="52"/>
     </row>
-    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="120"/>
       <c r="B19" s="121"/>
       <c r="C19" s="121"/>
@@ -12221,7 +12053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="123"/>
       <c r="B20" s="124"/>
       <c r="C20" s="124"/>
@@ -12258,7 +12090,7 @@
       <c r="AH20" s="20"/>
       <c r="AI20" s="21"/>
     </row>
-    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="317" t="s">
         <v>12</v>
       </c>
@@ -12299,7 +12131,7 @@
       <c r="AH21" s="335"/>
       <c r="AI21" s="336"/>
     </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="328" t="s">
         <v>18</v>
       </c>
@@ -12340,7 +12172,7 @@
       <c r="AH22" s="163"/>
       <c r="AI22" s="157"/>
     </row>
-    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="123"/>
       <c r="B23" s="124"/>
       <c r="C23" s="124"/>
@@ -12385,7 +12217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="350" t="s">
         <v>11</v>
       </c>
@@ -12430,7 +12262,7 @@
       <c r="AH24" s="160"/>
       <c r="AI24" s="162"/>
     </row>
-    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="346" t="s">
         <v>16</v>
       </c>
@@ -12477,7 +12309,7 @@
       <c r="AH25" s="128"/>
       <c r="AI25" s="25"/>
     </row>
-    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="44"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -12522,7 +12354,7 @@
       <c r="AH26" s="127"/>
       <c r="AI26" s="21"/>
     </row>
-    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
@@ -12567,7 +12399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="317" t="s">
         <v>22</v>
       </c>
@@ -12606,7 +12438,7 @@
       <c r="AH28" s="128"/>
       <c r="AI28" s="25"/>
     </row>
-    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="30"/>
       <c r="B29" s="127"/>
       <c r="C29" s="127"/>
@@ -12643,7 +12475,7 @@
       <c r="AH29" s="127"/>
       <c r="AI29" s="21"/>
     </row>
-    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="30"/>
       <c r="B30" s="127"/>
       <c r="C30" s="127"/>
@@ -12680,7 +12512,7 @@
       <c r="AH30" s="127"/>
       <c r="AI30" s="21"/>
     </row>
-    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="48"/>
       <c r="B31" s="126"/>
       <c r="C31" s="126"/>
@@ -13433,12 +13265,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="302" t="s">
         <v>63</v>
       </c>
@@ -13494,7 +13326,7 @@
       <c r="AH1" s="354"/>
       <c r="AI1" s="355"/>
     </row>
-    <row r="2" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="302" t="s">
         <v>64</v>
       </c>
@@ -13544,7 +13376,7 @@
       <c r="AH2" s="354"/>
       <c r="AI2" s="355"/>
     </row>
-    <row r="3" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="302" t="s">
         <v>65</v>
       </c>
@@ -13592,7 +13424,7 @@
       <c r="AH3" s="354"/>
       <c r="AI3" s="355"/>
     </row>
-    <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="92"/>
       <c r="B4" s="92"/>
       <c r="C4" s="92"/>
@@ -13629,7 +13461,7 @@
       <c r="AH4" s="209"/>
       <c r="AI4" s="209"/>
     </row>
-    <row r="5" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -13649,7 +13481,7 @@
       <c r="AI5" s="40"/>
       <c r="AJ5" s="13"/>
     </row>
-    <row r="6" spans="1:47" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:47" s="55" customFormat="1">
       <c r="A6" s="60" t="s">
         <v>74</v>
       </c>
@@ -13700,7 +13532,7 @@
       <c r="AT6" s="74"/>
       <c r="AU6" s="74"/>
     </row>
-    <row r="7" spans="1:47" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:47" s="55" customFormat="1">
       <c r="A7" s="60"/>
       <c r="B7" s="74"/>
       <c r="C7" s="12"/>
@@ -13749,7 +13581,7 @@
       <c r="AT7" s="74"/>
       <c r="AU7" s="74"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:47">
       <c r="A8" s="359" t="s">
         <v>49</v>
       </c>
@@ -13790,7 +13622,7 @@
       <c r="AH8" s="437"/>
       <c r="AI8" s="438"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:47">
       <c r="A9" s="91" t="s">
         <v>75</v>
       </c>
@@ -13845,7 +13677,7 @@
       </c>
       <c r="AI9" s="386"/>
     </row>
-    <row r="10" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:47" ht="19.5" customHeight="1">
       <c r="A10" s="195">
         <v>1</v>
       </c>
@@ -13888,7 +13720,7 @@
       <c r="AH10" s="421"/>
       <c r="AI10" s="422"/>
     </row>
-    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="196">
         <v>2</v>
       </c>
@@ -13927,7 +13759,7 @@
       <c r="AH11" s="371"/>
       <c r="AI11" s="372"/>
     </row>
-    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="196">
         <v>3</v>
       </c>
@@ -13966,7 +13798,7 @@
       <c r="AH12" s="371"/>
       <c r="AI12" s="372"/>
     </row>
-    <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="196">
         <v>4</v>
       </c>
@@ -14005,7 +13837,7 @@
       <c r="AH13" s="371"/>
       <c r="AI13" s="372"/>
     </row>
-    <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="196">
         <v>5</v>
       </c>
@@ -14044,7 +13876,7 @@
       <c r="AH14" s="371"/>
       <c r="AI14" s="372"/>
     </row>
-    <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="196">
         <v>6</v>
       </c>
@@ -14083,7 +13915,7 @@
       <c r="AH15" s="371"/>
       <c r="AI15" s="372"/>
     </row>
-    <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="197">
         <v>7</v>
       </c>
@@ -14122,7 +13954,7 @@
       <c r="AH16" s="371"/>
       <c r="AI16" s="372"/>
     </row>
-    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="197">
         <v>8</v>
       </c>
@@ -14161,7 +13993,7 @@
       <c r="AH17" s="371"/>
       <c r="AI17" s="372"/>
     </row>
-    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="198">
         <v>9</v>
       </c>
@@ -14200,7 +14032,7 @@
       <c r="AH18" s="416"/>
       <c r="AI18" s="417"/>
     </row>
-    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="402"/>
       <c r="B19" s="403"/>
       <c r="C19" s="403"/>
@@ -14238,7 +14070,7 @@
       <c r="AI19" s="75"/>
       <c r="AJ19" s="34"/>
     </row>
-    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="396" t="s">
         <v>51</v>
       </c>
@@ -14285,7 +14117,7 @@
       <c r="AT20" s="74"/>
       <c r="AU20" s="74"/>
     </row>
-    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="143"/>
       <c r="B21" s="142"/>
       <c r="C21" s="144"/>
@@ -14331,7 +14163,7 @@
       <c r="AT21" s="74"/>
       <c r="AU21" s="74"/>
     </row>
-    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="143"/>
       <c r="B22" s="142"/>
       <c r="C22" s="142"/>
@@ -14377,7 +14209,7 @@
       <c r="AT22" s="74"/>
       <c r="AU22" s="74"/>
     </row>
-    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="143"/>
       <c r="B23" s="142"/>
       <c r="C23" s="142"/>
@@ -14423,7 +14255,7 @@
       <c r="AT23" s="74"/>
       <c r="AU23" s="74"/>
     </row>
-    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="143"/>
       <c r="B24" s="142"/>
       <c r="C24" s="142"/>
@@ -14469,7 +14301,7 @@
       <c r="AT24" s="74"/>
       <c r="AU24" s="74"/>
     </row>
-    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="143"/>
       <c r="B25" s="142"/>
       <c r="C25" s="142"/>
@@ -14515,7 +14347,7 @@
       <c r="AT25" s="74"/>
       <c r="AU25" s="74"/>
     </row>
-    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="143"/>
       <c r="B26" s="142"/>
       <c r="C26" s="142"/>
@@ -14561,7 +14393,7 @@
       <c r="AT26" s="74"/>
       <c r="AU26" s="74"/>
     </row>
-    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="143"/>
       <c r="B27" s="142"/>
       <c r="C27" s="142"/>
@@ -14607,7 +14439,7 @@
       <c r="AT27" s="74"/>
       <c r="AU27" s="74"/>
     </row>
-    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="143"/>
       <c r="B28" s="144"/>
       <c r="C28" s="144"/>
@@ -14653,7 +14485,7 @@
       <c r="AT28" s="74"/>
       <c r="AU28" s="74"/>
     </row>
-    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="143"/>
       <c r="B29" s="144"/>
       <c r="C29" s="142"/>
@@ -14699,7 +14531,7 @@
       <c r="AT29" s="74"/>
       <c r="AU29" s="74"/>
     </row>
-    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="150"/>
       <c r="B30" s="151"/>
       <c r="C30" s="152"/>
@@ -14745,7 +14577,7 @@
       <c r="AT30" s="74"/>
       <c r="AU30" s="74"/>
     </row>
-    <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="38"/>
       <c r="B31" s="137"/>
       <c r="C31" s="34"/>
@@ -14929,12 +14761,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:91" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="302" t="s">
         <v>63</v>
       </c>
@@ -14990,7 +14822,7 @@
       <c r="AH1" s="354"/>
       <c r="AI1" s="355"/>
     </row>
-    <row r="2" spans="1:91" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:91" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="302" t="s">
         <v>64</v>
       </c>
@@ -15040,7 +14872,7 @@
       <c r="AH2" s="354"/>
       <c r="AI2" s="355"/>
     </row>
-    <row r="3" spans="1:91" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:91" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="302" t="s">
         <v>65</v>
       </c>
@@ -15088,8 +14920,8 @@
       <c r="AH3" s="354"/>
       <c r="AI3" s="355"/>
     </row>
-    <row r="4" spans="1:91" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:91" ht="12" customHeight="1"/>
+    <row r="5" spans="1:91" ht="15" customHeight="1">
       <c r="A5" s="181" t="s">
         <v>124</v>
       </c>
@@ -15097,7 +14929,7 @@
       <c r="C5" s="93"/>
       <c r="D5" s="93"/>
     </row>
-    <row r="6" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:91" ht="15" customHeight="1">
       <c r="A6" s="93"/>
       <c r="B6" s="93"/>
       <c r="C6" s="93"/>
@@ -15128,7 +14960,7 @@
       <c r="AB6" s="93"/>
       <c r="AC6" s="93"/>
     </row>
-    <row r="7" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:91" ht="15" customHeight="1">
       <c r="A7" s="210" t="s">
         <v>113</v>
       </c>
@@ -15241,7 +15073,7 @@
       <c r="CL7" s="203"/>
       <c r="CM7" s="203"/>
     </row>
-    <row r="8" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:91" ht="15" customHeight="1">
       <c r="A8" s="169">
         <v>1</v>
       </c>
@@ -15341,7 +15173,7 @@
       <c r="CL8" s="203"/>
       <c r="CM8" s="203"/>
     </row>
-    <row r="9" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:91" ht="15" customHeight="1">
       <c r="A9" s="169">
         <v>2</v>
       </c>
@@ -15447,7 +15279,7 @@
       <c r="CL9" s="203"/>
       <c r="CM9" s="203"/>
     </row>
-    <row r="10" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:91" ht="15" customHeight="1">
       <c r="A10" s="169">
         <v>3</v>
       </c>
@@ -15553,7 +15385,7 @@
       <c r="CL10" s="203"/>
       <c r="CM10" s="203"/>
     </row>
-    <row r="11" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:91" ht="15" customHeight="1">
       <c r="A11" s="169">
         <v>4</v>
       </c>
@@ -15657,7 +15489,7 @@
       <c r="CL11" s="203"/>
       <c r="CM11" s="203"/>
     </row>
-    <row r="12" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:91" ht="15" customHeight="1">
       <c r="A12" s="169">
         <v>5</v>
       </c>
@@ -15761,7 +15593,7 @@
       <c r="CL12" s="203"/>
       <c r="CM12" s="203"/>
     </row>
-    <row r="13" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:91" ht="15" customHeight="1">
       <c r="A13" s="169">
         <v>6</v>
       </c>
@@ -15861,7 +15693,7 @@
       <c r="CL13" s="203"/>
       <c r="CM13" s="203"/>
     </row>
-    <row r="14" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:91" ht="15" customHeight="1">
       <c r="A14" s="169">
         <v>7</v>
       </c>
@@ -15967,7 +15799,7 @@
       <c r="CL14" s="203"/>
       <c r="CM14" s="203"/>
     </row>
-    <row r="15" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:91" ht="15" customHeight="1">
       <c r="A15" s="169">
         <v>8</v>
       </c>
@@ -16073,7 +15905,7 @@
       <c r="CL15" s="203"/>
       <c r="CM15" s="203"/>
     </row>
-    <row r="16" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:91" ht="15" customHeight="1">
       <c r="A16" s="169">
         <v>9</v>
       </c>
@@ -16173,7 +16005,7 @@
       <c r="CL16" s="203"/>
       <c r="CM16" s="203"/>
     </row>
-    <row r="17" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:96" ht="15" customHeight="1">
       <c r="A17" s="169">
         <v>10</v>
       </c>
@@ -16279,7 +16111,7 @@
       <c r="CL17" s="203"/>
       <c r="CM17" s="203"/>
     </row>
-    <row r="18" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:96" ht="15" customHeight="1">
       <c r="A18" s="169">
         <v>11</v>
       </c>
@@ -16385,7 +16217,7 @@
       <c r="CL18" s="203"/>
       <c r="CM18" s="203"/>
     </row>
-    <row r="19" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="79"/>
       <c r="B19" s="79"/>
       <c r="C19" s="79"/>
@@ -16436,7 +16268,7 @@
       <c r="CQ19" s="82"/>
       <c r="CR19" s="82"/>
     </row>
-    <row r="20" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="82"/>
       <c r="B20" s="82"/>
       <c r="C20" s="82"/>
@@ -16487,7 +16319,7 @@
       <c r="CQ20" s="82"/>
       <c r="CR20" s="82"/>
     </row>
-    <row r="21" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="82"/>
       <c r="B21" s="82"/>
       <c r="C21" s="82"/>
@@ -16538,7 +16370,7 @@
       <c r="CQ21" s="82"/>
       <c r="CR21" s="82"/>
     </row>
-    <row r="22" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="222"/>
       <c r="B22" s="222"/>
       <c r="C22" s="222"/>
@@ -16589,7 +16421,7 @@
       <c r="CQ22" s="82"/>
       <c r="CR22" s="82"/>
     </row>
-    <row r="23" spans="1:96" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:96" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="440" t="s">
         <v>72</v>
       </c>
@@ -16632,7 +16464,7 @@
       <c r="AJ23" s="442"/>
       <c r="AK23" s="443"/>
     </row>
-    <row r="24" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:96" ht="15" customHeight="1">
       <c r="A24" s="224"/>
       <c r="B24" s="225"/>
       <c r="C24" s="225"/>
@@ -16686,7 +16518,7 @@
       <c r="CQ24" s="203"/>
       <c r="CR24" s="203"/>
     </row>
-    <row r="25" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:96" ht="15" customHeight="1">
       <c r="A25" s="229"/>
       <c r="B25" s="68"/>
       <c r="C25" s="68"/>
@@ -16725,7 +16557,7 @@
       <c r="AJ25" s="189"/>
       <c r="AK25" s="231"/>
     </row>
-    <row r="26" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:96" ht="15" customHeight="1">
       <c r="A26" s="229"/>
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
@@ -16764,7 +16596,7 @@
       <c r="AJ26" s="189"/>
       <c r="AK26" s="231"/>
     </row>
-    <row r="27" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:96" ht="15" customHeight="1">
       <c r="A27" s="229"/>
       <c r="B27" s="68"/>
       <c r="C27" s="68"/>
@@ -16803,7 +16635,7 @@
       <c r="AJ27" s="189"/>
       <c r="AK27" s="231"/>
     </row>
-    <row r="28" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:96" ht="15" customHeight="1">
       <c r="A28" s="229"/>
       <c r="B28" s="68"/>
       <c r="C28" s="68"/>
@@ -16842,7 +16674,7 @@
       <c r="AJ28" s="189"/>
       <c r="AK28" s="231"/>
     </row>
-    <row r="29" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:96" ht="15" customHeight="1">
       <c r="A29" s="229"/>
       <c r="B29" s="68"/>
       <c r="C29" s="68"/>
@@ -16881,7 +16713,7 @@
       <c r="AJ29" s="189"/>
       <c r="AK29" s="231"/>
     </row>
-    <row r="30" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:96" ht="15" customHeight="1">
       <c r="A30" s="229"/>
       <c r="B30" s="68"/>
       <c r="C30" s="68"/>
@@ -16920,7 +16752,7 @@
       <c r="AJ30" s="189"/>
       <c r="AK30" s="231"/>
     </row>
-    <row r="31" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:96" ht="15" customHeight="1">
       <c r="A31" s="229"/>
       <c r="B31" s="68"/>
       <c r="C31" s="68"/>
@@ -16959,7 +16791,7 @@
       <c r="AJ31" s="189"/>
       <c r="AK31" s="231"/>
     </row>
-    <row r="32" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:96" ht="15" customHeight="1">
       <c r="A32" s="229"/>
       <c r="B32" s="68"/>
       <c r="C32" s="68"/>
@@ -16998,7 +16830,7 @@
       <c r="AJ32" s="189"/>
       <c r="AK32" s="231"/>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:37" ht="15" customHeight="1">
       <c r="A33" s="229"/>
       <c r="B33" s="68"/>
       <c r="C33" s="68"/>
@@ -17037,7 +16869,7 @@
       <c r="AJ33" s="189"/>
       <c r="AK33" s="231"/>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:37" ht="15" customHeight="1">
       <c r="A34" s="229"/>
       <c r="B34" s="68"/>
       <c r="C34" s="68"/>
@@ -17076,7 +16908,7 @@
       <c r="AJ34" s="189"/>
       <c r="AK34" s="231"/>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:37" ht="15" customHeight="1">
       <c r="A35" s="229"/>
       <c r="B35" s="68"/>
       <c r="C35" s="68"/>
@@ -17115,7 +16947,7 @@
       <c r="AJ35" s="189"/>
       <c r="AK35" s="231"/>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:37" ht="15" customHeight="1">
       <c r="A36" s="229"/>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
@@ -17154,7 +16986,7 @@
       <c r="AJ36" s="189"/>
       <c r="AK36" s="231"/>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:37" ht="15" customHeight="1">
       <c r="A37" s="229"/>
       <c r="B37" s="68"/>
       <c r="C37" s="68"/>
@@ -17193,7 +17025,7 @@
       <c r="AJ37" s="189"/>
       <c r="AK37" s="231"/>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:37" ht="15" customHeight="1">
       <c r="A38" s="229"/>
       <c r="B38" s="68"/>
       <c r="C38" s="68"/>
@@ -17232,7 +17064,7 @@
       <c r="AJ38" s="189"/>
       <c r="AK38" s="231"/>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:37" ht="15" customHeight="1">
       <c r="A39" s="232"/>
       <c r="B39" s="233"/>
       <c r="C39" s="233"/>
@@ -17271,7 +17103,7 @@
       <c r="AJ39" s="235"/>
       <c r="AK39" s="236"/>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:37" ht="15" customHeight="1">
       <c r="D40" s="88"/>
       <c r="X40" s="88"/>
     </row>
@@ -17419,110 +17251,110 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="25.5" style="12" customWidth="1"/>
     <col min="2" max="2" width="35.83203125" style="12" customWidth="1"/>
     <col min="3" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="61" t="s">
         <v>67</v>
       </c>
       <c r="B1" s="133"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="134" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="133"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="135" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="133"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="134" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="133"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="134" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="133"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="134" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="133"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="134" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="133"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="135" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="56"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="135" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="133"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="135" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="133"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="135" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="133"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="135" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="133"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="135" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="133"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="135" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="133"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="135" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="133"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="133"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="57" t="s">
         <v>58</v>
       </c>

--- a/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(JSON)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(JSON)_サンプル.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF2508D-7780-4111-B03C-13021469CF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C0CD64-2AF7-4350-B96E-9808B912EAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2399,7 +2399,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="480">
+  <cellXfs count="481">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3075,6 +3075,135 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3111,134 +3240,68 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3249,68 +3312,113 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -3321,113 +3429,221 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3456,15 +3672,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3477,215 +3684,35 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3693,24 +3720,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3723,62 +3732,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -9327,155 +9330,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="288" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="257" t="s">
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="251" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="258"/>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
-      <c r="M1" s="258"/>
-      <c r="N1" s="259"/>
-      <c r="O1" s="248" t="s">
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="291" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="249"/>
-      <c r="Q1" s="249"/>
-      <c r="R1" s="250"/>
-      <c r="S1" s="291" t="s">
+      <c r="P1" s="292"/>
+      <c r="Q1" s="292"/>
+      <c r="R1" s="293"/>
+      <c r="S1" s="257" t="s">
         <v>118</v>
       </c>
-      <c r="T1" s="292"/>
-      <c r="U1" s="292"/>
-      <c r="V1" s="292"/>
-      <c r="W1" s="292"/>
-      <c r="X1" s="292"/>
-      <c r="Y1" s="292"/>
-      <c r="Z1" s="293"/>
-      <c r="AA1" s="245" t="s">
+      <c r="T1" s="258"/>
+      <c r="U1" s="258"/>
+      <c r="V1" s="258"/>
+      <c r="W1" s="258"/>
+      <c r="X1" s="258"/>
+      <c r="Y1" s="258"/>
+      <c r="Z1" s="259"/>
+      <c r="AA1" s="288" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="247"/>
-      <c r="AC1" s="282" t="str">
+      <c r="AB1" s="290"/>
+      <c r="AC1" s="245" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="283"/>
-      <c r="AE1" s="283"/>
-      <c r="AF1" s="284"/>
-      <c r="AG1" s="285">
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="246"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="248">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="286"/>
-      <c r="AI1" s="287"/>
+      <c r="AH1" s="249"/>
+      <c r="AI1" s="250"/>
       <c r="AK1" s="66"/>
       <c r="AL1" s="66"/>
       <c r="AM1" s="66"/>
       <c r="AN1" s="67"/>
     </row>
     <row r="2" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="288" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="257" t="s">
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="251" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="259"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="252"/>
-      <c r="Q2" s="252"/>
-      <c r="R2" s="253"/>
-      <c r="S2" s="294"/>
-      <c r="T2" s="295"/>
-      <c r="U2" s="295"/>
-      <c r="V2" s="295"/>
-      <c r="W2" s="295"/>
-      <c r="X2" s="295"/>
-      <c r="Y2" s="295"/>
-      <c r="Z2" s="296"/>
-      <c r="AA2" s="245" t="s">
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="294"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="296"/>
+      <c r="S2" s="260"/>
+      <c r="T2" s="261"/>
+      <c r="U2" s="261"/>
+      <c r="V2" s="261"/>
+      <c r="W2" s="261"/>
+      <c r="X2" s="261"/>
+      <c r="Y2" s="261"/>
+      <c r="Z2" s="262"/>
+      <c r="AA2" s="288" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="247"/>
-      <c r="AC2" s="288" t="str">
+      <c r="AB2" s="290"/>
+      <c r="AC2" s="254" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="289"/>
-      <c r="AE2" s="289"/>
-      <c r="AF2" s="290"/>
-      <c r="AG2" s="285" t="str">
+      <c r="AD2" s="255"/>
+      <c r="AE2" s="255"/>
+      <c r="AF2" s="256"/>
+      <c r="AG2" s="248" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="286"/>
-      <c r="AI2" s="287"/>
+      <c r="AH2" s="249"/>
+      <c r="AI2" s="250"/>
       <c r="AK2" s="66"/>
       <c r="AL2" s="66"/>
       <c r="AM2" s="66"/>
       <c r="AN2" s="66"/>
     </row>
     <row r="3" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="288" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="257" t="s">
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="251" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="259"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="255"/>
-      <c r="Q3" s="255"/>
-      <c r="R3" s="256"/>
-      <c r="S3" s="297"/>
-      <c r="T3" s="298"/>
-      <c r="U3" s="298"/>
-      <c r="V3" s="298"/>
-      <c r="W3" s="298"/>
-      <c r="X3" s="298"/>
-      <c r="Y3" s="298"/>
-      <c r="Z3" s="299"/>
-      <c r="AA3" s="245"/>
-      <c r="AB3" s="247"/>
-      <c r="AC3" s="282"/>
-      <c r="AD3" s="283"/>
-      <c r="AE3" s="283"/>
-      <c r="AF3" s="284"/>
-      <c r="AG3" s="285"/>
-      <c r="AH3" s="286"/>
-      <c r="AI3" s="287"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="298"/>
+      <c r="Q3" s="298"/>
+      <c r="R3" s="299"/>
+      <c r="S3" s="263"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="265"/>
+      <c r="AA3" s="288"/>
+      <c r="AB3" s="290"/>
+      <c r="AC3" s="245"/>
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="246"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="248"/>
+      <c r="AH3" s="249"/>
+      <c r="AI3" s="250"/>
       <c r="AK3" s="66"/>
       <c r="AL3" s="66"/>
       <c r="AM3" s="66"/>
@@ -9522,98 +9525,98 @@
       <c r="A7" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="269" t="s">
+      <c r="B7" s="266" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="271"/>
-      <c r="D7" s="269" t="s">
+      <c r="C7" s="268"/>
+      <c r="D7" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="270"/>
-      <c r="F7" s="271"/>
-      <c r="G7" s="269" t="s">
+      <c r="E7" s="267"/>
+      <c r="F7" s="268"/>
+      <c r="G7" s="266" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="270"/>
-      <c r="I7" s="271"/>
-      <c r="J7" s="281" t="s">
+      <c r="H7" s="267"/>
+      <c r="I7" s="268"/>
+      <c r="J7" s="287" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="270"/>
-      <c r="L7" s="270"/>
-      <c r="M7" s="270"/>
-      <c r="N7" s="270"/>
-      <c r="O7" s="270"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="269" t="s">
+      <c r="K7" s="267"/>
+      <c r="L7" s="267"/>
+      <c r="M7" s="267"/>
+      <c r="N7" s="267"/>
+      <c r="O7" s="267"/>
+      <c r="P7" s="268"/>
+      <c r="Q7" s="266" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="270"/>
-      <c r="S7" s="270"/>
-      <c r="T7" s="270"/>
-      <c r="U7" s="270"/>
-      <c r="V7" s="270"/>
-      <c r="W7" s="270"/>
-      <c r="X7" s="270"/>
-      <c r="Y7" s="270"/>
-      <c r="Z7" s="270"/>
-      <c r="AA7" s="270"/>
-      <c r="AB7" s="270"/>
-      <c r="AC7" s="270"/>
-      <c r="AD7" s="270"/>
-      <c r="AE7" s="271"/>
-      <c r="AF7" s="269" t="s">
+      <c r="R7" s="267"/>
+      <c r="S7" s="267"/>
+      <c r="T7" s="267"/>
+      <c r="U7" s="267"/>
+      <c r="V7" s="267"/>
+      <c r="W7" s="267"/>
+      <c r="X7" s="267"/>
+      <c r="Y7" s="267"/>
+      <c r="Z7" s="267"/>
+      <c r="AA7" s="267"/>
+      <c r="AB7" s="267"/>
+      <c r="AC7" s="267"/>
+      <c r="AD7" s="267"/>
+      <c r="AE7" s="268"/>
+      <c r="AF7" s="266" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="270"/>
-      <c r="AH7" s="270"/>
-      <c r="AI7" s="271"/>
+      <c r="AG7" s="267"/>
+      <c r="AH7" s="267"/>
+      <c r="AI7" s="268"/>
       <c r="AJ7" s="59"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="167">
         <v>1</v>
       </c>
-      <c r="B8" s="272" t="s">
+      <c r="B8" s="278" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="273"/>
-      <c r="D8" s="274">
+      <c r="C8" s="279"/>
+      <c r="D8" s="280">
         <v>43336</v>
       </c>
-      <c r="E8" s="275"/>
-      <c r="F8" s="276"/>
-      <c r="G8" s="272" t="s">
+      <c r="E8" s="281"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="278" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="277"/>
-      <c r="I8" s="273"/>
-      <c r="J8" s="278" t="s">
+      <c r="H8" s="283"/>
+      <c r="I8" s="279"/>
+      <c r="J8" s="284" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="279"/>
-      <c r="L8" s="279"/>
-      <c r="M8" s="279"/>
-      <c r="N8" s="279"/>
-      <c r="O8" s="279"/>
-      <c r="P8" s="280"/>
-      <c r="Q8" s="278" t="s">
+      <c r="K8" s="285"/>
+      <c r="L8" s="285"/>
+      <c r="M8" s="285"/>
+      <c r="N8" s="285"/>
+      <c r="O8" s="285"/>
+      <c r="P8" s="286"/>
+      <c r="Q8" s="284" t="s">
         <v>105</v>
       </c>
-      <c r="R8" s="279"/>
-      <c r="S8" s="279"/>
-      <c r="T8" s="279"/>
-      <c r="U8" s="279"/>
-      <c r="V8" s="279"/>
-      <c r="W8" s="279"/>
-      <c r="X8" s="279"/>
-      <c r="Y8" s="279"/>
-      <c r="Z8" s="279"/>
-      <c r="AA8" s="279"/>
-      <c r="AB8" s="279"/>
-      <c r="AC8" s="279"/>
-      <c r="AD8" s="279"/>
-      <c r="AE8" s="280"/>
+      <c r="R8" s="285"/>
+      <c r="S8" s="285"/>
+      <c r="T8" s="285"/>
+      <c r="U8" s="285"/>
+      <c r="V8" s="285"/>
+      <c r="W8" s="285"/>
+      <c r="X8" s="285"/>
+      <c r="Y8" s="285"/>
+      <c r="Z8" s="285"/>
+      <c r="AA8" s="285"/>
+      <c r="AB8" s="285"/>
+      <c r="AC8" s="285"/>
+      <c r="AD8" s="285"/>
+      <c r="AE8" s="286"/>
       <c r="AF8" s="131" t="s">
         <v>106</v>
       </c>
@@ -9624,36 +9627,36 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="168"/>
-      <c r="B9" s="260"/>
-      <c r="C9" s="261"/>
-      <c r="D9" s="262"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="264"/>
-      <c r="G9" s="260"/>
-      <c r="H9" s="265"/>
-      <c r="I9" s="261"/>
-      <c r="J9" s="266"/>
-      <c r="K9" s="267"/>
-      <c r="L9" s="267"/>
-      <c r="M9" s="267"/>
-      <c r="N9" s="267"/>
-      <c r="O9" s="267"/>
-      <c r="P9" s="268"/>
-      <c r="Q9" s="266"/>
-      <c r="R9" s="267"/>
-      <c r="S9" s="267"/>
-      <c r="T9" s="267"/>
-      <c r="U9" s="267"/>
-      <c r="V9" s="267"/>
-      <c r="W9" s="267"/>
-      <c r="X9" s="267"/>
-      <c r="Y9" s="267"/>
-      <c r="Z9" s="267"/>
-      <c r="AA9" s="267"/>
-      <c r="AB9" s="267"/>
-      <c r="AC9" s="267"/>
-      <c r="AD9" s="267"/>
-      <c r="AE9" s="268"/>
+      <c r="B9" s="269"/>
+      <c r="C9" s="270"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="272"/>
+      <c r="F9" s="273"/>
+      <c r="G9" s="269"/>
+      <c r="H9" s="274"/>
+      <c r="I9" s="270"/>
+      <c r="J9" s="275"/>
+      <c r="K9" s="276"/>
+      <c r="L9" s="276"/>
+      <c r="M9" s="276"/>
+      <c r="N9" s="276"/>
+      <c r="O9" s="276"/>
+      <c r="P9" s="277"/>
+      <c r="Q9" s="275"/>
+      <c r="R9" s="276"/>
+      <c r="S9" s="276"/>
+      <c r="T9" s="276"/>
+      <c r="U9" s="276"/>
+      <c r="V9" s="276"/>
+      <c r="W9" s="276"/>
+      <c r="X9" s="276"/>
+      <c r="Y9" s="276"/>
+      <c r="Z9" s="276"/>
+      <c r="AA9" s="276"/>
+      <c r="AB9" s="276"/>
+      <c r="AC9" s="276"/>
+      <c r="AD9" s="276"/>
+      <c r="AE9" s="277"/>
       <c r="AF9" s="62"/>
       <c r="AG9" s="128"/>
       <c r="AH9" s="128"/>
@@ -9662,36 +9665,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="168"/>
-      <c r="B10" s="260"/>
-      <c r="C10" s="261"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="264"/>
-      <c r="G10" s="260"/>
-      <c r="H10" s="265"/>
-      <c r="I10" s="261"/>
-      <c r="J10" s="266"/>
-      <c r="K10" s="267"/>
-      <c r="L10" s="267"/>
-      <c r="M10" s="267"/>
-      <c r="N10" s="267"/>
-      <c r="O10" s="267"/>
-      <c r="P10" s="268"/>
-      <c r="Q10" s="266"/>
-      <c r="R10" s="267"/>
-      <c r="S10" s="267"/>
-      <c r="T10" s="267"/>
-      <c r="U10" s="267"/>
-      <c r="V10" s="267"/>
-      <c r="W10" s="267"/>
-      <c r="X10" s="267"/>
-      <c r="Y10" s="267"/>
-      <c r="Z10" s="267"/>
-      <c r="AA10" s="267"/>
-      <c r="AB10" s="267"/>
-      <c r="AC10" s="267"/>
-      <c r="AD10" s="267"/>
-      <c r="AE10" s="268"/>
+      <c r="B10" s="269"/>
+      <c r="C10" s="270"/>
+      <c r="D10" s="271"/>
+      <c r="E10" s="272"/>
+      <c r="F10" s="273"/>
+      <c r="G10" s="269"/>
+      <c r="H10" s="274"/>
+      <c r="I10" s="270"/>
+      <c r="J10" s="275"/>
+      <c r="K10" s="276"/>
+      <c r="L10" s="276"/>
+      <c r="M10" s="276"/>
+      <c r="N10" s="276"/>
+      <c r="O10" s="276"/>
+      <c r="P10" s="277"/>
+      <c r="Q10" s="275"/>
+      <c r="R10" s="276"/>
+      <c r="S10" s="276"/>
+      <c r="T10" s="276"/>
+      <c r="U10" s="276"/>
+      <c r="V10" s="276"/>
+      <c r="W10" s="276"/>
+      <c r="X10" s="276"/>
+      <c r="Y10" s="276"/>
+      <c r="Z10" s="276"/>
+      <c r="AA10" s="276"/>
+      <c r="AB10" s="276"/>
+      <c r="AC10" s="276"/>
+      <c r="AD10" s="276"/>
+      <c r="AE10" s="277"/>
       <c r="AF10" s="62"/>
       <c r="AG10" s="128"/>
       <c r="AH10" s="128"/>
@@ -9699,36 +9702,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="168"/>
-      <c r="B11" s="260"/>
-      <c r="C11" s="261"/>
-      <c r="D11" s="262"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="264"/>
-      <c r="G11" s="260"/>
-      <c r="H11" s="265"/>
-      <c r="I11" s="261"/>
-      <c r="J11" s="266"/>
-      <c r="K11" s="267"/>
-      <c r="L11" s="267"/>
-      <c r="M11" s="267"/>
-      <c r="N11" s="267"/>
-      <c r="O11" s="267"/>
-      <c r="P11" s="268"/>
-      <c r="Q11" s="266"/>
-      <c r="R11" s="267"/>
-      <c r="S11" s="267"/>
-      <c r="T11" s="267"/>
-      <c r="U11" s="267"/>
-      <c r="V11" s="267"/>
-      <c r="W11" s="267"/>
-      <c r="X11" s="267"/>
-      <c r="Y11" s="267"/>
-      <c r="Z11" s="267"/>
-      <c r="AA11" s="267"/>
-      <c r="AB11" s="267"/>
-      <c r="AC11" s="267"/>
-      <c r="AD11" s="267"/>
-      <c r="AE11" s="268"/>
+      <c r="B11" s="269"/>
+      <c r="C11" s="270"/>
+      <c r="D11" s="271"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="273"/>
+      <c r="G11" s="269"/>
+      <c r="H11" s="274"/>
+      <c r="I11" s="270"/>
+      <c r="J11" s="275"/>
+      <c r="K11" s="276"/>
+      <c r="L11" s="276"/>
+      <c r="M11" s="276"/>
+      <c r="N11" s="276"/>
+      <c r="O11" s="276"/>
+      <c r="P11" s="277"/>
+      <c r="Q11" s="275"/>
+      <c r="R11" s="276"/>
+      <c r="S11" s="276"/>
+      <c r="T11" s="276"/>
+      <c r="U11" s="276"/>
+      <c r="V11" s="276"/>
+      <c r="W11" s="276"/>
+      <c r="X11" s="276"/>
+      <c r="Y11" s="276"/>
+      <c r="Z11" s="276"/>
+      <c r="AA11" s="276"/>
+      <c r="AB11" s="276"/>
+      <c r="AC11" s="276"/>
+      <c r="AD11" s="276"/>
+      <c r="AE11" s="277"/>
       <c r="AF11" s="62"/>
       <c r="AG11" s="128"/>
       <c r="AH11" s="128"/>
@@ -9736,36 +9739,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="168"/>
-      <c r="B12" s="260"/>
-      <c r="C12" s="261"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="263"/>
-      <c r="F12" s="264"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="265"/>
-      <c r="I12" s="261"/>
-      <c r="J12" s="266"/>
-      <c r="K12" s="267"/>
-      <c r="L12" s="267"/>
-      <c r="M12" s="267"/>
-      <c r="N12" s="267"/>
-      <c r="O12" s="267"/>
-      <c r="P12" s="268"/>
-      <c r="Q12" s="266"/>
-      <c r="R12" s="267"/>
-      <c r="S12" s="267"/>
-      <c r="T12" s="267"/>
-      <c r="U12" s="267"/>
-      <c r="V12" s="267"/>
-      <c r="W12" s="267"/>
-      <c r="X12" s="267"/>
-      <c r="Y12" s="267"/>
-      <c r="Z12" s="267"/>
-      <c r="AA12" s="267"/>
-      <c r="AB12" s="267"/>
-      <c r="AC12" s="267"/>
-      <c r="AD12" s="267"/>
-      <c r="AE12" s="268"/>
+      <c r="B12" s="269"/>
+      <c r="C12" s="270"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="273"/>
+      <c r="G12" s="269"/>
+      <c r="H12" s="274"/>
+      <c r="I12" s="270"/>
+      <c r="J12" s="275"/>
+      <c r="K12" s="276"/>
+      <c r="L12" s="276"/>
+      <c r="M12" s="276"/>
+      <c r="N12" s="276"/>
+      <c r="O12" s="276"/>
+      <c r="P12" s="277"/>
+      <c r="Q12" s="275"/>
+      <c r="R12" s="276"/>
+      <c r="S12" s="276"/>
+      <c r="T12" s="276"/>
+      <c r="U12" s="276"/>
+      <c r="V12" s="276"/>
+      <c r="W12" s="276"/>
+      <c r="X12" s="276"/>
+      <c r="Y12" s="276"/>
+      <c r="Z12" s="276"/>
+      <c r="AA12" s="276"/>
+      <c r="AB12" s="276"/>
+      <c r="AC12" s="276"/>
+      <c r="AD12" s="276"/>
+      <c r="AE12" s="277"/>
       <c r="AF12" s="62"/>
       <c r="AG12" s="128"/>
       <c r="AH12" s="128"/>
@@ -9773,36 +9776,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="260"/>
-      <c r="C13" s="261"/>
-      <c r="D13" s="262"/>
-      <c r="E13" s="263"/>
-      <c r="F13" s="264"/>
-      <c r="G13" s="260"/>
-      <c r="H13" s="265"/>
-      <c r="I13" s="261"/>
-      <c r="J13" s="266"/>
-      <c r="K13" s="267"/>
-      <c r="L13" s="267"/>
-      <c r="M13" s="267"/>
-      <c r="N13" s="267"/>
-      <c r="O13" s="267"/>
-      <c r="P13" s="268"/>
-      <c r="Q13" s="266"/>
-      <c r="R13" s="267"/>
-      <c r="S13" s="267"/>
-      <c r="T13" s="267"/>
-      <c r="U13" s="267"/>
-      <c r="V13" s="267"/>
-      <c r="W13" s="267"/>
-      <c r="X13" s="267"/>
-      <c r="Y13" s="267"/>
-      <c r="Z13" s="267"/>
-      <c r="AA13" s="267"/>
-      <c r="AB13" s="267"/>
-      <c r="AC13" s="267"/>
-      <c r="AD13" s="267"/>
-      <c r="AE13" s="268"/>
+      <c r="B13" s="269"/>
+      <c r="C13" s="270"/>
+      <c r="D13" s="271"/>
+      <c r="E13" s="272"/>
+      <c r="F13" s="273"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="274"/>
+      <c r="I13" s="270"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="276"/>
+      <c r="L13" s="276"/>
+      <c r="M13" s="276"/>
+      <c r="N13" s="276"/>
+      <c r="O13" s="276"/>
+      <c r="P13" s="277"/>
+      <c r="Q13" s="275"/>
+      <c r="R13" s="276"/>
+      <c r="S13" s="276"/>
+      <c r="T13" s="276"/>
+      <c r="U13" s="276"/>
+      <c r="V13" s="276"/>
+      <c r="W13" s="276"/>
+      <c r="X13" s="276"/>
+      <c r="Y13" s="276"/>
+      <c r="Z13" s="276"/>
+      <c r="AA13" s="276"/>
+      <c r="AB13" s="276"/>
+      <c r="AC13" s="276"/>
+      <c r="AD13" s="276"/>
+      <c r="AE13" s="277"/>
       <c r="AF13" s="62"/>
       <c r="AG13" s="128"/>
       <c r="AH13" s="128"/>
@@ -10550,14 +10553,35 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -10574,35 +10598,14 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <printOptions horizontalCentered="1"/>
@@ -10760,158 +10763,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="309" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="257" t="str">
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="258"/>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
-      <c r="M1" s="258"/>
-      <c r="N1" s="259"/>
-      <c r="O1" s="315" t="s">
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="312" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="316"/>
-      <c r="Q1" s="316"/>
-      <c r="R1" s="317"/>
-      <c r="S1" s="305" t="str">
+      <c r="P1" s="313"/>
+      <c r="Q1" s="313"/>
+      <c r="R1" s="314"/>
+      <c r="S1" s="300" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(JSON)
 A42AA02/振込依頼作成</v>
       </c>
-      <c r="T1" s="306"/>
-      <c r="U1" s="306"/>
-      <c r="V1" s="306"/>
-      <c r="W1" s="306"/>
-      <c r="X1" s="306"/>
-      <c r="Y1" s="306"/>
-      <c r="Z1" s="307"/>
-      <c r="AA1" s="303" t="s">
+      <c r="T1" s="301"/>
+      <c r="U1" s="301"/>
+      <c r="V1" s="301"/>
+      <c r="W1" s="301"/>
+      <c r="X1" s="301"/>
+      <c r="Y1" s="301"/>
+      <c r="Z1" s="302"/>
+      <c r="AA1" s="309" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="304"/>
-      <c r="AC1" s="282" t="str">
+      <c r="AB1" s="311"/>
+      <c r="AC1" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="283"/>
-      <c r="AE1" s="283"/>
-      <c r="AF1" s="284"/>
-      <c r="AG1" s="300">
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="246"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="321">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="301"/>
-      <c r="AI1" s="302"/>
+      <c r="AH1" s="322"/>
+      <c r="AI1" s="323"/>
     </row>
     <row r="2" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="309" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="314"/>
-      <c r="C2" s="314"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="257" t="str">
+      <c r="B2" s="310"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="259"/>
-      <c r="O2" s="318"/>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
-      <c r="R2" s="320"/>
-      <c r="S2" s="308"/>
-      <c r="T2" s="309"/>
-      <c r="U2" s="309"/>
-      <c r="V2" s="309"/>
-      <c r="W2" s="309"/>
-      <c r="X2" s="309"/>
-      <c r="Y2" s="309"/>
-      <c r="Z2" s="310"/>
-      <c r="AA2" s="303" t="s">
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="315"/>
+      <c r="P2" s="316"/>
+      <c r="Q2" s="316"/>
+      <c r="R2" s="317"/>
+      <c r="S2" s="303"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="304"/>
+      <c r="Y2" s="304"/>
+      <c r="Z2" s="305"/>
+      <c r="AA2" s="309" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="282" t="str">
+      <c r="AB2" s="311"/>
+      <c r="AC2" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="283"/>
-      <c r="AE2" s="283"/>
-      <c r="AF2" s="284"/>
-      <c r="AG2" s="300" t="str">
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="321" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="301"/>
-      <c r="AI2" s="302"/>
+      <c r="AH2" s="322"/>
+      <c r="AI2" s="323"/>
     </row>
     <row r="3" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="309" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="314"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="257" t="str">
+      <c r="B3" s="310"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="259"/>
-      <c r="O3" s="321"/>
-      <c r="P3" s="322"/>
-      <c r="Q3" s="322"/>
-      <c r="R3" s="323"/>
-      <c r="S3" s="311"/>
-      <c r="T3" s="312"/>
-      <c r="U3" s="312"/>
-      <c r="V3" s="312"/>
-      <c r="W3" s="312"/>
-      <c r="X3" s="312"/>
-      <c r="Y3" s="312"/>
-      <c r="Z3" s="313"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="304"/>
-      <c r="AC3" s="282" t="str">
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="318"/>
+      <c r="P3" s="319"/>
+      <c r="Q3" s="319"/>
+      <c r="R3" s="320"/>
+      <c r="S3" s="306"/>
+      <c r="T3" s="307"/>
+      <c r="U3" s="307"/>
+      <c r="V3" s="307"/>
+      <c r="W3" s="307"/>
+      <c r="X3" s="307"/>
+      <c r="Y3" s="307"/>
+      <c r="Z3" s="308"/>
+      <c r="AA3" s="309"/>
+      <c r="AB3" s="311"/>
+      <c r="AC3" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="283"/>
-      <c r="AE3" s="283"/>
-      <c r="AF3" s="284"/>
-      <c r="AG3" s="300" t="str">
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="246"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="321" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="301"/>
-      <c r="AI3" s="302"/>
+      <c r="AH3" s="322"/>
+      <c r="AI3" s="323"/>
     </row>
     <row r="4" spans="1:35" s="68" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="66"/>
@@ -12344,6 +12347,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -12354,13 +12364,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <printOptions horizontalCentered="1"/>
@@ -12388,158 +12391,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="309" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="257" t="str">
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="258"/>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
-      <c r="M1" s="258"/>
-      <c r="N1" s="259"/>
-      <c r="O1" s="315" t="s">
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="312" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="316"/>
-      <c r="Q1" s="316"/>
-      <c r="R1" s="317"/>
-      <c r="S1" s="305" t="str">
+      <c r="P1" s="313"/>
+      <c r="Q1" s="313"/>
+      <c r="R1" s="314"/>
+      <c r="S1" s="300" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(JSON)
 A42AA02/振込依頼作成</v>
       </c>
-      <c r="T1" s="306"/>
-      <c r="U1" s="306"/>
-      <c r="V1" s="306"/>
-      <c r="W1" s="306"/>
-      <c r="X1" s="306"/>
-      <c r="Y1" s="306"/>
-      <c r="Z1" s="307"/>
-      <c r="AA1" s="303" t="s">
+      <c r="T1" s="301"/>
+      <c r="U1" s="301"/>
+      <c r="V1" s="301"/>
+      <c r="W1" s="301"/>
+      <c r="X1" s="301"/>
+      <c r="Y1" s="301"/>
+      <c r="Z1" s="302"/>
+      <c r="AA1" s="309" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="304"/>
-      <c r="AC1" s="282" t="str">
+      <c r="AB1" s="311"/>
+      <c r="AC1" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="283"/>
-      <c r="AE1" s="283"/>
-      <c r="AF1" s="284"/>
-      <c r="AG1" s="324">
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="246"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="360">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="325"/>
-      <c r="AI1" s="326"/>
+      <c r="AH1" s="361"/>
+      <c r="AI1" s="362"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="309" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="314"/>
-      <c r="C2" s="314"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="257" t="str">
+      <c r="B2" s="310"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="259"/>
-      <c r="O2" s="318"/>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
-      <c r="R2" s="320"/>
-      <c r="S2" s="308"/>
-      <c r="T2" s="309"/>
-      <c r="U2" s="309"/>
-      <c r="V2" s="309"/>
-      <c r="W2" s="309"/>
-      <c r="X2" s="309"/>
-      <c r="Y2" s="309"/>
-      <c r="Z2" s="310"/>
-      <c r="AA2" s="303" t="s">
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="315"/>
+      <c r="P2" s="316"/>
+      <c r="Q2" s="316"/>
+      <c r="R2" s="317"/>
+      <c r="S2" s="303"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="304"/>
+      <c r="Y2" s="304"/>
+      <c r="Z2" s="305"/>
+      <c r="AA2" s="309" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="282" t="str">
+      <c r="AB2" s="311"/>
+      <c r="AC2" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="283"/>
-      <c r="AE2" s="283"/>
-      <c r="AF2" s="284"/>
-      <c r="AG2" s="324" t="str">
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="360" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="325"/>
-      <c r="AI2" s="326"/>
+      <c r="AH2" s="361"/>
+      <c r="AI2" s="362"/>
     </row>
     <row r="3" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="309" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="314"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="257" t="str">
+      <c r="B3" s="310"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="259"/>
-      <c r="O3" s="321"/>
-      <c r="P3" s="322"/>
-      <c r="Q3" s="322"/>
-      <c r="R3" s="323"/>
-      <c r="S3" s="311"/>
-      <c r="T3" s="312"/>
-      <c r="U3" s="312"/>
-      <c r="V3" s="312"/>
-      <c r="W3" s="312"/>
-      <c r="X3" s="312"/>
-      <c r="Y3" s="312"/>
-      <c r="Z3" s="313"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="304"/>
-      <c r="AC3" s="282" t="str">
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="318"/>
+      <c r="P3" s="319"/>
+      <c r="Q3" s="319"/>
+      <c r="R3" s="320"/>
+      <c r="S3" s="306"/>
+      <c r="T3" s="307"/>
+      <c r="U3" s="307"/>
+      <c r="V3" s="307"/>
+      <c r="W3" s="307"/>
+      <c r="X3" s="307"/>
+      <c r="Y3" s="307"/>
+      <c r="Z3" s="308"/>
+      <c r="AA3" s="309"/>
+      <c r="AB3" s="311"/>
+      <c r="AC3" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="283"/>
-      <c r="AE3" s="283"/>
-      <c r="AF3" s="284"/>
-      <c r="AG3" s="324" t="str">
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="246"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="360" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="325"/>
-      <c r="AI3" s="326"/>
+      <c r="AH3" s="361"/>
+      <c r="AI3" s="362"/>
     </row>
     <row r="4" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="39"/>
@@ -12627,12 +12630,12 @@
       <c r="AI6" s="74"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="327" t="s">
+      <c r="A7" s="324" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="334"/>
-      <c r="C7" s="334"/>
-      <c r="D7" s="335"/>
+      <c r="B7" s="333"/>
+      <c r="C7" s="333"/>
+      <c r="D7" s="334"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -12645,82 +12648,82 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="354" t="s">
+      <c r="Q7" s="335" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="355"/>
-      <c r="S7" s="355"/>
-      <c r="T7" s="356"/>
-      <c r="U7" s="360" t="s">
+      <c r="R7" s="336"/>
+      <c r="S7" s="336"/>
+      <c r="T7" s="337"/>
+      <c r="U7" s="327" t="s">
         <v>85</v>
       </c>
-      <c r="V7" s="361"/>
-      <c r="W7" s="361"/>
-      <c r="X7" s="361"/>
-      <c r="Y7" s="361"/>
-      <c r="Z7" s="361"/>
-      <c r="AA7" s="361"/>
-      <c r="AB7" s="361"/>
-      <c r="AC7" s="361"/>
-      <c r="AD7" s="361"/>
-      <c r="AE7" s="361"/>
-      <c r="AF7" s="361"/>
-      <c r="AG7" s="361"/>
-      <c r="AH7" s="361"/>
-      <c r="AI7" s="362"/>
+      <c r="V7" s="328"/>
+      <c r="W7" s="328"/>
+      <c r="X7" s="328"/>
+      <c r="Y7" s="328"/>
+      <c r="Z7" s="328"/>
+      <c r="AA7" s="328"/>
+      <c r="AB7" s="328"/>
+      <c r="AC7" s="328"/>
+      <c r="AD7" s="328"/>
+      <c r="AE7" s="328"/>
+      <c r="AF7" s="328"/>
+      <c r="AG7" s="328"/>
+      <c r="AH7" s="328"/>
+      <c r="AI7" s="329"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="327" t="s">
+      <c r="A8" s="324" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="334"/>
-      <c r="C8" s="334"/>
-      <c r="D8" s="335"/>
-      <c r="E8" s="345" t="s">
+      <c r="B8" s="333"/>
+      <c r="C8" s="333"/>
+      <c r="D8" s="334"/>
+      <c r="E8" s="330" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="346"/>
-      <c r="G8" s="346"/>
-      <c r="H8" s="346"/>
-      <c r="I8" s="346"/>
-      <c r="J8" s="346"/>
-      <c r="K8" s="346"/>
-      <c r="L8" s="346"/>
-      <c r="M8" s="346"/>
-      <c r="N8" s="346"/>
-      <c r="O8" s="346"/>
-      <c r="P8" s="346"/>
-      <c r="Q8" s="327" t="s">
+      <c r="F8" s="331"/>
+      <c r="G8" s="331"/>
+      <c r="H8" s="331"/>
+      <c r="I8" s="331"/>
+      <c r="J8" s="331"/>
+      <c r="K8" s="331"/>
+      <c r="L8" s="331"/>
+      <c r="M8" s="331"/>
+      <c r="N8" s="331"/>
+      <c r="O8" s="331"/>
+      <c r="P8" s="331"/>
+      <c r="Q8" s="324" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="334"/>
-      <c r="S8" s="334"/>
-      <c r="T8" s="335"/>
-      <c r="U8" s="345" t="s">
+      <c r="R8" s="333"/>
+      <c r="S8" s="333"/>
+      <c r="T8" s="334"/>
+      <c r="U8" s="330" t="s">
         <v>122</v>
       </c>
-      <c r="V8" s="346"/>
-      <c r="W8" s="346"/>
-      <c r="X8" s="346"/>
-      <c r="Y8" s="346"/>
-      <c r="Z8" s="346"/>
-      <c r="AA8" s="346"/>
-      <c r="AB8" s="346"/>
-      <c r="AC8" s="346"/>
-      <c r="AD8" s="346"/>
-      <c r="AE8" s="346"/>
-      <c r="AF8" s="346"/>
-      <c r="AG8" s="346"/>
-      <c r="AH8" s="346"/>
-      <c r="AI8" s="347"/>
+      <c r="V8" s="331"/>
+      <c r="W8" s="331"/>
+      <c r="X8" s="331"/>
+      <c r="Y8" s="331"/>
+      <c r="Z8" s="331"/>
+      <c r="AA8" s="331"/>
+      <c r="AB8" s="331"/>
+      <c r="AC8" s="331"/>
+      <c r="AD8" s="331"/>
+      <c r="AE8" s="331"/>
+      <c r="AF8" s="331"/>
+      <c r="AG8" s="331"/>
+      <c r="AH8" s="331"/>
+      <c r="AI8" s="332"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="327" t="s">
+      <c r="A9" s="324" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="334"/>
-      <c r="C9" s="334"/>
-      <c r="D9" s="335"/>
+      <c r="B9" s="333"/>
+      <c r="C9" s="333"/>
+      <c r="D9" s="334"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -12906,12 +12909,12 @@
       <c r="AI13" s="37"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="327" t="s">
+      <c r="A14" s="324" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="328"/>
-      <c r="C14" s="328"/>
-      <c r="D14" s="329"/>
+      <c r="B14" s="325"/>
+      <c r="C14" s="325"/>
+      <c r="D14" s="326"/>
       <c r="E14" s="127"/>
       <c r="F14" s="127"/>
       <c r="G14" s="127"/>
@@ -13056,12 +13059,12 @@
       <c r="AI17" s="37"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="348" t="s">
+      <c r="A18" s="338" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="349"/>
-      <c r="C18" s="349"/>
-      <c r="D18" s="350"/>
+      <c r="B18" s="339"/>
+      <c r="C18" s="339"/>
+      <c r="D18" s="340"/>
       <c r="E18" s="157"/>
       <c r="F18" s="158"/>
       <c r="G18" s="146"/>
@@ -13074,12 +13077,12 @@
       <c r="N18" s="146"/>
       <c r="O18" s="144"/>
       <c r="P18" s="146"/>
-      <c r="Q18" s="348" t="s">
+      <c r="Q18" s="338" t="s">
         <v>41</v>
       </c>
-      <c r="R18" s="349"/>
-      <c r="S18" s="349"/>
-      <c r="T18" s="350"/>
+      <c r="R18" s="339"/>
+      <c r="S18" s="339"/>
+      <c r="T18" s="340"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -13179,53 +13182,53 @@
       <c r="AI20" s="21"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="327" t="s">
+      <c r="A21" s="324" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="334"/>
-      <c r="C21" s="334"/>
-      <c r="D21" s="335"/>
-      <c r="E21" s="345"/>
-      <c r="F21" s="346"/>
-      <c r="G21" s="346"/>
-      <c r="H21" s="346"/>
-      <c r="I21" s="346"/>
-      <c r="J21" s="346"/>
-      <c r="K21" s="346"/>
-      <c r="L21" s="346"/>
-      <c r="M21" s="346"/>
-      <c r="N21" s="346"/>
-      <c r="O21" s="346"/>
-      <c r="P21" s="347"/>
-      <c r="Q21" s="327" t="s">
+      <c r="B21" s="333"/>
+      <c r="C21" s="333"/>
+      <c r="D21" s="334"/>
+      <c r="E21" s="330"/>
+      <c r="F21" s="331"/>
+      <c r="G21" s="331"/>
+      <c r="H21" s="331"/>
+      <c r="I21" s="331"/>
+      <c r="J21" s="331"/>
+      <c r="K21" s="331"/>
+      <c r="L21" s="331"/>
+      <c r="M21" s="331"/>
+      <c r="N21" s="331"/>
+      <c r="O21" s="331"/>
+      <c r="P21" s="332"/>
+      <c r="Q21" s="324" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="334"/>
-      <c r="S21" s="334"/>
-      <c r="T21" s="335"/>
-      <c r="U21" s="351"/>
-      <c r="V21" s="352"/>
-      <c r="W21" s="352"/>
-      <c r="X21" s="352"/>
-      <c r="Y21" s="352"/>
-      <c r="Z21" s="352"/>
-      <c r="AA21" s="352"/>
-      <c r="AB21" s="352"/>
-      <c r="AC21" s="352"/>
-      <c r="AD21" s="352"/>
-      <c r="AE21" s="352"/>
-      <c r="AF21" s="352"/>
-      <c r="AG21" s="352"/>
-      <c r="AH21" s="352"/>
-      <c r="AI21" s="353"/>
+      <c r="R21" s="333"/>
+      <c r="S21" s="333"/>
+      <c r="T21" s="334"/>
+      <c r="U21" s="341"/>
+      <c r="V21" s="342"/>
+      <c r="W21" s="342"/>
+      <c r="X21" s="342"/>
+      <c r="Y21" s="342"/>
+      <c r="Z21" s="342"/>
+      <c r="AA21" s="342"/>
+      <c r="AB21" s="342"/>
+      <c r="AC21" s="342"/>
+      <c r="AD21" s="342"/>
+      <c r="AE21" s="342"/>
+      <c r="AF21" s="342"/>
+      <c r="AG21" s="342"/>
+      <c r="AH21" s="342"/>
+      <c r="AI21" s="343"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="354" t="s">
+      <c r="A22" s="335" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="355"/>
-      <c r="C22" s="355"/>
-      <c r="D22" s="356"/>
+      <c r="B22" s="336"/>
+      <c r="C22" s="336"/>
+      <c r="D22" s="337"/>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="127"/>
@@ -13238,12 +13241,12 @@
       <c r="N22" s="127"/>
       <c r="O22" s="18"/>
       <c r="P22" s="127"/>
-      <c r="Q22" s="354" t="s">
+      <c r="Q22" s="335" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="355"/>
-      <c r="S22" s="355"/>
-      <c r="T22" s="356"/>
+      <c r="R22" s="336"/>
+      <c r="S22" s="336"/>
+      <c r="T22" s="337"/>
       <c r="U22" s="154"/>
       <c r="V22" s="155"/>
       <c r="W22" s="162"/>
@@ -13306,36 +13309,36 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="342" t="s">
+      <c r="A24" s="357" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="343"/>
-      <c r="C24" s="343"/>
-      <c r="D24" s="344"/>
-      <c r="E24" s="345" t="s">
+      <c r="B24" s="358"/>
+      <c r="C24" s="358"/>
+      <c r="D24" s="359"/>
+      <c r="E24" s="330" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="346"/>
-      <c r="G24" s="346"/>
-      <c r="H24" s="346"/>
-      <c r="I24" s="346"/>
-      <c r="J24" s="346"/>
-      <c r="K24" s="346"/>
-      <c r="L24" s="346"/>
-      <c r="M24" s="346"/>
-      <c r="N24" s="346"/>
-      <c r="O24" s="346"/>
-      <c r="P24" s="347"/>
-      <c r="Q24" s="357" t="s">
+      <c r="F24" s="331"/>
+      <c r="G24" s="331"/>
+      <c r="H24" s="331"/>
+      <c r="I24" s="331"/>
+      <c r="J24" s="331"/>
+      <c r="K24" s="331"/>
+      <c r="L24" s="331"/>
+      <c r="M24" s="331"/>
+      <c r="N24" s="331"/>
+      <c r="O24" s="331"/>
+      <c r="P24" s="332"/>
+      <c r="Q24" s="344" t="s">
         <v>47</v>
       </c>
-      <c r="R24" s="358"/>
-      <c r="S24" s="358"/>
-      <c r="T24" s="359"/>
-      <c r="U24" s="332"/>
-      <c r="V24" s="333"/>
-      <c r="W24" s="333"/>
-      <c r="X24" s="333"/>
+      <c r="R24" s="345"/>
+      <c r="S24" s="345"/>
+      <c r="T24" s="346"/>
+      <c r="U24" s="349"/>
+      <c r="V24" s="350"/>
+      <c r="W24" s="350"/>
+      <c r="X24" s="350"/>
       <c r="Y24" s="159" t="s">
         <v>48</v>
       </c>
@@ -13351,26 +13354,26 @@
       <c r="AI24" s="161"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="338" t="s">
+      <c r="A25" s="353" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="339"/>
-      <c r="C25" s="339"/>
-      <c r="D25" s="340"/>
+      <c r="B25" s="354"/>
+      <c r="C25" s="354"/>
+      <c r="D25" s="355"/>
       <c r="E25" s="23"/>
       <c r="F25" s="36"/>
       <c r="G25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="330"/>
-      <c r="I25" s="331"/>
-      <c r="J25" s="331"/>
-      <c r="K25" s="331"/>
-      <c r="L25" s="331"/>
-      <c r="M25" s="331"/>
-      <c r="N25" s="331"/>
-      <c r="O25" s="331"/>
-      <c r="P25" s="331"/>
+      <c r="H25" s="347"/>
+      <c r="I25" s="348"/>
+      <c r="J25" s="348"/>
+      <c r="K25" s="348"/>
+      <c r="L25" s="348"/>
+      <c r="M25" s="348"/>
+      <c r="N25" s="348"/>
+      <c r="O25" s="348"/>
+      <c r="P25" s="348"/>
       <c r="Q25" s="127" t="s">
         <v>7</v>
       </c>
@@ -13379,15 +13382,15 @@
       <c r="T25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="341"/>
-      <c r="V25" s="341"/>
-      <c r="W25" s="341"/>
-      <c r="X25" s="341"/>
-      <c r="Y25" s="341"/>
-      <c r="Z25" s="341"/>
-      <c r="AA25" s="341"/>
-      <c r="AB25" s="341"/>
-      <c r="AC25" s="341"/>
+      <c r="U25" s="356"/>
+      <c r="V25" s="356"/>
+      <c r="W25" s="356"/>
+      <c r="X25" s="356"/>
+      <c r="Y25" s="356"/>
+      <c r="Z25" s="356"/>
+      <c r="AA25" s="356"/>
+      <c r="AB25" s="356"/>
+      <c r="AC25" s="356"/>
       <c r="AD25" s="127" t="s">
         <v>7</v>
       </c>
@@ -13407,15 +13410,15 @@
       <c r="G26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="337"/>
-      <c r="I26" s="337"/>
-      <c r="J26" s="337"/>
-      <c r="K26" s="337"/>
-      <c r="L26" s="337"/>
-      <c r="M26" s="337"/>
-      <c r="N26" s="337"/>
-      <c r="O26" s="337"/>
-      <c r="P26" s="337"/>
+      <c r="H26" s="352"/>
+      <c r="I26" s="352"/>
+      <c r="J26" s="352"/>
+      <c r="K26" s="352"/>
+      <c r="L26" s="352"/>
+      <c r="M26" s="352"/>
+      <c r="N26" s="352"/>
+      <c r="O26" s="352"/>
+      <c r="P26" s="352"/>
       <c r="Q26" s="126" t="s">
         <v>7</v>
       </c>
@@ -13424,15 +13427,15 @@
       <c r="T26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="337"/>
-      <c r="V26" s="337"/>
-      <c r="W26" s="337"/>
-      <c r="X26" s="337"/>
-      <c r="Y26" s="337"/>
-      <c r="Z26" s="337"/>
-      <c r="AA26" s="337"/>
-      <c r="AB26" s="337"/>
-      <c r="AC26" s="337"/>
+      <c r="U26" s="352"/>
+      <c r="V26" s="352"/>
+      <c r="W26" s="352"/>
+      <c r="X26" s="352"/>
+      <c r="Y26" s="352"/>
+      <c r="Z26" s="352"/>
+      <c r="AA26" s="352"/>
+      <c r="AB26" s="352"/>
+      <c r="AC26" s="352"/>
       <c r="AD26" s="126" t="s">
         <v>7</v>
       </c>
@@ -13452,15 +13455,15 @@
       <c r="G27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="336"/>
-      <c r="I27" s="336"/>
-      <c r="J27" s="336"/>
-      <c r="K27" s="336"/>
-      <c r="L27" s="336"/>
-      <c r="M27" s="336"/>
-      <c r="N27" s="336"/>
-      <c r="O27" s="336"/>
-      <c r="P27" s="336"/>
+      <c r="H27" s="351"/>
+      <c r="I27" s="351"/>
+      <c r="J27" s="351"/>
+      <c r="K27" s="351"/>
+      <c r="L27" s="351"/>
+      <c r="M27" s="351"/>
+      <c r="N27" s="351"/>
+      <c r="O27" s="351"/>
+      <c r="P27" s="351"/>
       <c r="Q27" s="125" t="s">
         <v>7</v>
       </c>
@@ -13469,31 +13472,31 @@
       <c r="T27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="336"/>
-      <c r="V27" s="336"/>
-      <c r="W27" s="336"/>
-      <c r="X27" s="336"/>
-      <c r="Y27" s="336"/>
-      <c r="Z27" s="336"/>
-      <c r="AA27" s="336"/>
-      <c r="AB27" s="336"/>
-      <c r="AC27" s="336"/>
-      <c r="AD27" s="336"/>
-      <c r="AE27" s="336"/>
-      <c r="AF27" s="336"/>
-      <c r="AG27" s="336"/>
-      <c r="AH27" s="336"/>
+      <c r="U27" s="351"/>
+      <c r="V27" s="351"/>
+      <c r="W27" s="351"/>
+      <c r="X27" s="351"/>
+      <c r="Y27" s="351"/>
+      <c r="Z27" s="351"/>
+      <c r="AA27" s="351"/>
+      <c r="AB27" s="351"/>
+      <c r="AC27" s="351"/>
+      <c r="AD27" s="351"/>
+      <c r="AE27" s="351"/>
+      <c r="AF27" s="351"/>
+      <c r="AG27" s="351"/>
+      <c r="AH27" s="351"/>
       <c r="AI27" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="327" t="s">
+      <c r="A28" s="324" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="328"/>
-      <c r="C28" s="328"/>
-      <c r="D28" s="329"/>
+      <c r="B28" s="325"/>
+      <c r="C28" s="325"/>
+      <c r="D28" s="326"/>
       <c r="E28" s="127"/>
       <c r="F28" s="127"/>
       <c r="G28" s="127"/>
@@ -13639,21 +13642,23 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -13668,23 +13673,21 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -14359,158 +14362,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="309" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="257" t="str">
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="258"/>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
-      <c r="M1" s="258"/>
-      <c r="N1" s="259"/>
-      <c r="O1" s="315" t="s">
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="312" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="316"/>
-      <c r="Q1" s="316"/>
-      <c r="R1" s="317"/>
-      <c r="S1" s="305" t="str">
+      <c r="P1" s="313"/>
+      <c r="Q1" s="313"/>
+      <c r="R1" s="314"/>
+      <c r="S1" s="300" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(JSON)
 A42AA02/振込依頼作成</v>
       </c>
-      <c r="T1" s="306"/>
-      <c r="U1" s="306"/>
-      <c r="V1" s="306"/>
-      <c r="W1" s="306"/>
-      <c r="X1" s="306"/>
-      <c r="Y1" s="306"/>
-      <c r="Z1" s="307"/>
-      <c r="AA1" s="303" t="s">
+      <c r="T1" s="301"/>
+      <c r="U1" s="301"/>
+      <c r="V1" s="301"/>
+      <c r="W1" s="301"/>
+      <c r="X1" s="301"/>
+      <c r="Y1" s="301"/>
+      <c r="Z1" s="302"/>
+      <c r="AA1" s="309" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="304"/>
-      <c r="AC1" s="282" t="str">
+      <c r="AB1" s="311"/>
+      <c r="AC1" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="283"/>
-      <c r="AE1" s="283"/>
-      <c r="AF1" s="284"/>
-      <c r="AG1" s="324">
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="246"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="360">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="325"/>
-      <c r="AI1" s="326"/>
+      <c r="AH1" s="361"/>
+      <c r="AI1" s="362"/>
     </row>
     <row r="2" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="309" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="314"/>
-      <c r="C2" s="314"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="257" t="str">
+      <c r="B2" s="310"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="259"/>
-      <c r="O2" s="318"/>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
-      <c r="R2" s="320"/>
-      <c r="S2" s="308"/>
-      <c r="T2" s="309"/>
-      <c r="U2" s="309"/>
-      <c r="V2" s="309"/>
-      <c r="W2" s="309"/>
-      <c r="X2" s="309"/>
-      <c r="Y2" s="309"/>
-      <c r="Z2" s="310"/>
-      <c r="AA2" s="303" t="s">
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="315"/>
+      <c r="P2" s="316"/>
+      <c r="Q2" s="316"/>
+      <c r="R2" s="317"/>
+      <c r="S2" s="303"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="304"/>
+      <c r="Y2" s="304"/>
+      <c r="Z2" s="305"/>
+      <c r="AA2" s="309" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="282" t="str">
+      <c r="AB2" s="311"/>
+      <c r="AC2" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="283"/>
-      <c r="AE2" s="283"/>
-      <c r="AF2" s="284"/>
-      <c r="AG2" s="324" t="str">
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="360" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="325"/>
-      <c r="AI2" s="326"/>
+      <c r="AH2" s="361"/>
+      <c r="AI2" s="362"/>
     </row>
     <row r="3" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="309" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="314"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="257" t="str">
+      <c r="B3" s="310"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="259"/>
-      <c r="O3" s="321"/>
-      <c r="P3" s="322"/>
-      <c r="Q3" s="322"/>
-      <c r="R3" s="323"/>
-      <c r="S3" s="311"/>
-      <c r="T3" s="312"/>
-      <c r="U3" s="312"/>
-      <c r="V3" s="312"/>
-      <c r="W3" s="312"/>
-      <c r="X3" s="312"/>
-      <c r="Y3" s="312"/>
-      <c r="Z3" s="313"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="304"/>
-      <c r="AC3" s="282" t="str">
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="318"/>
+      <c r="P3" s="319"/>
+      <c r="Q3" s="319"/>
+      <c r="R3" s="320"/>
+      <c r="S3" s="306"/>
+      <c r="T3" s="307"/>
+      <c r="U3" s="307"/>
+      <c r="V3" s="307"/>
+      <c r="W3" s="307"/>
+      <c r="X3" s="307"/>
+      <c r="Y3" s="307"/>
+      <c r="Z3" s="308"/>
+      <c r="AA3" s="309"/>
+      <c r="AB3" s="311"/>
+      <c r="AC3" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="283"/>
-      <c r="AE3" s="283"/>
-      <c r="AF3" s="284"/>
-      <c r="AG3" s="324" t="str">
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="246"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="360" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="325"/>
-      <c r="AI3" s="326"/>
+      <c r="AH3" s="361"/>
+      <c r="AI3" s="362"/>
     </row>
     <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="91"/>
@@ -14670,463 +14673,463 @@
       <c r="AU7" s="74"/>
     </row>
     <row r="8" spans="1:47">
-      <c r="A8" s="429" t="s">
+      <c r="A8" s="381" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="379"/>
-      <c r="C8" s="379"/>
-      <c r="D8" s="379"/>
-      <c r="E8" s="379"/>
-      <c r="F8" s="379"/>
-      <c r="G8" s="379"/>
-      <c r="H8" s="379"/>
-      <c r="I8" s="379"/>
-      <c r="J8" s="379"/>
-      <c r="K8" s="379"/>
-      <c r="L8" s="379"/>
-      <c r="M8" s="379"/>
-      <c r="N8" s="379"/>
-      <c r="O8" s="379"/>
-      <c r="P8" s="379"/>
-      <c r="Q8" s="379"/>
-      <c r="R8" s="379"/>
-      <c r="S8" s="379"/>
-      <c r="T8" s="379"/>
-      <c r="U8" s="379"/>
-      <c r="V8" s="379"/>
-      <c r="W8" s="379"/>
-      <c r="X8" s="379"/>
-      <c r="Y8" s="379"/>
-      <c r="Z8" s="379"/>
-      <c r="AA8" s="379"/>
-      <c r="AB8" s="430"/>
-      <c r="AC8" s="378" t="s">
+      <c r="B8" s="382"/>
+      <c r="C8" s="382"/>
+      <c r="D8" s="382"/>
+      <c r="E8" s="382"/>
+      <c r="F8" s="382"/>
+      <c r="G8" s="382"/>
+      <c r="H8" s="382"/>
+      <c r="I8" s="382"/>
+      <c r="J8" s="382"/>
+      <c r="K8" s="382"/>
+      <c r="L8" s="382"/>
+      <c r="M8" s="382"/>
+      <c r="N8" s="382"/>
+      <c r="O8" s="382"/>
+      <c r="P8" s="382"/>
+      <c r="Q8" s="382"/>
+      <c r="R8" s="382"/>
+      <c r="S8" s="382"/>
+      <c r="T8" s="382"/>
+      <c r="U8" s="382"/>
+      <c r="V8" s="382"/>
+      <c r="W8" s="382"/>
+      <c r="X8" s="382"/>
+      <c r="Y8" s="382"/>
+      <c r="Z8" s="382"/>
+      <c r="AA8" s="382"/>
+      <c r="AB8" s="383"/>
+      <c r="AC8" s="447" t="s">
         <v>50</v>
       </c>
-      <c r="AD8" s="379"/>
-      <c r="AE8" s="380"/>
-      <c r="AF8" s="375"/>
-      <c r="AG8" s="376"/>
-      <c r="AH8" s="376"/>
-      <c r="AI8" s="377"/>
+      <c r="AD8" s="382"/>
+      <c r="AE8" s="448"/>
+      <c r="AF8" s="444"/>
+      <c r="AG8" s="445"/>
+      <c r="AH8" s="445"/>
+      <c r="AI8" s="446"/>
     </row>
     <row r="9" spans="1:47" s="237" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="236" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="425" t="s">
+      <c r="B9" s="366" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="267"/>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="268"/>
-      <c r="G9" s="425" t="s">
+      <c r="C9" s="276"/>
+      <c r="D9" s="276"/>
+      <c r="E9" s="276"/>
+      <c r="F9" s="277"/>
+      <c r="G9" s="366" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="426"/>
-      <c r="I9" s="428"/>
-      <c r="J9" s="425" t="s">
+      <c r="H9" s="367"/>
+      <c r="I9" s="368"/>
+      <c r="J9" s="366" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="426"/>
-      <c r="L9" s="426"/>
-      <c r="M9" s="426"/>
-      <c r="N9" s="426"/>
-      <c r="O9" s="426"/>
-      <c r="P9" s="428"/>
-      <c r="Q9" s="443" t="s">
+      <c r="K9" s="367"/>
+      <c r="L9" s="367"/>
+      <c r="M9" s="367"/>
+      <c r="N9" s="367"/>
+      <c r="O9" s="367"/>
+      <c r="P9" s="368"/>
+      <c r="Q9" s="371" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="445"/>
-      <c r="S9" s="443" t="s">
+      <c r="R9" s="373"/>
+      <c r="S9" s="371" t="s">
         <v>76</v>
       </c>
-      <c r="T9" s="444"/>
-      <c r="U9" s="445"/>
-      <c r="V9" s="425" t="s">
+      <c r="T9" s="372"/>
+      <c r="U9" s="373"/>
+      <c r="V9" s="366" t="s">
         <v>21</v>
       </c>
-      <c r="W9" s="426"/>
-      <c r="X9" s="426"/>
-      <c r="Y9" s="426"/>
-      <c r="Z9" s="426"/>
-      <c r="AA9" s="426"/>
-      <c r="AB9" s="427"/>
-      <c r="AC9" s="437" t="s">
+      <c r="W9" s="367"/>
+      <c r="X9" s="367"/>
+      <c r="Y9" s="367"/>
+      <c r="Z9" s="367"/>
+      <c r="AA9" s="367"/>
+      <c r="AB9" s="380"/>
+      <c r="AC9" s="392" t="s">
         <v>13</v>
       </c>
-      <c r="AD9" s="438"/>
-      <c r="AE9" s="438"/>
-      <c r="AF9" s="438"/>
-      <c r="AG9" s="438"/>
-      <c r="AH9" s="439" t="s">
+      <c r="AD9" s="393"/>
+      <c r="AE9" s="393"/>
+      <c r="AF9" s="393"/>
+      <c r="AG9" s="393"/>
+      <c r="AH9" s="394" t="s">
         <v>77</v>
       </c>
-      <c r="AI9" s="439"/>
+      <c r="AI9" s="394"/>
     </row>
     <row r="10" spans="1:47" ht="19.5" customHeight="1">
       <c r="A10" s="194">
         <v>1</v>
       </c>
-      <c r="B10" s="388" t="s">
+      <c r="B10" s="431" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="389"/>
-      <c r="D10" s="389"/>
-      <c r="E10" s="389"/>
-      <c r="F10" s="390"/>
-      <c r="G10" s="434"/>
-      <c r="H10" s="435"/>
-      <c r="I10" s="436"/>
-      <c r="J10" s="446"/>
-      <c r="K10" s="447"/>
-      <c r="L10" s="447"/>
-      <c r="M10" s="447"/>
-      <c r="N10" s="447"/>
-      <c r="O10" s="447"/>
-      <c r="P10" s="448"/>
-      <c r="Q10" s="397"/>
-      <c r="R10" s="399"/>
-      <c r="S10" s="397"/>
-      <c r="T10" s="398"/>
-      <c r="U10" s="399"/>
-      <c r="V10" s="440"/>
-      <c r="W10" s="441"/>
-      <c r="X10" s="441"/>
-      <c r="Y10" s="441"/>
-      <c r="Z10" s="441"/>
-      <c r="AA10" s="441"/>
-      <c r="AB10" s="442"/>
-      <c r="AC10" s="422" t="s">
+      <c r="C10" s="432"/>
+      <c r="D10" s="432"/>
+      <c r="E10" s="432"/>
+      <c r="F10" s="433"/>
+      <c r="G10" s="389"/>
+      <c r="H10" s="390"/>
+      <c r="I10" s="391"/>
+      <c r="J10" s="375"/>
+      <c r="K10" s="376"/>
+      <c r="L10" s="376"/>
+      <c r="M10" s="376"/>
+      <c r="N10" s="376"/>
+      <c r="O10" s="376"/>
+      <c r="P10" s="377"/>
+      <c r="Q10" s="387"/>
+      <c r="R10" s="388"/>
+      <c r="S10" s="387"/>
+      <c r="T10" s="434"/>
+      <c r="U10" s="388"/>
+      <c r="V10" s="395"/>
+      <c r="W10" s="396"/>
+      <c r="X10" s="396"/>
+      <c r="Y10" s="396"/>
+      <c r="Z10" s="396"/>
+      <c r="AA10" s="396"/>
+      <c r="AB10" s="397"/>
+      <c r="AC10" s="426" t="s">
         <v>78</v>
       </c>
-      <c r="AD10" s="366"/>
-      <c r="AE10" s="367"/>
-      <c r="AF10" s="367"/>
-      <c r="AG10" s="368"/>
-      <c r="AH10" s="386"/>
-      <c r="AI10" s="387"/>
+      <c r="AD10" s="438"/>
+      <c r="AE10" s="439"/>
+      <c r="AF10" s="439"/>
+      <c r="AG10" s="440"/>
+      <c r="AH10" s="429"/>
+      <c r="AI10" s="430"/>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="195">
         <v>2</v>
       </c>
-      <c r="B11" s="391"/>
-      <c r="C11" s="392"/>
-      <c r="D11" s="392"/>
-      <c r="E11" s="392"/>
-      <c r="F11" s="393"/>
-      <c r="G11" s="431"/>
-      <c r="H11" s="432"/>
-      <c r="I11" s="433"/>
-      <c r="J11" s="391"/>
-      <c r="K11" s="392"/>
-      <c r="L11" s="392"/>
-      <c r="M11" s="392"/>
-      <c r="N11" s="392"/>
-      <c r="O11" s="392"/>
-      <c r="P11" s="393"/>
-      <c r="Q11" s="400"/>
-      <c r="R11" s="402"/>
-      <c r="S11" s="400"/>
-      <c r="T11" s="401"/>
-      <c r="U11" s="402"/>
-      <c r="V11" s="383"/>
-      <c r="W11" s="384"/>
-      <c r="X11" s="384"/>
-      <c r="Y11" s="384"/>
-      <c r="Z11" s="384"/>
-      <c r="AA11" s="384"/>
-      <c r="AB11" s="385"/>
-      <c r="AC11" s="423"/>
-      <c r="AD11" s="369"/>
-      <c r="AE11" s="370"/>
-      <c r="AF11" s="370"/>
-      <c r="AG11" s="371"/>
-      <c r="AH11" s="381"/>
-      <c r="AI11" s="382"/>
+      <c r="B11" s="363"/>
+      <c r="C11" s="364"/>
+      <c r="D11" s="364"/>
+      <c r="E11" s="364"/>
+      <c r="F11" s="365"/>
+      <c r="G11" s="384"/>
+      <c r="H11" s="385"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="363"/>
+      <c r="K11" s="364"/>
+      <c r="L11" s="364"/>
+      <c r="M11" s="364"/>
+      <c r="N11" s="364"/>
+      <c r="O11" s="364"/>
+      <c r="P11" s="365"/>
+      <c r="Q11" s="369"/>
+      <c r="R11" s="370"/>
+      <c r="S11" s="369"/>
+      <c r="T11" s="374"/>
+      <c r="U11" s="370"/>
+      <c r="V11" s="398"/>
+      <c r="W11" s="399"/>
+      <c r="X11" s="399"/>
+      <c r="Y11" s="399"/>
+      <c r="Z11" s="399"/>
+      <c r="AA11" s="399"/>
+      <c r="AB11" s="400"/>
+      <c r="AC11" s="427"/>
+      <c r="AD11" s="441"/>
+      <c r="AE11" s="442"/>
+      <c r="AF11" s="442"/>
+      <c r="AG11" s="443"/>
+      <c r="AH11" s="378"/>
+      <c r="AI11" s="379"/>
     </row>
     <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="195">
         <v>3</v>
       </c>
-      <c r="B12" s="391"/>
-      <c r="C12" s="392"/>
-      <c r="D12" s="392"/>
-      <c r="E12" s="392"/>
-      <c r="F12" s="393"/>
-      <c r="G12" s="431"/>
-      <c r="H12" s="432"/>
-      <c r="I12" s="433"/>
-      <c r="J12" s="391"/>
-      <c r="K12" s="392"/>
-      <c r="L12" s="392"/>
-      <c r="M12" s="392"/>
-      <c r="N12" s="392"/>
-      <c r="O12" s="392"/>
-      <c r="P12" s="393"/>
-      <c r="Q12" s="400"/>
-      <c r="R12" s="402"/>
-      <c r="S12" s="400"/>
-      <c r="T12" s="401"/>
-      <c r="U12" s="402"/>
-      <c r="V12" s="383"/>
-      <c r="W12" s="384"/>
-      <c r="X12" s="384"/>
-      <c r="Y12" s="384"/>
-      <c r="Z12" s="384"/>
-      <c r="AA12" s="384"/>
-      <c r="AB12" s="385"/>
-      <c r="AC12" s="423"/>
-      <c r="AD12" s="372"/>
-      <c r="AE12" s="373"/>
-      <c r="AF12" s="373"/>
-      <c r="AG12" s="374"/>
-      <c r="AH12" s="381"/>
-      <c r="AI12" s="382"/>
+      <c r="B12" s="363"/>
+      <c r="C12" s="364"/>
+      <c r="D12" s="364"/>
+      <c r="E12" s="364"/>
+      <c r="F12" s="365"/>
+      <c r="G12" s="384"/>
+      <c r="H12" s="385"/>
+      <c r="I12" s="386"/>
+      <c r="J12" s="363"/>
+      <c r="K12" s="364"/>
+      <c r="L12" s="364"/>
+      <c r="M12" s="364"/>
+      <c r="N12" s="364"/>
+      <c r="O12" s="364"/>
+      <c r="P12" s="365"/>
+      <c r="Q12" s="369"/>
+      <c r="R12" s="370"/>
+      <c r="S12" s="369"/>
+      <c r="T12" s="374"/>
+      <c r="U12" s="370"/>
+      <c r="V12" s="398"/>
+      <c r="W12" s="399"/>
+      <c r="X12" s="399"/>
+      <c r="Y12" s="399"/>
+      <c r="Z12" s="399"/>
+      <c r="AA12" s="399"/>
+      <c r="AB12" s="400"/>
+      <c r="AC12" s="427"/>
+      <c r="AD12" s="401"/>
+      <c r="AE12" s="402"/>
+      <c r="AF12" s="402"/>
+      <c r="AG12" s="403"/>
+      <c r="AH12" s="378"/>
+      <c r="AI12" s="379"/>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="195">
         <v>4</v>
       </c>
-      <c r="B13" s="391"/>
-      <c r="C13" s="392"/>
-      <c r="D13" s="392"/>
-      <c r="E13" s="392"/>
-      <c r="F13" s="393"/>
-      <c r="G13" s="431"/>
-      <c r="H13" s="432"/>
-      <c r="I13" s="433"/>
-      <c r="J13" s="391"/>
-      <c r="K13" s="392"/>
-      <c r="L13" s="392"/>
-      <c r="M13" s="392"/>
-      <c r="N13" s="392"/>
-      <c r="O13" s="392"/>
-      <c r="P13" s="393"/>
-      <c r="Q13" s="400"/>
-      <c r="R13" s="402"/>
-      <c r="S13" s="400"/>
-      <c r="T13" s="401"/>
-      <c r="U13" s="402"/>
-      <c r="V13" s="383"/>
-      <c r="W13" s="384"/>
-      <c r="X13" s="384"/>
-      <c r="Y13" s="384"/>
-      <c r="Z13" s="384"/>
-      <c r="AA13" s="384"/>
-      <c r="AB13" s="385"/>
-      <c r="AC13" s="423"/>
-      <c r="AD13" s="372"/>
-      <c r="AE13" s="373"/>
-      <c r="AF13" s="373"/>
-      <c r="AG13" s="374"/>
-      <c r="AH13" s="381"/>
-      <c r="AI13" s="382"/>
+      <c r="B13" s="363"/>
+      <c r="C13" s="364"/>
+      <c r="D13" s="364"/>
+      <c r="E13" s="364"/>
+      <c r="F13" s="365"/>
+      <c r="G13" s="384"/>
+      <c r="H13" s="385"/>
+      <c r="I13" s="386"/>
+      <c r="J13" s="363"/>
+      <c r="K13" s="364"/>
+      <c r="L13" s="364"/>
+      <c r="M13" s="364"/>
+      <c r="N13" s="364"/>
+      <c r="O13" s="364"/>
+      <c r="P13" s="365"/>
+      <c r="Q13" s="369"/>
+      <c r="R13" s="370"/>
+      <c r="S13" s="369"/>
+      <c r="T13" s="374"/>
+      <c r="U13" s="370"/>
+      <c r="V13" s="398"/>
+      <c r="W13" s="399"/>
+      <c r="X13" s="399"/>
+      <c r="Y13" s="399"/>
+      <c r="Z13" s="399"/>
+      <c r="AA13" s="399"/>
+      <c r="AB13" s="400"/>
+      <c r="AC13" s="427"/>
+      <c r="AD13" s="401"/>
+      <c r="AE13" s="402"/>
+      <c r="AF13" s="402"/>
+      <c r="AG13" s="403"/>
+      <c r="AH13" s="378"/>
+      <c r="AI13" s="379"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="195">
         <v>5</v>
       </c>
-      <c r="B14" s="394"/>
-      <c r="C14" s="395"/>
-      <c r="D14" s="395"/>
-      <c r="E14" s="395"/>
-      <c r="F14" s="396"/>
-      <c r="G14" s="391"/>
-      <c r="H14" s="392"/>
-      <c r="I14" s="393"/>
-      <c r="J14" s="391"/>
-      <c r="K14" s="392"/>
-      <c r="L14" s="392"/>
-      <c r="M14" s="392"/>
-      <c r="N14" s="392"/>
-      <c r="O14" s="392"/>
-      <c r="P14" s="393"/>
-      <c r="Q14" s="400"/>
-      <c r="R14" s="402"/>
-      <c r="S14" s="400"/>
-      <c r="T14" s="401"/>
-      <c r="U14" s="402"/>
-      <c r="V14" s="383"/>
-      <c r="W14" s="384"/>
-      <c r="X14" s="384"/>
-      <c r="Y14" s="384"/>
-      <c r="Z14" s="384"/>
-      <c r="AA14" s="384"/>
-      <c r="AB14" s="385"/>
-      <c r="AC14" s="423"/>
-      <c r="AD14" s="372"/>
-      <c r="AE14" s="373"/>
-      <c r="AF14" s="373"/>
-      <c r="AG14" s="374"/>
-      <c r="AH14" s="381"/>
-      <c r="AI14" s="382"/>
+      <c r="B14" s="418"/>
+      <c r="C14" s="419"/>
+      <c r="D14" s="419"/>
+      <c r="E14" s="419"/>
+      <c r="F14" s="420"/>
+      <c r="G14" s="363"/>
+      <c r="H14" s="364"/>
+      <c r="I14" s="365"/>
+      <c r="J14" s="363"/>
+      <c r="K14" s="364"/>
+      <c r="L14" s="364"/>
+      <c r="M14" s="364"/>
+      <c r="N14" s="364"/>
+      <c r="O14" s="364"/>
+      <c r="P14" s="365"/>
+      <c r="Q14" s="369"/>
+      <c r="R14" s="370"/>
+      <c r="S14" s="369"/>
+      <c r="T14" s="374"/>
+      <c r="U14" s="370"/>
+      <c r="V14" s="398"/>
+      <c r="W14" s="399"/>
+      <c r="X14" s="399"/>
+      <c r="Y14" s="399"/>
+      <c r="Z14" s="399"/>
+      <c r="AA14" s="399"/>
+      <c r="AB14" s="400"/>
+      <c r="AC14" s="427"/>
+      <c r="AD14" s="401"/>
+      <c r="AE14" s="402"/>
+      <c r="AF14" s="402"/>
+      <c r="AG14" s="403"/>
+      <c r="AH14" s="378"/>
+      <c r="AI14" s="379"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="195">
         <v>6</v>
       </c>
-      <c r="B15" s="394"/>
-      <c r="C15" s="395"/>
-      <c r="D15" s="395"/>
-      <c r="E15" s="395"/>
-      <c r="F15" s="396"/>
-      <c r="G15" s="391"/>
-      <c r="H15" s="392"/>
-      <c r="I15" s="393"/>
-      <c r="J15" s="391"/>
-      <c r="K15" s="392"/>
-      <c r="L15" s="392"/>
-      <c r="M15" s="392"/>
-      <c r="N15" s="392"/>
-      <c r="O15" s="392"/>
-      <c r="P15" s="393"/>
-      <c r="Q15" s="400"/>
-      <c r="R15" s="402"/>
-      <c r="S15" s="400"/>
-      <c r="T15" s="401"/>
-      <c r="U15" s="402"/>
-      <c r="V15" s="383"/>
-      <c r="W15" s="384"/>
-      <c r="X15" s="384"/>
-      <c r="Y15" s="384"/>
-      <c r="Z15" s="384"/>
-      <c r="AA15" s="384"/>
-      <c r="AB15" s="385"/>
-      <c r="AC15" s="423"/>
-      <c r="AD15" s="372"/>
-      <c r="AE15" s="373"/>
-      <c r="AF15" s="373"/>
-      <c r="AG15" s="374"/>
-      <c r="AH15" s="381"/>
-      <c r="AI15" s="382"/>
+      <c r="B15" s="418"/>
+      <c r="C15" s="419"/>
+      <c r="D15" s="419"/>
+      <c r="E15" s="419"/>
+      <c r="F15" s="420"/>
+      <c r="G15" s="363"/>
+      <c r="H15" s="364"/>
+      <c r="I15" s="365"/>
+      <c r="J15" s="363"/>
+      <c r="K15" s="364"/>
+      <c r="L15" s="364"/>
+      <c r="M15" s="364"/>
+      <c r="N15" s="364"/>
+      <c r="O15" s="364"/>
+      <c r="P15" s="365"/>
+      <c r="Q15" s="369"/>
+      <c r="R15" s="370"/>
+      <c r="S15" s="369"/>
+      <c r="T15" s="374"/>
+      <c r="U15" s="370"/>
+      <c r="V15" s="398"/>
+      <c r="W15" s="399"/>
+      <c r="X15" s="399"/>
+      <c r="Y15" s="399"/>
+      <c r="Z15" s="399"/>
+      <c r="AA15" s="399"/>
+      <c r="AB15" s="400"/>
+      <c r="AC15" s="427"/>
+      <c r="AD15" s="401"/>
+      <c r="AE15" s="402"/>
+      <c r="AF15" s="402"/>
+      <c r="AG15" s="403"/>
+      <c r="AH15" s="378"/>
+      <c r="AI15" s="379"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="196">
         <v>7</v>
       </c>
-      <c r="B16" s="394"/>
-      <c r="C16" s="395"/>
-      <c r="D16" s="395"/>
-      <c r="E16" s="395"/>
-      <c r="F16" s="396"/>
-      <c r="G16" s="391"/>
-      <c r="H16" s="392"/>
-      <c r="I16" s="393"/>
-      <c r="J16" s="391"/>
-      <c r="K16" s="392"/>
-      <c r="L16" s="392"/>
-      <c r="M16" s="392"/>
-      <c r="N16" s="392"/>
-      <c r="O16" s="392"/>
-      <c r="P16" s="393"/>
-      <c r="Q16" s="400"/>
-      <c r="R16" s="402"/>
-      <c r="S16" s="400"/>
-      <c r="T16" s="401"/>
-      <c r="U16" s="402"/>
-      <c r="V16" s="383"/>
-      <c r="W16" s="384"/>
-      <c r="X16" s="384"/>
-      <c r="Y16" s="384"/>
-      <c r="Z16" s="384"/>
-      <c r="AA16" s="384"/>
-      <c r="AB16" s="385"/>
-      <c r="AC16" s="423"/>
-      <c r="AD16" s="372"/>
-      <c r="AE16" s="373"/>
-      <c r="AF16" s="373"/>
-      <c r="AG16" s="374"/>
-      <c r="AH16" s="381"/>
-      <c r="AI16" s="382"/>
+      <c r="B16" s="418"/>
+      <c r="C16" s="419"/>
+      <c r="D16" s="419"/>
+      <c r="E16" s="419"/>
+      <c r="F16" s="420"/>
+      <c r="G16" s="363"/>
+      <c r="H16" s="364"/>
+      <c r="I16" s="365"/>
+      <c r="J16" s="363"/>
+      <c r="K16" s="364"/>
+      <c r="L16" s="364"/>
+      <c r="M16" s="364"/>
+      <c r="N16" s="364"/>
+      <c r="O16" s="364"/>
+      <c r="P16" s="365"/>
+      <c r="Q16" s="369"/>
+      <c r="R16" s="370"/>
+      <c r="S16" s="369"/>
+      <c r="T16" s="374"/>
+      <c r="U16" s="370"/>
+      <c r="V16" s="398"/>
+      <c r="W16" s="399"/>
+      <c r="X16" s="399"/>
+      <c r="Y16" s="399"/>
+      <c r="Z16" s="399"/>
+      <c r="AA16" s="399"/>
+      <c r="AB16" s="400"/>
+      <c r="AC16" s="427"/>
+      <c r="AD16" s="401"/>
+      <c r="AE16" s="402"/>
+      <c r="AF16" s="402"/>
+      <c r="AG16" s="403"/>
+      <c r="AH16" s="378"/>
+      <c r="AI16" s="379"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="196">
         <v>8</v>
       </c>
-      <c r="B17" s="394"/>
-      <c r="C17" s="395"/>
-      <c r="D17" s="395"/>
-      <c r="E17" s="395"/>
-      <c r="F17" s="396"/>
-      <c r="G17" s="391"/>
-      <c r="H17" s="392"/>
-      <c r="I17" s="393"/>
-      <c r="J17" s="391"/>
-      <c r="K17" s="392"/>
-      <c r="L17" s="392"/>
-      <c r="M17" s="392"/>
-      <c r="N17" s="392"/>
-      <c r="O17" s="392"/>
-      <c r="P17" s="393"/>
-      <c r="Q17" s="400"/>
-      <c r="R17" s="402"/>
-      <c r="S17" s="400"/>
-      <c r="T17" s="401"/>
-      <c r="U17" s="402"/>
-      <c r="V17" s="383"/>
-      <c r="W17" s="384"/>
-      <c r="X17" s="384"/>
-      <c r="Y17" s="384"/>
-      <c r="Z17" s="384"/>
-      <c r="AA17" s="384"/>
-      <c r="AB17" s="385"/>
-      <c r="AC17" s="423"/>
-      <c r="AD17" s="372"/>
-      <c r="AE17" s="373"/>
-      <c r="AF17" s="373"/>
-      <c r="AG17" s="374"/>
-      <c r="AH17" s="381"/>
-      <c r="AI17" s="382"/>
+      <c r="B17" s="418"/>
+      <c r="C17" s="419"/>
+      <c r="D17" s="419"/>
+      <c r="E17" s="419"/>
+      <c r="F17" s="420"/>
+      <c r="G17" s="363"/>
+      <c r="H17" s="364"/>
+      <c r="I17" s="365"/>
+      <c r="J17" s="363"/>
+      <c r="K17" s="364"/>
+      <c r="L17" s="364"/>
+      <c r="M17" s="364"/>
+      <c r="N17" s="364"/>
+      <c r="O17" s="364"/>
+      <c r="P17" s="365"/>
+      <c r="Q17" s="369"/>
+      <c r="R17" s="370"/>
+      <c r="S17" s="369"/>
+      <c r="T17" s="374"/>
+      <c r="U17" s="370"/>
+      <c r="V17" s="398"/>
+      <c r="W17" s="399"/>
+      <c r="X17" s="399"/>
+      <c r="Y17" s="399"/>
+      <c r="Z17" s="399"/>
+      <c r="AA17" s="399"/>
+      <c r="AB17" s="400"/>
+      <c r="AC17" s="427"/>
+      <c r="AD17" s="401"/>
+      <c r="AE17" s="402"/>
+      <c r="AF17" s="402"/>
+      <c r="AG17" s="403"/>
+      <c r="AH17" s="378"/>
+      <c r="AI17" s="379"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="197">
         <v>9</v>
       </c>
-      <c r="B18" s="417"/>
-      <c r="C18" s="418"/>
-      <c r="D18" s="418"/>
-      <c r="E18" s="418"/>
-      <c r="F18" s="419"/>
-      <c r="G18" s="414"/>
-      <c r="H18" s="415"/>
-      <c r="I18" s="416"/>
-      <c r="J18" s="414"/>
-      <c r="K18" s="415"/>
-      <c r="L18" s="415"/>
-      <c r="M18" s="415"/>
-      <c r="N18" s="415"/>
-      <c r="O18" s="415"/>
-      <c r="P18" s="416"/>
-      <c r="Q18" s="411"/>
-      <c r="R18" s="413"/>
-      <c r="S18" s="411"/>
-      <c r="T18" s="412"/>
-      <c r="U18" s="413"/>
-      <c r="V18" s="406"/>
-      <c r="W18" s="407"/>
-      <c r="X18" s="407"/>
-      <c r="Y18" s="407"/>
-      <c r="Z18" s="407"/>
-      <c r="AA18" s="407"/>
-      <c r="AB18" s="408"/>
-      <c r="AC18" s="424"/>
-      <c r="AD18" s="363"/>
-      <c r="AE18" s="364"/>
-      <c r="AF18" s="364"/>
-      <c r="AG18" s="365"/>
-      <c r="AH18" s="420"/>
-      <c r="AI18" s="421"/>
+      <c r="B18" s="421"/>
+      <c r="C18" s="422"/>
+      <c r="D18" s="422"/>
+      <c r="E18" s="422"/>
+      <c r="F18" s="423"/>
+      <c r="G18" s="415"/>
+      <c r="H18" s="416"/>
+      <c r="I18" s="417"/>
+      <c r="J18" s="415"/>
+      <c r="K18" s="416"/>
+      <c r="L18" s="416"/>
+      <c r="M18" s="416"/>
+      <c r="N18" s="416"/>
+      <c r="O18" s="416"/>
+      <c r="P18" s="417"/>
+      <c r="Q18" s="412"/>
+      <c r="R18" s="414"/>
+      <c r="S18" s="412"/>
+      <c r="T18" s="413"/>
+      <c r="U18" s="414"/>
+      <c r="V18" s="407"/>
+      <c r="W18" s="408"/>
+      <c r="X18" s="408"/>
+      <c r="Y18" s="408"/>
+      <c r="Z18" s="408"/>
+      <c r="AA18" s="408"/>
+      <c r="AB18" s="409"/>
+      <c r="AC18" s="428"/>
+      <c r="AD18" s="435"/>
+      <c r="AE18" s="436"/>
+      <c r="AF18" s="436"/>
+      <c r="AG18" s="437"/>
+      <c r="AH18" s="424"/>
+      <c r="AI18" s="425"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="409"/>
-      <c r="B19" s="410"/>
-      <c r="C19" s="410"/>
-      <c r="D19" s="410"/>
-      <c r="E19" s="410"/>
-      <c r="F19" s="410"/>
+      <c r="A19" s="410"/>
+      <c r="B19" s="411"/>
+      <c r="C19" s="411"/>
+      <c r="D19" s="411"/>
+      <c r="E19" s="411"/>
+      <c r="F19" s="411"/>
       <c r="G19" s="130"/>
       <c r="H19" s="130"/>
       <c r="I19" s="130"/>
@@ -15150,23 +15153,23 @@
       <c r="AA19" s="130"/>
       <c r="AB19" s="130"/>
       <c r="AC19" s="39"/>
-      <c r="AD19" s="405"/>
-      <c r="AE19" s="405"/>
-      <c r="AF19" s="405"/>
-      <c r="AG19" s="405"/>
-      <c r="AH19" s="405"/>
+      <c r="AD19" s="406"/>
+      <c r="AE19" s="406"/>
+      <c r="AF19" s="406"/>
+      <c r="AG19" s="406"/>
+      <c r="AH19" s="406"/>
       <c r="AI19" s="75"/>
       <c r="AJ19" s="34"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="403" t="s">
+      <c r="A20" s="404" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="404"/>
-      <c r="C20" s="404"/>
-      <c r="D20" s="404"/>
-      <c r="E20" s="404"/>
-      <c r="F20" s="404"/>
+      <c r="B20" s="405"/>
+      <c r="C20" s="405"/>
+      <c r="D20" s="405"/>
+      <c r="E20" s="405"/>
+      <c r="F20" s="405"/>
       <c r="G20" s="154"/>
       <c r="H20" s="155"/>
       <c r="I20" s="155"/>
@@ -15713,20 +15716,72 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AH16:AI16"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
@@ -15751,72 +15806,20 @@
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="V10:AB10"/>
     <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations disablePrompts="1" count="2">
@@ -15846,7 +15849,7 @@
   <dimension ref="A1:CQ45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -15855,155 +15858,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="309" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="257" t="str">
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="258"/>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
-      <c r="M1" s="258"/>
-      <c r="N1" s="259"/>
-      <c r="O1" s="315" t="s">
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="312" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="316"/>
-      <c r="Q1" s="316"/>
-      <c r="R1" s="317"/>
-      <c r="S1" s="305" t="str">
+      <c r="P1" s="313"/>
+      <c r="Q1" s="313"/>
+      <c r="R1" s="314"/>
+      <c r="S1" s="300" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(JSON)
 A42AA02/振込依頼作成</v>
       </c>
-      <c r="T1" s="306"/>
-      <c r="U1" s="306"/>
-      <c r="V1" s="306"/>
-      <c r="W1" s="306"/>
-      <c r="X1" s="306"/>
-      <c r="Y1" s="306"/>
-      <c r="Z1" s="307"/>
-      <c r="AA1" s="303" t="s">
+      <c r="T1" s="301"/>
+      <c r="U1" s="301"/>
+      <c r="V1" s="301"/>
+      <c r="W1" s="301"/>
+      <c r="X1" s="301"/>
+      <c r="Y1" s="301"/>
+      <c r="Z1" s="302"/>
+      <c r="AA1" s="309" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="304"/>
+      <c r="AB1" s="311"/>
       <c r="AC1" s="242" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
       <c r="AD1" s="243"/>
       <c r="AE1" s="243"/>
-      <c r="AF1" s="324">
+      <c r="AF1" s="360">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AG1" s="325"/>
-      <c r="AH1" s="326"/>
+      <c r="AG1" s="361"/>
+      <c r="AH1" s="362"/>
     </row>
     <row r="2" spans="1:95" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="309" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="314"/>
-      <c r="C2" s="314"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="257" t="str">
+      <c r="B2" s="310"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="259"/>
-      <c r="O2" s="318"/>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
-      <c r="R2" s="320"/>
-      <c r="S2" s="308"/>
-      <c r="T2" s="309"/>
-      <c r="U2" s="309"/>
-      <c r="V2" s="309"/>
-      <c r="W2" s="309"/>
-      <c r="X2" s="309"/>
-      <c r="Y2" s="309"/>
-      <c r="Z2" s="310"/>
-      <c r="AA2" s="303" t="s">
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="315"/>
+      <c r="P2" s="316"/>
+      <c r="Q2" s="316"/>
+      <c r="R2" s="317"/>
+      <c r="S2" s="303"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="304"/>
+      <c r="Y2" s="304"/>
+      <c r="Z2" s="305"/>
+      <c r="AA2" s="309" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="304"/>
+      <c r="AB2" s="311"/>
       <c r="AC2" s="242" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
       <c r="AD2" s="243"/>
       <c r="AE2" s="243"/>
-      <c r="AF2" s="324" t="str">
+      <c r="AF2" s="360" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AG2" s="325"/>
-      <c r="AH2" s="326"/>
+      <c r="AG2" s="361"/>
+      <c r="AH2" s="362"/>
     </row>
     <row r="3" spans="1:95" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="309" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="314"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="257" t="str">
+      <c r="B3" s="310"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="259"/>
-      <c r="O3" s="321"/>
-      <c r="P3" s="322"/>
-      <c r="Q3" s="322"/>
-      <c r="R3" s="323"/>
-      <c r="S3" s="311"/>
-      <c r="T3" s="312"/>
-      <c r="U3" s="312"/>
-      <c r="V3" s="312"/>
-      <c r="W3" s="312"/>
-      <c r="X3" s="312"/>
-      <c r="Y3" s="312"/>
-      <c r="Z3" s="313"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="304"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="318"/>
+      <c r="P3" s="319"/>
+      <c r="Q3" s="319"/>
+      <c r="R3" s="320"/>
+      <c r="S3" s="306"/>
+      <c r="T3" s="307"/>
+      <c r="U3" s="307"/>
+      <c r="V3" s="307"/>
+      <c r="W3" s="307"/>
+      <c r="X3" s="307"/>
+      <c r="Y3" s="307"/>
+      <c r="Z3" s="308"/>
+      <c r="AA3" s="309"/>
+      <c r="AB3" s="311"/>
       <c r="AC3" s="242" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
       <c r="AD3" s="243"/>
       <c r="AE3" s="243"/>
-      <c r="AF3" s="324" t="str">
+      <c r="AF3" s="360" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AG3" s="325"/>
-      <c r="AH3" s="326"/>
+      <c r="AG3" s="361"/>
+      <c r="AH3" s="362"/>
     </row>
     <row r="4" spans="1:95" ht="12" customHeight="1"/>
     <row r="5" spans="1:95" ht="15" customHeight="1">
@@ -16021,32 +16024,32 @@
       <c r="D6" s="92"/>
     </row>
     <row r="7" spans="1:95" ht="15" customHeight="1">
-      <c r="A7" s="465" t="s">
+      <c r="A7" s="472" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="466"/>
-      <c r="C7" s="467"/>
-      <c r="D7" s="468" t="s">
+      <c r="B7" s="473"/>
+      <c r="C7" s="474"/>
+      <c r="D7" s="475" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="469"/>
-      <c r="F7" s="469"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="470"/>
+      <c r="E7" s="476"/>
+      <c r="F7" s="476"/>
+      <c r="G7" s="476"/>
+      <c r="H7" s="477"/>
     </row>
     <row r="8" spans="1:95" ht="15" customHeight="1">
-      <c r="A8" s="465" t="s">
+      <c r="A8" s="472" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="466"/>
-      <c r="C8" s="467"/>
-      <c r="D8" s="468" t="s">
+      <c r="B8" s="473"/>
+      <c r="C8" s="474"/>
+      <c r="D8" s="475" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="469"/>
-      <c r="F8" s="469"/>
-      <c r="G8" s="469"/>
-      <c r="H8" s="470"/>
+      <c r="E8" s="476"/>
+      <c r="F8" s="476"/>
+      <c r="G8" s="476"/>
+      <c r="H8" s="477"/>
       <c r="L8" s="92"/>
       <c r="M8" s="92"/>
       <c r="N8" s="92"/>
@@ -16070,63 +16073,63 @@
       <c r="A9" s="209" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="451" t="s">
+      <c r="B9" s="454" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="452"/>
-      <c r="D9" s="452"/>
-      <c r="E9" s="452"/>
-      <c r="F9" s="453"/>
-      <c r="G9" s="451" t="s">
+      <c r="C9" s="455"/>
+      <c r="D9" s="455"/>
+      <c r="E9" s="455"/>
+      <c r="F9" s="456"/>
+      <c r="G9" s="454" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="452"/>
-      <c r="I9" s="452"/>
-      <c r="J9" s="452"/>
-      <c r="K9" s="453"/>
-      <c r="L9" s="451" t="s">
+      <c r="H9" s="455"/>
+      <c r="I9" s="455"/>
+      <c r="J9" s="455"/>
+      <c r="K9" s="456"/>
+      <c r="L9" s="454" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="452"/>
-      <c r="N9" s="452"/>
-      <c r="O9" s="452"/>
-      <c r="P9" s="453"/>
+      <c r="M9" s="455"/>
+      <c r="N9" s="455"/>
+      <c r="O9" s="455"/>
+      <c r="P9" s="456"/>
       <c r="Q9" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="463" t="s">
+      <c r="R9" s="457" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="463"/>
-      <c r="T9" s="463"/>
-      <c r="U9" s="463"/>
-      <c r="V9" s="464" t="s">
+      <c r="S9" s="457"/>
+      <c r="T9" s="457"/>
+      <c r="U9" s="457"/>
+      <c r="V9" s="479" t="s">
         <v>126</v>
       </c>
-      <c r="W9" s="450"/>
-      <c r="X9" s="449" t="s">
+      <c r="W9" s="459"/>
+      <c r="X9" s="458" t="s">
         <v>55</v>
       </c>
-      <c r="Y9" s="450"/>
-      <c r="Z9" s="449" t="s">
+      <c r="Y9" s="459"/>
+      <c r="Z9" s="458" t="s">
         <v>25</v>
       </c>
-      <c r="AA9" s="450"/>
-      <c r="AB9" s="451" t="s">
+      <c r="AA9" s="459"/>
+      <c r="AB9" s="454" t="s">
         <v>59</v>
       </c>
-      <c r="AC9" s="452"/>
-      <c r="AD9" s="453"/>
-      <c r="AE9" s="451" t="s">
+      <c r="AC9" s="455"/>
+      <c r="AD9" s="456"/>
+      <c r="AE9" s="454" t="s">
         <v>56</v>
       </c>
-      <c r="AF9" s="452"/>
-      <c r="AG9" s="452"/>
-      <c r="AH9" s="452"/>
-      <c r="AI9" s="452"/>
-      <c r="AJ9" s="452"/>
-      <c r="AK9" s="452"/>
-      <c r="AL9" s="453"/>
+      <c r="AF9" s="455"/>
+      <c r="AG9" s="455"/>
+      <c r="AH9" s="455"/>
+      <c r="AI9" s="455"/>
+      <c r="AJ9" s="455"/>
+      <c r="AK9" s="455"/>
+      <c r="AL9" s="456"/>
       <c r="AM9" s="75"/>
       <c r="AN9" s="75"/>
       <c r="AO9" s="75"/>
@@ -16186,55 +16189,55 @@
       <c r="A10" s="168">
         <v>1</v>
       </c>
-      <c r="B10" s="454" t="s">
+      <c r="B10" s="451" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="455"/>
-      <c r="D10" s="455"/>
-      <c r="E10" s="455"/>
-      <c r="F10" s="456"/>
-      <c r="G10" s="457" t="s">
+      <c r="C10" s="452"/>
+      <c r="D10" s="452"/>
+      <c r="E10" s="452"/>
+      <c r="F10" s="453"/>
+      <c r="G10" s="460" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="457"/>
-      <c r="I10" s="457"/>
-      <c r="J10" s="457"/>
-      <c r="K10" s="457"/>
-      <c r="L10" s="457" t="s">
+      <c r="H10" s="460"/>
+      <c r="I10" s="460"/>
+      <c r="J10" s="460"/>
+      <c r="K10" s="460"/>
+      <c r="L10" s="460" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="457"/>
-      <c r="N10" s="457"/>
-      <c r="O10" s="457"/>
-      <c r="P10" s="457"/>
+      <c r="M10" s="460"/>
+      <c r="N10" s="460"/>
+      <c r="O10" s="460"/>
+      <c r="P10" s="460"/>
       <c r="Q10" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="R10" s="477" t="s">
+      <c r="R10" s="468" t="s">
         <v>37</v>
       </c>
-      <c r="S10" s="455"/>
-      <c r="T10" s="455"/>
-      <c r="U10" s="456"/>
-      <c r="V10" s="459"/>
-      <c r="W10" s="460"/>
-      <c r="X10" s="459">
+      <c r="S10" s="452"/>
+      <c r="T10" s="452"/>
+      <c r="U10" s="453"/>
+      <c r="V10" s="462"/>
+      <c r="W10" s="463"/>
+      <c r="X10" s="462">
         <v>1</v>
       </c>
-      <c r="Y10" s="460"/>
-      <c r="Z10" s="478"/>
-      <c r="AA10" s="479"/>
-      <c r="AB10" s="454"/>
-      <c r="AC10" s="455"/>
-      <c r="AD10" s="456"/>
-      <c r="AE10" s="454"/>
-      <c r="AF10" s="455"/>
-      <c r="AG10" s="455"/>
-      <c r="AH10" s="455"/>
-      <c r="AI10" s="455"/>
-      <c r="AJ10" s="455"/>
-      <c r="AK10" s="455"/>
-      <c r="AL10" s="456"/>
+      <c r="Y10" s="463"/>
+      <c r="Z10" s="469"/>
+      <c r="AA10" s="470"/>
+      <c r="AB10" s="451"/>
+      <c r="AC10" s="452"/>
+      <c r="AD10" s="453"/>
+      <c r="AE10" s="451"/>
+      <c r="AF10" s="452"/>
+      <c r="AG10" s="452"/>
+      <c r="AH10" s="452"/>
+      <c r="AI10" s="452"/>
+      <c r="AJ10" s="452"/>
+      <c r="AK10" s="452"/>
+      <c r="AL10" s="453"/>
       <c r="AM10" s="202"/>
       <c r="AN10" s="202"/>
       <c r="AO10" s="202"/>
@@ -16293,55 +16296,55 @@
       <c r="A11" s="168">
         <v>2</v>
       </c>
-      <c r="B11" s="454" t="s">
+      <c r="B11" s="451" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="455"/>
-      <c r="D11" s="455"/>
-      <c r="E11" s="455"/>
-      <c r="F11" s="456"/>
-      <c r="G11" s="457" t="s">
+      <c r="C11" s="452"/>
+      <c r="D11" s="452"/>
+      <c r="E11" s="452"/>
+      <c r="F11" s="453"/>
+      <c r="G11" s="460" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="457"/>
-      <c r="I11" s="457"/>
-      <c r="J11" s="457"/>
-      <c r="K11" s="457"/>
-      <c r="L11" s="457" t="s">
+      <c r="H11" s="460"/>
+      <c r="I11" s="460"/>
+      <c r="J11" s="460"/>
+      <c r="K11" s="460"/>
+      <c r="L11" s="460" t="s">
         <v>98</v>
       </c>
-      <c r="M11" s="457"/>
-      <c r="N11" s="457"/>
-      <c r="O11" s="457"/>
-      <c r="P11" s="457"/>
+      <c r="M11" s="460"/>
+      <c r="N11" s="460"/>
+      <c r="O11" s="460"/>
+      <c r="P11" s="460"/>
       <c r="Q11" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="R11" s="454" t="s">
+      <c r="R11" s="451" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="455"/>
-      <c r="T11" s="455"/>
-      <c r="U11" s="456"/>
-      <c r="V11" s="459"/>
-      <c r="W11" s="460"/>
-      <c r="X11" s="459">
+      <c r="S11" s="452"/>
+      <c r="T11" s="452"/>
+      <c r="U11" s="453"/>
+      <c r="V11" s="462"/>
+      <c r="W11" s="463"/>
+      <c r="X11" s="462">
         <v>1</v>
       </c>
-      <c r="Y11" s="460"/>
-      <c r="Z11" s="461"/>
-      <c r="AA11" s="462"/>
-      <c r="AB11" s="454"/>
-      <c r="AC11" s="455"/>
-      <c r="AD11" s="456"/>
-      <c r="AE11" s="454"/>
-      <c r="AF11" s="455"/>
-      <c r="AG11" s="455"/>
-      <c r="AH11" s="455"/>
-      <c r="AI11" s="455"/>
-      <c r="AJ11" s="455"/>
-      <c r="AK11" s="455"/>
-      <c r="AL11" s="456"/>
+      <c r="Y11" s="463"/>
+      <c r="Z11" s="449"/>
+      <c r="AA11" s="450"/>
+      <c r="AB11" s="451"/>
+      <c r="AC11" s="452"/>
+      <c r="AD11" s="453"/>
+      <c r="AE11" s="451"/>
+      <c r="AF11" s="452"/>
+      <c r="AG11" s="452"/>
+      <c r="AH11" s="452"/>
+      <c r="AI11" s="452"/>
+      <c r="AJ11" s="452"/>
+      <c r="AK11" s="452"/>
+      <c r="AL11" s="453"/>
       <c r="AM11" s="202"/>
       <c r="AN11" s="202"/>
       <c r="AO11" s="202"/>
@@ -16400,40 +16403,40 @@
       <c r="A12" s="168">
         <v>3</v>
       </c>
-      <c r="B12" s="477" t="s">
+      <c r="B12" s="468" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="455"/>
-      <c r="D12" s="455"/>
-      <c r="E12" s="455"/>
-      <c r="F12" s="456"/>
-      <c r="G12" s="471" t="s">
+      <c r="C12" s="452"/>
+      <c r="D12" s="452"/>
+      <c r="E12" s="452"/>
+      <c r="F12" s="453"/>
+      <c r="G12" s="478" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="472"/>
-      <c r="I12" s="472"/>
-      <c r="J12" s="472"/>
-      <c r="K12" s="462"/>
-      <c r="L12" s="461"/>
-      <c r="M12" s="472"/>
-      <c r="N12" s="472"/>
-      <c r="O12" s="472"/>
-      <c r="P12" s="462"/>
+      <c r="H12" s="471"/>
+      <c r="I12" s="471"/>
+      <c r="J12" s="471"/>
+      <c r="K12" s="450"/>
+      <c r="L12" s="449"/>
+      <c r="M12" s="471"/>
+      <c r="N12" s="471"/>
+      <c r="O12" s="471"/>
+      <c r="P12" s="450"/>
       <c r="Q12" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="R12" s="454" t="s">
+      <c r="R12" s="451" t="s">
         <v>116</v>
       </c>
-      <c r="S12" s="455"/>
-      <c r="T12" s="455"/>
-      <c r="U12" s="456"/>
-      <c r="V12" s="459"/>
-      <c r="W12" s="460"/>
-      <c r="X12" s="459">
+      <c r="S12" s="452"/>
+      <c r="T12" s="452"/>
+      <c r="U12" s="453"/>
+      <c r="V12" s="462"/>
+      <c r="W12" s="463"/>
+      <c r="X12" s="462">
         <v>1</v>
       </c>
-      <c r="Y12" s="460"/>
+      <c r="Y12" s="463"/>
       <c r="Z12" s="212"/>
       <c r="AA12" s="213"/>
       <c r="AB12" s="62"/>
@@ -16505,40 +16508,40 @@
       <c r="A13" s="168">
         <v>4</v>
       </c>
-      <c r="B13" s="477" t="s">
+      <c r="B13" s="468" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="455"/>
-      <c r="D13" s="455"/>
-      <c r="E13" s="455"/>
-      <c r="F13" s="456"/>
-      <c r="G13" s="471" t="s">
+      <c r="C13" s="452"/>
+      <c r="D13" s="452"/>
+      <c r="E13" s="452"/>
+      <c r="F13" s="453"/>
+      <c r="G13" s="478" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="472"/>
-      <c r="I13" s="472"/>
-      <c r="J13" s="472"/>
-      <c r="K13" s="462"/>
-      <c r="L13" s="461"/>
-      <c r="M13" s="472"/>
-      <c r="N13" s="472"/>
-      <c r="O13" s="472"/>
-      <c r="P13" s="462"/>
+      <c r="H13" s="471"/>
+      <c r="I13" s="471"/>
+      <c r="J13" s="471"/>
+      <c r="K13" s="450"/>
+      <c r="L13" s="449"/>
+      <c r="M13" s="471"/>
+      <c r="N13" s="471"/>
+      <c r="O13" s="471"/>
+      <c r="P13" s="450"/>
       <c r="Q13" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="R13" s="454" t="s">
+      <c r="R13" s="451" t="s">
         <v>116</v>
       </c>
-      <c r="S13" s="455"/>
-      <c r="T13" s="455"/>
-      <c r="U13" s="456"/>
-      <c r="V13" s="459"/>
-      <c r="W13" s="460"/>
-      <c r="X13" s="459">
+      <c r="S13" s="452"/>
+      <c r="T13" s="452"/>
+      <c r="U13" s="453"/>
+      <c r="V13" s="462"/>
+      <c r="W13" s="463"/>
+      <c r="X13" s="462">
         <v>1</v>
       </c>
-      <c r="Y13" s="460"/>
+      <c r="Y13" s="463"/>
       <c r="Z13" s="212"/>
       <c r="AA13" s="213"/>
       <c r="AB13" s="62"/>
@@ -16657,18 +16660,18 @@
       <c r="CQ14" s="82"/>
     </row>
     <row r="15" spans="1:95" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="465" t="s">
+      <c r="A15" s="472" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="466"/>
-      <c r="C15" s="467"/>
-      <c r="D15" s="468" t="s">
+      <c r="B15" s="473"/>
+      <c r="C15" s="474"/>
+      <c r="D15" s="475" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="469"/>
-      <c r="F15" s="469"/>
-      <c r="G15" s="469"/>
-      <c r="H15" s="470"/>
+      <c r="E15" s="476"/>
+      <c r="F15" s="476"/>
+      <c r="G15" s="476"/>
+      <c r="H15" s="477"/>
       <c r="I15" s="218"/>
       <c r="J15" s="218"/>
       <c r="K15" s="218"/>
@@ -16711,18 +16714,18 @@
       <c r="CQ15" s="82"/>
     </row>
     <row r="16" spans="1:95" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="465" t="s">
+      <c r="A16" s="472" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="466"/>
-      <c r="C16" s="467"/>
-      <c r="D16" s="468" t="s">
+      <c r="B16" s="473"/>
+      <c r="C16" s="474"/>
+      <c r="D16" s="475" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="469"/>
-      <c r="F16" s="469"/>
-      <c r="G16" s="469"/>
-      <c r="H16" s="470"/>
+      <c r="E16" s="476"/>
+      <c r="F16" s="476"/>
+      <c r="G16" s="476"/>
+      <c r="H16" s="477"/>
       <c r="I16" s="218"/>
       <c r="J16" s="218"/>
       <c r="K16" s="218"/>
@@ -16769,63 +16772,63 @@
       <c r="A17" s="209" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="451" t="s">
+      <c r="B17" s="454" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="452"/>
-      <c r="D17" s="452"/>
-      <c r="E17" s="452"/>
-      <c r="F17" s="453"/>
-      <c r="G17" s="451" t="s">
+      <c r="C17" s="455"/>
+      <c r="D17" s="455"/>
+      <c r="E17" s="455"/>
+      <c r="F17" s="456"/>
+      <c r="G17" s="454" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="452"/>
-      <c r="I17" s="452"/>
-      <c r="J17" s="452"/>
-      <c r="K17" s="453"/>
-      <c r="L17" s="451" t="s">
+      <c r="H17" s="455"/>
+      <c r="I17" s="455"/>
+      <c r="J17" s="455"/>
+      <c r="K17" s="456"/>
+      <c r="L17" s="454" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="452"/>
-      <c r="N17" s="452"/>
-      <c r="O17" s="452"/>
-      <c r="P17" s="453"/>
+      <c r="M17" s="455"/>
+      <c r="N17" s="455"/>
+      <c r="O17" s="455"/>
+      <c r="P17" s="456"/>
       <c r="Q17" s="238" t="s">
         <v>60</v>
       </c>
-      <c r="R17" s="463" t="s">
+      <c r="R17" s="457" t="s">
         <v>66</v>
       </c>
-      <c r="S17" s="463"/>
-      <c r="T17" s="463"/>
-      <c r="U17" s="463"/>
-      <c r="V17" s="464" t="s">
+      <c r="S17" s="457"/>
+      <c r="T17" s="457"/>
+      <c r="U17" s="457"/>
+      <c r="V17" s="479" t="s">
         <v>126</v>
       </c>
-      <c r="W17" s="450"/>
-      <c r="X17" s="449" t="s">
+      <c r="W17" s="459"/>
+      <c r="X17" s="458" t="s">
         <v>55</v>
       </c>
-      <c r="Y17" s="450"/>
-      <c r="Z17" s="449" t="s">
+      <c r="Y17" s="459"/>
+      <c r="Z17" s="458" t="s">
         <v>25</v>
       </c>
-      <c r="AA17" s="450"/>
-      <c r="AB17" s="451" t="s">
+      <c r="AA17" s="459"/>
+      <c r="AB17" s="454" t="s">
         <v>59</v>
       </c>
-      <c r="AC17" s="452"/>
-      <c r="AD17" s="453"/>
-      <c r="AE17" s="451" t="s">
+      <c r="AC17" s="455"/>
+      <c r="AD17" s="456"/>
+      <c r="AE17" s="454" t="s">
         <v>56</v>
       </c>
-      <c r="AF17" s="452"/>
-      <c r="AG17" s="452"/>
-      <c r="AH17" s="452"/>
-      <c r="AI17" s="452"/>
-      <c r="AJ17" s="452"/>
-      <c r="AK17" s="452"/>
-      <c r="AL17" s="453"/>
+      <c r="AF17" s="455"/>
+      <c r="AG17" s="455"/>
+      <c r="AH17" s="455"/>
+      <c r="AI17" s="455"/>
+      <c r="AJ17" s="455"/>
+      <c r="AK17" s="455"/>
+      <c r="AL17" s="456"/>
       <c r="AM17" s="75"/>
       <c r="AN17" s="75"/>
       <c r="AO17" s="75"/>
@@ -16885,55 +16888,55 @@
       <c r="A18" s="168">
         <v>1</v>
       </c>
-      <c r="B18" s="454" t="s">
+      <c r="B18" s="451" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="455"/>
-      <c r="D18" s="455"/>
-      <c r="E18" s="455"/>
-      <c r="F18" s="456"/>
-      <c r="G18" s="457" t="s">
+      <c r="C18" s="452"/>
+      <c r="D18" s="452"/>
+      <c r="E18" s="452"/>
+      <c r="F18" s="453"/>
+      <c r="G18" s="460" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="457"/>
-      <c r="I18" s="457"/>
-      <c r="J18" s="457"/>
-      <c r="K18" s="457"/>
-      <c r="L18" s="457" t="s">
+      <c r="H18" s="460"/>
+      <c r="I18" s="460"/>
+      <c r="J18" s="460"/>
+      <c r="K18" s="460"/>
+      <c r="L18" s="460" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="457"/>
-      <c r="N18" s="457"/>
-      <c r="O18" s="457"/>
-      <c r="P18" s="457"/>
+      <c r="M18" s="460"/>
+      <c r="N18" s="460"/>
+      <c r="O18" s="460"/>
+      <c r="P18" s="460"/>
       <c r="Q18" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="R18" s="458" t="s">
+      <c r="R18" s="461" t="s">
         <v>27</v>
       </c>
-      <c r="S18" s="458"/>
-      <c r="T18" s="458"/>
-      <c r="U18" s="458"/>
-      <c r="V18" s="459"/>
-      <c r="W18" s="460"/>
-      <c r="X18" s="459">
+      <c r="S18" s="461"/>
+      <c r="T18" s="461"/>
+      <c r="U18" s="461"/>
+      <c r="V18" s="462"/>
+      <c r="W18" s="463"/>
+      <c r="X18" s="462">
         <v>1</v>
       </c>
-      <c r="Y18" s="460"/>
-      <c r="Z18" s="461"/>
-      <c r="AA18" s="462"/>
-      <c r="AB18" s="454"/>
-      <c r="AC18" s="455"/>
-      <c r="AD18" s="456"/>
-      <c r="AE18" s="454"/>
-      <c r="AF18" s="455"/>
-      <c r="AG18" s="455"/>
-      <c r="AH18" s="455"/>
-      <c r="AI18" s="455"/>
-      <c r="AJ18" s="455"/>
-      <c r="AK18" s="455"/>
-      <c r="AL18" s="456"/>
+      <c r="Y18" s="463"/>
+      <c r="Z18" s="449"/>
+      <c r="AA18" s="450"/>
+      <c r="AB18" s="451"/>
+      <c r="AC18" s="452"/>
+      <c r="AD18" s="453"/>
+      <c r="AE18" s="451"/>
+      <c r="AF18" s="452"/>
+      <c r="AG18" s="452"/>
+      <c r="AH18" s="452"/>
+      <c r="AI18" s="452"/>
+      <c r="AJ18" s="452"/>
+      <c r="AK18" s="452"/>
+      <c r="AL18" s="453"/>
       <c r="AM18" s="239"/>
       <c r="AN18" s="239"/>
       <c r="AO18" s="239"/>
@@ -16992,55 +16995,55 @@
       <c r="A19" s="168">
         <v>2</v>
       </c>
-      <c r="B19" s="454" t="s">
+      <c r="B19" s="451" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="455"/>
-      <c r="D19" s="455"/>
-      <c r="E19" s="455"/>
-      <c r="F19" s="456"/>
-      <c r="G19" s="457" t="s">
+      <c r="C19" s="452"/>
+      <c r="D19" s="452"/>
+      <c r="E19" s="452"/>
+      <c r="F19" s="453"/>
+      <c r="G19" s="460" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="457"/>
-      <c r="I19" s="457"/>
-      <c r="J19" s="457"/>
-      <c r="K19" s="457"/>
-      <c r="L19" s="457" t="s">
+      <c r="H19" s="460"/>
+      <c r="I19" s="460"/>
+      <c r="J19" s="460"/>
+      <c r="K19" s="460"/>
+      <c r="L19" s="460" t="s">
         <v>100</v>
       </c>
-      <c r="M19" s="457"/>
-      <c r="N19" s="457"/>
-      <c r="O19" s="457"/>
-      <c r="P19" s="457"/>
+      <c r="M19" s="460"/>
+      <c r="N19" s="460"/>
+      <c r="O19" s="460"/>
+      <c r="P19" s="460"/>
       <c r="Q19" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="R19" s="458" t="s">
+      <c r="R19" s="461" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="458"/>
-      <c r="T19" s="458"/>
-      <c r="U19" s="458"/>
-      <c r="V19" s="459"/>
-      <c r="W19" s="460"/>
-      <c r="X19" s="459">
+      <c r="S19" s="461"/>
+      <c r="T19" s="461"/>
+      <c r="U19" s="461"/>
+      <c r="V19" s="462"/>
+      <c r="W19" s="463"/>
+      <c r="X19" s="462">
         <v>1</v>
       </c>
-      <c r="Y19" s="460"/>
-      <c r="Z19" s="461"/>
-      <c r="AA19" s="462"/>
-      <c r="AB19" s="454"/>
-      <c r="AC19" s="455"/>
-      <c r="AD19" s="456"/>
-      <c r="AE19" s="454"/>
-      <c r="AF19" s="455"/>
-      <c r="AG19" s="455"/>
-      <c r="AH19" s="455"/>
-      <c r="AI19" s="455"/>
-      <c r="AJ19" s="455"/>
-      <c r="AK19" s="455"/>
-      <c r="AL19" s="456"/>
+      <c r="Y19" s="463"/>
+      <c r="Z19" s="449"/>
+      <c r="AA19" s="450"/>
+      <c r="AB19" s="451"/>
+      <c r="AC19" s="452"/>
+      <c r="AD19" s="453"/>
+      <c r="AE19" s="451"/>
+      <c r="AF19" s="452"/>
+      <c r="AG19" s="452"/>
+      <c r="AH19" s="452"/>
+      <c r="AI19" s="452"/>
+      <c r="AJ19" s="452"/>
+      <c r="AK19" s="452"/>
+      <c r="AL19" s="453"/>
       <c r="AM19" s="239"/>
       <c r="AN19" s="239"/>
       <c r="AO19" s="239"/>
@@ -17146,18 +17149,18 @@
       <c r="CQ20" s="82"/>
     </row>
     <row r="21" spans="1:95" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="465" t="s">
+      <c r="A21" s="472" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="466"/>
-      <c r="C21" s="467"/>
-      <c r="D21" s="468" t="s">
+      <c r="B21" s="473"/>
+      <c r="C21" s="474"/>
+      <c r="D21" s="475" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="469"/>
-      <c r="F21" s="469"/>
-      <c r="G21" s="469"/>
-      <c r="H21" s="470"/>
+      <c r="E21" s="476"/>
+      <c r="F21" s="476"/>
+      <c r="G21" s="476"/>
+      <c r="H21" s="477"/>
       <c r="I21" s="218"/>
       <c r="J21" s="218"/>
       <c r="K21" s="218"/>
@@ -17200,18 +17203,18 @@
       <c r="CQ21" s="82"/>
     </row>
     <row r="22" spans="1:95" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="465" t="s">
+      <c r="A22" s="472" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="466"/>
-      <c r="C22" s="467"/>
-      <c r="D22" s="468" t="s">
+      <c r="B22" s="473"/>
+      <c r="C22" s="474"/>
+      <c r="D22" s="475" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="469"/>
-      <c r="F22" s="469"/>
-      <c r="G22" s="469"/>
-      <c r="H22" s="470"/>
+      <c r="E22" s="476"/>
+      <c r="F22" s="476"/>
+      <c r="G22" s="476"/>
+      <c r="H22" s="477"/>
       <c r="I22" s="218"/>
       <c r="J22" s="218"/>
       <c r="K22" s="218"/>
@@ -17258,63 +17261,63 @@
       <c r="A23" s="209" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="451" t="s">
+      <c r="B23" s="454" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="452"/>
-      <c r="D23" s="452"/>
-      <c r="E23" s="452"/>
-      <c r="F23" s="453"/>
-      <c r="G23" s="451" t="s">
+      <c r="C23" s="455"/>
+      <c r="D23" s="455"/>
+      <c r="E23" s="455"/>
+      <c r="F23" s="456"/>
+      <c r="G23" s="454" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="452"/>
-      <c r="I23" s="452"/>
-      <c r="J23" s="452"/>
-      <c r="K23" s="453"/>
-      <c r="L23" s="451" t="s">
+      <c r="H23" s="455"/>
+      <c r="I23" s="455"/>
+      <c r="J23" s="455"/>
+      <c r="K23" s="456"/>
+      <c r="L23" s="454" t="s">
         <v>80</v>
       </c>
-      <c r="M23" s="452"/>
-      <c r="N23" s="452"/>
-      <c r="O23" s="452"/>
-      <c r="P23" s="453"/>
+      <c r="M23" s="455"/>
+      <c r="N23" s="455"/>
+      <c r="O23" s="455"/>
+      <c r="P23" s="456"/>
       <c r="Q23" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="R23" s="463" t="s">
+      <c r="R23" s="457" t="s">
         <v>66</v>
       </c>
-      <c r="S23" s="463"/>
-      <c r="T23" s="463"/>
-      <c r="U23" s="463"/>
-      <c r="V23" s="464" t="s">
+      <c r="S23" s="457"/>
+      <c r="T23" s="457"/>
+      <c r="U23" s="457"/>
+      <c r="V23" s="479" t="s">
         <v>126</v>
       </c>
-      <c r="W23" s="450"/>
-      <c r="X23" s="449" t="s">
+      <c r="W23" s="459"/>
+      <c r="X23" s="458" t="s">
         <v>55</v>
       </c>
-      <c r="Y23" s="450"/>
-      <c r="Z23" s="449" t="s">
+      <c r="Y23" s="459"/>
+      <c r="Z23" s="458" t="s">
         <v>25</v>
       </c>
-      <c r="AA23" s="450"/>
-      <c r="AB23" s="451" t="s">
+      <c r="AA23" s="459"/>
+      <c r="AB23" s="454" t="s">
         <v>59</v>
       </c>
-      <c r="AC23" s="452"/>
-      <c r="AD23" s="453"/>
-      <c r="AE23" s="451" t="s">
+      <c r="AC23" s="455"/>
+      <c r="AD23" s="456"/>
+      <c r="AE23" s="454" t="s">
         <v>56</v>
       </c>
-      <c r="AF23" s="452"/>
-      <c r="AG23" s="452"/>
-      <c r="AH23" s="452"/>
-      <c r="AI23" s="452"/>
-      <c r="AJ23" s="452"/>
-      <c r="AK23" s="452"/>
-      <c r="AL23" s="453"/>
+      <c r="AF23" s="455"/>
+      <c r="AG23" s="455"/>
+      <c r="AH23" s="455"/>
+      <c r="AI23" s="455"/>
+      <c r="AJ23" s="455"/>
+      <c r="AK23" s="455"/>
+      <c r="AL23" s="456"/>
       <c r="AM23" s="75"/>
       <c r="AN23" s="75"/>
       <c r="AO23" s="75"/>
@@ -17374,55 +17377,55 @@
       <c r="A24" s="168">
         <v>1</v>
       </c>
-      <c r="B24" s="454" t="s">
+      <c r="B24" s="451" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="455"/>
-      <c r="D24" s="455"/>
-      <c r="E24" s="455"/>
-      <c r="F24" s="456"/>
-      <c r="G24" s="457" t="s">
+      <c r="C24" s="452"/>
+      <c r="D24" s="452"/>
+      <c r="E24" s="452"/>
+      <c r="F24" s="453"/>
+      <c r="G24" s="460" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="457"/>
-      <c r="I24" s="457"/>
-      <c r="J24" s="457"/>
-      <c r="K24" s="457"/>
-      <c r="L24" s="457" t="s">
+      <c r="H24" s="460"/>
+      <c r="I24" s="460"/>
+      <c r="J24" s="460"/>
+      <c r="K24" s="460"/>
+      <c r="L24" s="460" t="s">
         <v>99</v>
       </c>
-      <c r="M24" s="457"/>
-      <c r="N24" s="457"/>
-      <c r="O24" s="457"/>
-      <c r="P24" s="457"/>
+      <c r="M24" s="460"/>
+      <c r="N24" s="460"/>
+      <c r="O24" s="460"/>
+      <c r="P24" s="460"/>
       <c r="Q24" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="R24" s="458" t="s">
+      <c r="R24" s="461" t="s">
         <v>27</v>
       </c>
-      <c r="S24" s="458"/>
-      <c r="T24" s="458"/>
-      <c r="U24" s="458"/>
-      <c r="V24" s="459"/>
-      <c r="W24" s="460"/>
-      <c r="X24" s="459">
+      <c r="S24" s="461"/>
+      <c r="T24" s="461"/>
+      <c r="U24" s="461"/>
+      <c r="V24" s="462"/>
+      <c r="W24" s="463"/>
+      <c r="X24" s="462">
         <v>1</v>
       </c>
-      <c r="Y24" s="460"/>
-      <c r="Z24" s="461"/>
-      <c r="AA24" s="462"/>
-      <c r="AB24" s="454"/>
-      <c r="AC24" s="455"/>
-      <c r="AD24" s="456"/>
-      <c r="AE24" s="454"/>
-      <c r="AF24" s="455"/>
-      <c r="AG24" s="455"/>
-      <c r="AH24" s="455"/>
-      <c r="AI24" s="455"/>
-      <c r="AJ24" s="455"/>
-      <c r="AK24" s="455"/>
-      <c r="AL24" s="456"/>
+      <c r="Y24" s="463"/>
+      <c r="Z24" s="449"/>
+      <c r="AA24" s="450"/>
+      <c r="AB24" s="451"/>
+      <c r="AC24" s="452"/>
+      <c r="AD24" s="453"/>
+      <c r="AE24" s="451"/>
+      <c r="AF24" s="452"/>
+      <c r="AG24" s="452"/>
+      <c r="AH24" s="452"/>
+      <c r="AI24" s="452"/>
+      <c r="AJ24" s="452"/>
+      <c r="AK24" s="452"/>
+      <c r="AL24" s="453"/>
       <c r="AM24" s="202"/>
       <c r="AN24" s="202"/>
       <c r="AO24" s="202"/>
@@ -17481,55 +17484,55 @@
       <c r="A25" s="168">
         <v>2</v>
       </c>
-      <c r="B25" s="454" t="s">
+      <c r="B25" s="451" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="455"/>
-      <c r="D25" s="455"/>
-      <c r="E25" s="455"/>
-      <c r="F25" s="456"/>
-      <c r="G25" s="457" t="s">
+      <c r="C25" s="452"/>
+      <c r="D25" s="452"/>
+      <c r="E25" s="452"/>
+      <c r="F25" s="453"/>
+      <c r="G25" s="460" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="457"/>
-      <c r="I25" s="457"/>
-      <c r="J25" s="457"/>
-      <c r="K25" s="457"/>
-      <c r="L25" s="457" t="s">
+      <c r="H25" s="460"/>
+      <c r="I25" s="460"/>
+      <c r="J25" s="460"/>
+      <c r="K25" s="460"/>
+      <c r="L25" s="460" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="457"/>
-      <c r="N25" s="457"/>
-      <c r="O25" s="457"/>
-      <c r="P25" s="457"/>
+      <c r="M25" s="460"/>
+      <c r="N25" s="460"/>
+      <c r="O25" s="460"/>
+      <c r="P25" s="460"/>
       <c r="Q25" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="R25" s="458" t="s">
+      <c r="R25" s="461" t="s">
         <v>124</v>
       </c>
-      <c r="S25" s="458"/>
-      <c r="T25" s="458"/>
-      <c r="U25" s="458"/>
-      <c r="V25" s="459"/>
-      <c r="W25" s="460"/>
-      <c r="X25" s="459">
+      <c r="S25" s="461"/>
+      <c r="T25" s="461"/>
+      <c r="U25" s="461"/>
+      <c r="V25" s="462"/>
+      <c r="W25" s="463"/>
+      <c r="X25" s="462">
         <v>1</v>
       </c>
-      <c r="Y25" s="460"/>
-      <c r="Z25" s="461"/>
-      <c r="AA25" s="462"/>
-      <c r="AB25" s="454"/>
-      <c r="AC25" s="455"/>
-      <c r="AD25" s="456"/>
-      <c r="AE25" s="454"/>
-      <c r="AF25" s="455"/>
-      <c r="AG25" s="455"/>
-      <c r="AH25" s="455"/>
-      <c r="AI25" s="455"/>
-      <c r="AJ25" s="455"/>
-      <c r="AK25" s="455"/>
-      <c r="AL25" s="456"/>
+      <c r="Y25" s="463"/>
+      <c r="Z25" s="449"/>
+      <c r="AA25" s="450"/>
+      <c r="AB25" s="451"/>
+      <c r="AC25" s="452"/>
+      <c r="AD25" s="453"/>
+      <c r="AE25" s="451"/>
+      <c r="AF25" s="452"/>
+      <c r="AG25" s="452"/>
+      <c r="AH25" s="452"/>
+      <c r="AI25" s="452"/>
+      <c r="AJ25" s="452"/>
+      <c r="AK25" s="452"/>
+      <c r="AL25" s="453"/>
       <c r="AM25" s="202"/>
       <c r="AN25" s="202"/>
       <c r="AO25" s="202"/>
@@ -17685,46 +17688,46 @@
       <c r="CQ27" s="82"/>
     </row>
     <row r="28" spans="1:95" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="473" t="s">
+      <c r="A28" s="464" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="473"/>
-      <c r="C28" s="473"/>
-      <c r="D28" s="473"/>
-      <c r="E28" s="473"/>
-      <c r="F28" s="473"/>
-      <c r="G28" s="473"/>
-      <c r="H28" s="473"/>
-      <c r="I28" s="473"/>
-      <c r="J28" s="473"/>
-      <c r="K28" s="473"/>
-      <c r="L28" s="473"/>
-      <c r="M28" s="473"/>
-      <c r="N28" s="473"/>
-      <c r="O28" s="473"/>
-      <c r="P28" s="473"/>
-      <c r="Q28" s="473"/>
-      <c r="R28" s="473"/>
-      <c r="S28" s="473"/>
-      <c r="T28" s="473"/>
-      <c r="U28" s="473"/>
-      <c r="V28" s="473"/>
-      <c r="W28" s="473"/>
-      <c r="X28" s="473"/>
-      <c r="Y28" s="474" t="s">
+      <c r="B28" s="464"/>
+      <c r="C28" s="464"/>
+      <c r="D28" s="464"/>
+      <c r="E28" s="464"/>
+      <c r="F28" s="464"/>
+      <c r="G28" s="464"/>
+      <c r="H28" s="464"/>
+      <c r="I28" s="464"/>
+      <c r="J28" s="464"/>
+      <c r="K28" s="464"/>
+      <c r="L28" s="464"/>
+      <c r="M28" s="464"/>
+      <c r="N28" s="464"/>
+      <c r="O28" s="464"/>
+      <c r="P28" s="464"/>
+      <c r="Q28" s="464"/>
+      <c r="R28" s="464"/>
+      <c r="S28" s="464"/>
+      <c r="T28" s="464"/>
+      <c r="U28" s="464"/>
+      <c r="V28" s="464"/>
+      <c r="W28" s="464"/>
+      <c r="X28" s="464"/>
+      <c r="Y28" s="465" t="s">
         <v>79</v>
       </c>
-      <c r="Z28" s="475"/>
-      <c r="AA28" s="475"/>
-      <c r="AB28" s="475"/>
-      <c r="AC28" s="475"/>
-      <c r="AD28" s="475"/>
-      <c r="AE28" s="475"/>
-      <c r="AF28" s="475"/>
-      <c r="AG28" s="475"/>
-      <c r="AH28" s="475"/>
-      <c r="AI28" s="475"/>
-      <c r="AJ28" s="476"/>
+      <c r="Z28" s="466"/>
+      <c r="AA28" s="466"/>
+      <c r="AB28" s="466"/>
+      <c r="AC28" s="466"/>
+      <c r="AD28" s="466"/>
+      <c r="AE28" s="466"/>
+      <c r="AF28" s="466"/>
+      <c r="AG28" s="466"/>
+      <c r="AH28" s="466"/>
+      <c r="AI28" s="466"/>
+      <c r="AJ28" s="467"/>
     </row>
     <row r="29" spans="1:95" ht="15" customHeight="1">
       <c r="A29" s="223"/>
@@ -17782,7 +17785,7 @@
     <row r="30" spans="1:95" ht="15" customHeight="1">
       <c r="A30" s="228"/>
       <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
+      <c r="C30" s="480"/>
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
       <c r="F30" s="68"/>
@@ -18355,27 +18358,82 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AE19:AL19"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE17:AL17"/>
-    <mergeCell ref="AE18:AL18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AE23:AL23"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AE25:AL25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="AE24:AL24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="AE10:AL10"/>
+    <mergeCell ref="AE11:AL11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:H8"/>
     <mergeCell ref="A28:X28"/>
     <mergeCell ref="Y28:AJ28"/>
     <mergeCell ref="R9:U9"/>
@@ -18400,82 +18458,27 @@
     <mergeCell ref="AE9:AL9"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:K18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="AE10:AL10"/>
-    <mergeCell ref="AE11:AL11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="AE23:AL23"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AE25:AL25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="AE24:AL24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AE19:AL19"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE17:AL17"/>
+    <mergeCell ref="AE18:AL18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="R19:U19"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <dataValidations count="2">

--- a/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(JSON)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(JSON)_サンプル.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C0CD64-2AF7-4350-B96E-9808B912EAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915A4793-D472-4DBF-9287-85C2157E18F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" r:id="rId1"/>
@@ -13,19 +13,19 @@
     <sheet name="目次" sheetId="62" r:id="rId3"/>
     <sheet name="1. 外部インタフェース仕様" sheetId="51" r:id="rId4"/>
     <sheet name="2. レコード構成" sheetId="52" r:id="rId5"/>
-    <sheet name="振込依頼" sheetId="61" r:id="rId6"/>
+    <sheet name="3.1. 振込依頼" sheetId="61" r:id="rId6"/>
     <sheet name="データ" sheetId="54" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 外部インタフェース仕様'!$A$1:$AI$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. レコード構成'!$A$1:$AI$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">振込依頼!$A$1:$AL$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1. 振込依頼'!$A$1:$AL$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. 外部インタフェース仕様'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. レコード構成'!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">振込依頼!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'3.1. 振込依頼'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
     <definedName name="データ型">データ!$A$2:$A$17</definedName>
@@ -35,9 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -330,7 +328,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -361,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -375,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="Q10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -393,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="0" shapeId="0" xr:uid="{45AA60EC-079C-455D-9B6F-7B92CBD3D3F7}">
+    <comment ref="R10" authorId="0" shapeId="0" xr:uid="{45AA60EC-079C-455D-9B6F-7B92CBD3D3F7}">
       <text>
         <r>
           <rPr>
@@ -408,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="0" shapeId="0" xr:uid="{E7C78217-B61C-4AD6-929F-F2918ACD9283}">
+    <comment ref="V10" authorId="0" shapeId="0" xr:uid="{E7C78217-B61C-4AD6-929F-F2918ACD9283}">
       <text>
         <r>
           <rPr>
@@ -423,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="X10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -445,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="Z10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -463,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="AB10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -479,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{7856F59D-59D9-4669-986E-FFD8686D4B89}">
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{7856F59D-59D9-4669-986E-FFD8686D4B89}">
       <text>
         <r>
           <rPr>
@@ -495,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L17" authorId="0" shapeId="0" xr:uid="{59626C21-E83A-44D6-A14E-D12DCF414E38}">
+    <comment ref="L18" authorId="0" shapeId="0" xr:uid="{59626C21-E83A-44D6-A14E-D12DCF414E38}">
       <text>
         <r>
           <rPr>
@@ -509,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q17" authorId="0" shapeId="0" xr:uid="{ABDB1774-F033-4C8D-9A19-3F1E202E09E1}">
+    <comment ref="Q18" authorId="0" shapeId="0" xr:uid="{ABDB1774-F033-4C8D-9A19-3F1E202E09E1}">
       <text>
         <r>
           <rPr>
@@ -527,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="0" shapeId="0" xr:uid="{5222A353-8F5B-4E3E-A489-469964BC7B03}">
+    <comment ref="R18" authorId="0" shapeId="0" xr:uid="{5222A353-8F5B-4E3E-A489-469964BC7B03}">
       <text>
         <r>
           <rPr>
@@ -542,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V17" authorId="0" shapeId="0" xr:uid="{93E8C76B-5EB1-498B-8B83-6AF0C2E99365}">
+    <comment ref="V18" authorId="0" shapeId="0" xr:uid="{93E8C76B-5EB1-498B-8B83-6AF0C2E99365}">
       <text>
         <r>
           <rPr>
@@ -557,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X17" authorId="0" shapeId="0" xr:uid="{E505A82A-D0BC-4DF5-888F-554C7D700BF1}">
+    <comment ref="X18" authorId="0" shapeId="0" xr:uid="{E505A82A-D0BC-4DF5-888F-554C7D700BF1}">
       <text>
         <r>
           <rPr>
@@ -579,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z17" authorId="0" shapeId="0" xr:uid="{95D8B67D-7B7D-4144-B2A7-CDF8C68FB92B}">
+    <comment ref="Z18" authorId="0" shapeId="0" xr:uid="{95D8B67D-7B7D-4144-B2A7-CDF8C68FB92B}">
       <text>
         <r>
           <rPr>
@@ -597,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB17" authorId="0" shapeId="0" xr:uid="{D1E73595-A3DF-4B3E-9C2E-2683B232702A}">
+    <comment ref="AB18" authorId="0" shapeId="0" xr:uid="{D1E73595-A3DF-4B3E-9C2E-2683B232702A}">
       <text>
         <r>
           <rPr>
@@ -613,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{3AAA035B-B5B7-4854-A4C9-D5ABA586C142}">
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{3AAA035B-B5B7-4854-A4C9-D5ABA586C142}">
       <text>
         <r>
           <rPr>
@@ -629,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{F0E19539-94E7-49D3-ADF8-9DC731934319}">
+    <comment ref="L24" authorId="0" shapeId="0" xr:uid="{F0E19539-94E7-49D3-ADF8-9DC731934319}">
       <text>
         <r>
           <rPr>
@@ -643,7 +641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q23" authorId="0" shapeId="0" xr:uid="{952F62BD-4421-4773-A065-95B8E0052040}">
+    <comment ref="Q24" authorId="0" shapeId="0" xr:uid="{952F62BD-4421-4773-A065-95B8E0052040}">
       <text>
         <r>
           <rPr>
@@ -661,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V23" authorId="0" shapeId="0" xr:uid="{D7448952-5AD3-4A80-81CE-D37F47E1F4D7}">
+    <comment ref="V24" authorId="0" shapeId="0" xr:uid="{D7448952-5AD3-4A80-81CE-D37F47E1F4D7}">
       <text>
         <r>
           <rPr>
@@ -676,7 +674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X23" authorId="0" shapeId="0" xr:uid="{7F734466-7F57-4598-ACD2-C6FE46BEB1BC}">
+    <comment ref="X24" authorId="0" shapeId="0" xr:uid="{7F734466-7F57-4598-ACD2-C6FE46BEB1BC}">
       <text>
         <r>
           <rPr>
@@ -698,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z23" authorId="0" shapeId="0" xr:uid="{C2D9B573-5B2F-451B-8B1B-5B4476E0C3F3}">
+    <comment ref="Z24" authorId="0" shapeId="0" xr:uid="{C2D9B573-5B2F-451B-8B1B-5B4476E0C3F3}">
       <text>
         <r>
           <rPr>
@@ -716,7 +714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB23" authorId="0" shapeId="0" xr:uid="{521EB2A2-C5F7-4BB6-9810-204DBC333280}">
+    <comment ref="AB24" authorId="0" shapeId="0" xr:uid="{521EB2A2-C5F7-4BB6-9810-204DBC333280}">
       <text>
         <r>
           <rPr>
@@ -732,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
+    <comment ref="Y29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -752,7 +750,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="138">
   <si>
     <t>変更履歴（ 1　/ 1 ）</t>
   </si>
@@ -1219,16 +1217,6 @@
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>2. レコード構成</t>
     <rPh sb="7" eb="9">
       <t>コウセイ</t>
@@ -1611,6 +1599,54 @@
       <t>イライ</t>
     </rPh>
     <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>3. データレイアウト</t>
+  </si>
+  <si>
+    <t>1.1版</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>データレイアウト</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>・データレイアウトの各シートに章番号を付与</t>
+    <rPh sb="10" eb="11">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -2399,7 +2435,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="481">
+  <cellXfs count="484">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3072,6 +3108,12 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3780,8 +3822,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -7499,7 +7544,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1333500" cy="275717"/>
@@ -7563,7 +7608,7 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>180243</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>6270</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1347380" cy="275717"/>
@@ -7627,13 +7672,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7684,7 +7729,7 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>180243</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>189767</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1347380" cy="275717"/>
@@ -7748,13 +7793,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7954,13 +7999,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>9017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>180242</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>144129</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8017,7 +8062,7 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8151,7 +8196,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
@@ -8599,7 +8644,7 @@
   </sheetPr>
   <dimension ref="A1:Z512"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
   <cols>
@@ -8664,7 +8709,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="83"/>
       <c r="J23" s="84" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="K23" s="83"/>
       <c r="L23" s="83"/>
@@ -8693,12 +8738,12 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="244">
+      <c r="I25" s="246">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43336</v>
-      </c>
-      <c r="J25" s="244"/>
-      <c r="K25" s="244"/>
+        <v>44816</v>
+      </c>
+      <c r="J25" s="246"/>
+      <c r="K25" s="246"/>
       <c r="L25" s="83"/>
     </row>
     <row r="26" spans="2:19" ht="13.5" customHeight="1">
@@ -9330,155 +9375,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="290" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="251" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="291" t="s">
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="253" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="255"/>
+      <c r="O1" s="293" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="292"/>
-      <c r="Q1" s="292"/>
-      <c r="R1" s="293"/>
-      <c r="S1" s="257" t="s">
-        <v>118</v>
-      </c>
-      <c r="T1" s="258"/>
-      <c r="U1" s="258"/>
-      <c r="V1" s="258"/>
-      <c r="W1" s="258"/>
-      <c r="X1" s="258"/>
-      <c r="Y1" s="258"/>
-      <c r="Z1" s="259"/>
-      <c r="AA1" s="288" t="s">
+      <c r="P1" s="294"/>
+      <c r="Q1" s="294"/>
+      <c r="R1" s="295"/>
+      <c r="S1" s="259" t="s">
+        <v>117</v>
+      </c>
+      <c r="T1" s="260"/>
+      <c r="U1" s="260"/>
+      <c r="V1" s="260"/>
+      <c r="W1" s="260"/>
+      <c r="X1" s="260"/>
+      <c r="Y1" s="260"/>
+      <c r="Z1" s="261"/>
+      <c r="AA1" s="290" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="290"/>
-      <c r="AC1" s="245" t="str">
+      <c r="AB1" s="292"/>
+      <c r="AC1" s="247" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="246"/>
-      <c r="AE1" s="246"/>
-      <c r="AF1" s="247"/>
-      <c r="AG1" s="248">
+      <c r="AD1" s="248"/>
+      <c r="AE1" s="248"/>
+      <c r="AF1" s="249"/>
+      <c r="AG1" s="250">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="249"/>
-      <c r="AI1" s="250"/>
+      <c r="AH1" s="251"/>
+      <c r="AI1" s="252"/>
       <c r="AK1" s="66"/>
       <c r="AL1" s="66"/>
       <c r="AM1" s="66"/>
       <c r="AN1" s="67"/>
     </row>
     <row r="2" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="290" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="251" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="294"/>
-      <c r="P2" s="295"/>
-      <c r="Q2" s="295"/>
-      <c r="R2" s="296"/>
-      <c r="S2" s="260"/>
-      <c r="T2" s="261"/>
-      <c r="U2" s="261"/>
-      <c r="V2" s="261"/>
-      <c r="W2" s="261"/>
-      <c r="X2" s="261"/>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="262"/>
-      <c r="AA2" s="288" t="s">
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="253" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="296"/>
+      <c r="P2" s="297"/>
+      <c r="Q2" s="297"/>
+      <c r="R2" s="298"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="263"/>
+      <c r="U2" s="263"/>
+      <c r="V2" s="263"/>
+      <c r="W2" s="263"/>
+      <c r="X2" s="263"/>
+      <c r="Y2" s="263"/>
+      <c r="Z2" s="264"/>
+      <c r="AA2" s="290" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="290"/>
-      <c r="AC2" s="254" t="str">
+      <c r="AB2" s="292"/>
+      <c r="AC2" s="256" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="255"/>
-      <c r="AE2" s="255"/>
-      <c r="AF2" s="256"/>
-      <c r="AG2" s="248" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="257"/>
+      <c r="AE2" s="257"/>
+      <c r="AF2" s="258"/>
+      <c r="AG2" s="250">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="249"/>
-      <c r="AI2" s="250"/>
+        <v>44816</v>
+      </c>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="252"/>
       <c r="AK2" s="66"/>
       <c r="AL2" s="66"/>
       <c r="AM2" s="66"/>
       <c r="AN2" s="66"/>
     </row>
     <row r="3" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="288" t="s">
+      <c r="A3" s="290" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="251" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="297"/>
-      <c r="P3" s="298"/>
-      <c r="Q3" s="298"/>
-      <c r="R3" s="299"/>
-      <c r="S3" s="263"/>
-      <c r="T3" s="264"/>
-      <c r="U3" s="264"/>
-      <c r="V3" s="264"/>
-      <c r="W3" s="264"/>
-      <c r="X3" s="264"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="265"/>
-      <c r="AA3" s="288"/>
-      <c r="AB3" s="290"/>
-      <c r="AC3" s="245"/>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="246"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="248"/>
-      <c r="AH3" s="249"/>
-      <c r="AI3" s="250"/>
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="253" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="299"/>
+      <c r="P3" s="300"/>
+      <c r="Q3" s="300"/>
+      <c r="R3" s="301"/>
+      <c r="S3" s="265"/>
+      <c r="T3" s="266"/>
+      <c r="U3" s="266"/>
+      <c r="V3" s="266"/>
+      <c r="W3" s="266"/>
+      <c r="X3" s="266"/>
+      <c r="Y3" s="266"/>
+      <c r="Z3" s="267"/>
+      <c r="AA3" s="290"/>
+      <c r="AB3" s="292"/>
+      <c r="AC3" s="247"/>
+      <c r="AD3" s="248"/>
+      <c r="AE3" s="248"/>
+      <c r="AF3" s="249"/>
+      <c r="AG3" s="250"/>
+      <c r="AH3" s="251"/>
+      <c r="AI3" s="252"/>
       <c r="AK3" s="66"/>
       <c r="AL3" s="66"/>
       <c r="AM3" s="66"/>
@@ -9525,100 +9570,100 @@
       <c r="A7" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="266" t="s">
+      <c r="B7" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="268"/>
-      <c r="D7" s="266" t="s">
+      <c r="C7" s="270"/>
+      <c r="D7" s="268" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="267"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="266" t="s">
+      <c r="E7" s="269"/>
+      <c r="F7" s="270"/>
+      <c r="G7" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
-      <c r="J7" s="287" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="267"/>
-      <c r="L7" s="267"/>
-      <c r="M7" s="267"/>
-      <c r="N7" s="267"/>
-      <c r="O7" s="267"/>
-      <c r="P7" s="268"/>
-      <c r="Q7" s="266" t="s">
+      <c r="H7" s="269"/>
+      <c r="I7" s="270"/>
+      <c r="J7" s="289" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="269"/>
+      <c r="L7" s="269"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="269"/>
+      <c r="O7" s="269"/>
+      <c r="P7" s="270"/>
+      <c r="Q7" s="268" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="267"/>
-      <c r="S7" s="267"/>
-      <c r="T7" s="267"/>
-      <c r="U7" s="267"/>
-      <c r="V7" s="267"/>
-      <c r="W7" s="267"/>
-      <c r="X7" s="267"/>
-      <c r="Y7" s="267"/>
-      <c r="Z7" s="267"/>
-      <c r="AA7" s="267"/>
-      <c r="AB7" s="267"/>
-      <c r="AC7" s="267"/>
-      <c r="AD7" s="267"/>
-      <c r="AE7" s="268"/>
-      <c r="AF7" s="266" t="s">
+      <c r="R7" s="269"/>
+      <c r="S7" s="269"/>
+      <c r="T7" s="269"/>
+      <c r="U7" s="269"/>
+      <c r="V7" s="269"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
+      <c r="AA7" s="269"/>
+      <c r="AB7" s="269"/>
+      <c r="AC7" s="269"/>
+      <c r="AD7" s="269"/>
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="267"/>
-      <c r="AH7" s="267"/>
-      <c r="AI7" s="268"/>
+      <c r="AG7" s="269"/>
+      <c r="AH7" s="269"/>
+      <c r="AI7" s="270"/>
       <c r="AJ7" s="59"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="167">
         <v>1</v>
       </c>
-      <c r="B8" s="278" t="s">
+      <c r="B8" s="280" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="281"/>
+      <c r="D8" s="282">
+        <v>43336</v>
+      </c>
+      <c r="E8" s="283"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="280" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="279"/>
-      <c r="D8" s="280">
-        <v>43336</v>
-      </c>
-      <c r="E8" s="281"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="278" t="s">
+      <c r="H8" s="285"/>
+      <c r="I8" s="281"/>
+      <c r="J8" s="286" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="283"/>
-      <c r="I8" s="279"/>
-      <c r="J8" s="284" t="s">
+      <c r="K8" s="287"/>
+      <c r="L8" s="287"/>
+      <c r="M8" s="287"/>
+      <c r="N8" s="287"/>
+      <c r="O8" s="287"/>
+      <c r="P8" s="288"/>
+      <c r="Q8" s="286" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="285"/>
-      <c r="L8" s="285"/>
-      <c r="M8" s="285"/>
-      <c r="N8" s="285"/>
-      <c r="O8" s="285"/>
-      <c r="P8" s="286"/>
-      <c r="Q8" s="284" t="s">
+      <c r="R8" s="287"/>
+      <c r="S8" s="287"/>
+      <c r="T8" s="287"/>
+      <c r="U8" s="287"/>
+      <c r="V8" s="287"/>
+      <c r="W8" s="287"/>
+      <c r="X8" s="287"/>
+      <c r="Y8" s="287"/>
+      <c r="Z8" s="287"/>
+      <c r="AA8" s="287"/>
+      <c r="AB8" s="287"/>
+      <c r="AC8" s="287"/>
+      <c r="AD8" s="287"/>
+      <c r="AE8" s="288"/>
+      <c r="AF8" s="131" t="s">
         <v>105</v>
-      </c>
-      <c r="R8" s="285"/>
-      <c r="S8" s="285"/>
-      <c r="T8" s="285"/>
-      <c r="U8" s="285"/>
-      <c r="V8" s="285"/>
-      <c r="W8" s="285"/>
-      <c r="X8" s="285"/>
-      <c r="Y8" s="285"/>
-      <c r="Z8" s="285"/>
-      <c r="AA8" s="285"/>
-      <c r="AB8" s="285"/>
-      <c r="AC8" s="285"/>
-      <c r="AD8" s="285"/>
-      <c r="AE8" s="286"/>
-      <c r="AF8" s="131" t="s">
-        <v>106</v>
       </c>
       <c r="AG8" s="63"/>
       <c r="AH8" s="63"/>
@@ -9626,75 +9671,89 @@
       <c r="AJ8" s="59"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
-      <c r="A9" s="168"/>
-      <c r="B9" s="269"/>
-      <c r="C9" s="270"/>
-      <c r="D9" s="271"/>
-      <c r="E9" s="272"/>
-      <c r="F9" s="273"/>
-      <c r="G9" s="269"/>
-      <c r="H9" s="274"/>
-      <c r="I9" s="270"/>
-      <c r="J9" s="275"/>
-      <c r="K9" s="276"/>
-      <c r="L9" s="276"/>
-      <c r="M9" s="276"/>
-      <c r="N9" s="276"/>
-      <c r="O9" s="276"/>
-      <c r="P9" s="277"/>
-      <c r="Q9" s="275"/>
-      <c r="R9" s="276"/>
-      <c r="S9" s="276"/>
-      <c r="T9" s="276"/>
-      <c r="U9" s="276"/>
-      <c r="V9" s="276"/>
-      <c r="W9" s="276"/>
-      <c r="X9" s="276"/>
-      <c r="Y9" s="276"/>
-      <c r="Z9" s="276"/>
-      <c r="AA9" s="276"/>
-      <c r="AB9" s="276"/>
-      <c r="AC9" s="276"/>
-      <c r="AD9" s="276"/>
-      <c r="AE9" s="277"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="128"/>
-      <c r="AH9" s="128"/>
-      <c r="AI9" s="129"/>
+      <c r="A9" s="168">
+        <v>2</v>
+      </c>
+      <c r="B9" s="482" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="272"/>
+      <c r="D9" s="273">
+        <v>44816</v>
+      </c>
+      <c r="E9" s="274"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="482" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="276"/>
+      <c r="I9" s="272"/>
+      <c r="J9" s="483" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="278"/>
+      <c r="L9" s="278"/>
+      <c r="M9" s="278"/>
+      <c r="N9" s="278"/>
+      <c r="O9" s="278"/>
+      <c r="P9" s="279"/>
+      <c r="Q9" s="483" t="s">
+        <v>135</v>
+      </c>
+      <c r="R9" s="278"/>
+      <c r="S9" s="278"/>
+      <c r="T9" s="278"/>
+      <c r="U9" s="278"/>
+      <c r="V9" s="278"/>
+      <c r="W9" s="278"/>
+      <c r="X9" s="278"/>
+      <c r="Y9" s="278"/>
+      <c r="Z9" s="278"/>
+      <c r="AA9" s="278"/>
+      <c r="AB9" s="278"/>
+      <c r="AC9" s="278"/>
+      <c r="AD9" s="278"/>
+      <c r="AE9" s="279"/>
+      <c r="AF9" s="470" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG9" s="454"/>
+      <c r="AH9" s="454"/>
+      <c r="AI9" s="455"/>
       <c r="AJ9" s="12"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="168"/>
-      <c r="B10" s="269"/>
-      <c r="C10" s="270"/>
-      <c r="D10" s="271"/>
-      <c r="E10" s="272"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="269"/>
-      <c r="H10" s="274"/>
-      <c r="I10" s="270"/>
-      <c r="J10" s="275"/>
-      <c r="K10" s="276"/>
-      <c r="L10" s="276"/>
-      <c r="M10" s="276"/>
-      <c r="N10" s="276"/>
-      <c r="O10" s="276"/>
-      <c r="P10" s="277"/>
-      <c r="Q10" s="275"/>
-      <c r="R10" s="276"/>
-      <c r="S10" s="276"/>
-      <c r="T10" s="276"/>
-      <c r="U10" s="276"/>
-      <c r="V10" s="276"/>
-      <c r="W10" s="276"/>
-      <c r="X10" s="276"/>
-      <c r="Y10" s="276"/>
-      <c r="Z10" s="276"/>
-      <c r="AA10" s="276"/>
-      <c r="AB10" s="276"/>
-      <c r="AC10" s="276"/>
-      <c r="AD10" s="276"/>
-      <c r="AE10" s="277"/>
+      <c r="B10" s="271"/>
+      <c r="C10" s="272"/>
+      <c r="D10" s="273"/>
+      <c r="E10" s="274"/>
+      <c r="F10" s="275"/>
+      <c r="G10" s="271"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="272"/>
+      <c r="J10" s="277"/>
+      <c r="K10" s="278"/>
+      <c r="L10" s="278"/>
+      <c r="M10" s="278"/>
+      <c r="N10" s="278"/>
+      <c r="O10" s="278"/>
+      <c r="P10" s="279"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="278"/>
+      <c r="S10" s="278"/>
+      <c r="T10" s="278"/>
+      <c r="U10" s="278"/>
+      <c r="V10" s="278"/>
+      <c r="W10" s="278"/>
+      <c r="X10" s="278"/>
+      <c r="Y10" s="278"/>
+      <c r="Z10" s="278"/>
+      <c r="AA10" s="278"/>
+      <c r="AB10" s="278"/>
+      <c r="AC10" s="278"/>
+      <c r="AD10" s="278"/>
+      <c r="AE10" s="279"/>
       <c r="AF10" s="62"/>
       <c r="AG10" s="128"/>
       <c r="AH10" s="128"/>
@@ -9702,36 +9761,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="168"/>
-      <c r="B11" s="269"/>
-      <c r="C11" s="270"/>
-      <c r="D11" s="271"/>
-      <c r="E11" s="272"/>
-      <c r="F11" s="273"/>
-      <c r="G11" s="269"/>
-      <c r="H11" s="274"/>
-      <c r="I11" s="270"/>
-      <c r="J11" s="275"/>
-      <c r="K11" s="276"/>
-      <c r="L11" s="276"/>
-      <c r="M11" s="276"/>
-      <c r="N11" s="276"/>
-      <c r="O11" s="276"/>
-      <c r="P11" s="277"/>
-      <c r="Q11" s="275"/>
-      <c r="R11" s="276"/>
-      <c r="S11" s="276"/>
-      <c r="T11" s="276"/>
-      <c r="U11" s="276"/>
-      <c r="V11" s="276"/>
-      <c r="W11" s="276"/>
-      <c r="X11" s="276"/>
-      <c r="Y11" s="276"/>
-      <c r="Z11" s="276"/>
-      <c r="AA11" s="276"/>
-      <c r="AB11" s="276"/>
-      <c r="AC11" s="276"/>
-      <c r="AD11" s="276"/>
-      <c r="AE11" s="277"/>
+      <c r="B11" s="271"/>
+      <c r="C11" s="272"/>
+      <c r="D11" s="273"/>
+      <c r="E11" s="274"/>
+      <c r="F11" s="275"/>
+      <c r="G11" s="271"/>
+      <c r="H11" s="276"/>
+      <c r="I11" s="272"/>
+      <c r="J11" s="277"/>
+      <c r="K11" s="278"/>
+      <c r="L11" s="278"/>
+      <c r="M11" s="278"/>
+      <c r="N11" s="278"/>
+      <c r="O11" s="278"/>
+      <c r="P11" s="279"/>
+      <c r="Q11" s="277"/>
+      <c r="R11" s="278"/>
+      <c r="S11" s="278"/>
+      <c r="T11" s="278"/>
+      <c r="U11" s="278"/>
+      <c r="V11" s="278"/>
+      <c r="W11" s="278"/>
+      <c r="X11" s="278"/>
+      <c r="Y11" s="278"/>
+      <c r="Z11" s="278"/>
+      <c r="AA11" s="278"/>
+      <c r="AB11" s="278"/>
+      <c r="AC11" s="278"/>
+      <c r="AD11" s="278"/>
+      <c r="AE11" s="279"/>
       <c r="AF11" s="62"/>
       <c r="AG11" s="128"/>
       <c r="AH11" s="128"/>
@@ -9739,36 +9798,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="168"/>
-      <c r="B12" s="269"/>
-      <c r="C12" s="270"/>
-      <c r="D12" s="271"/>
-      <c r="E12" s="272"/>
-      <c r="F12" s="273"/>
-      <c r="G12" s="269"/>
-      <c r="H12" s="274"/>
-      <c r="I12" s="270"/>
-      <c r="J12" s="275"/>
-      <c r="K12" s="276"/>
-      <c r="L12" s="276"/>
-      <c r="M12" s="276"/>
-      <c r="N12" s="276"/>
-      <c r="O12" s="276"/>
-      <c r="P12" s="277"/>
-      <c r="Q12" s="275"/>
-      <c r="R12" s="276"/>
-      <c r="S12" s="276"/>
-      <c r="T12" s="276"/>
-      <c r="U12" s="276"/>
-      <c r="V12" s="276"/>
-      <c r="W12" s="276"/>
-      <c r="X12" s="276"/>
-      <c r="Y12" s="276"/>
-      <c r="Z12" s="276"/>
-      <c r="AA12" s="276"/>
-      <c r="AB12" s="276"/>
-      <c r="AC12" s="276"/>
-      <c r="AD12" s="276"/>
-      <c r="AE12" s="277"/>
+      <c r="B12" s="271"/>
+      <c r="C12" s="272"/>
+      <c r="D12" s="273"/>
+      <c r="E12" s="274"/>
+      <c r="F12" s="275"/>
+      <c r="G12" s="271"/>
+      <c r="H12" s="276"/>
+      <c r="I12" s="272"/>
+      <c r="J12" s="277"/>
+      <c r="K12" s="278"/>
+      <c r="L12" s="278"/>
+      <c r="M12" s="278"/>
+      <c r="N12" s="278"/>
+      <c r="O12" s="278"/>
+      <c r="P12" s="279"/>
+      <c r="Q12" s="277"/>
+      <c r="R12" s="278"/>
+      <c r="S12" s="278"/>
+      <c r="T12" s="278"/>
+      <c r="U12" s="278"/>
+      <c r="V12" s="278"/>
+      <c r="W12" s="278"/>
+      <c r="X12" s="278"/>
+      <c r="Y12" s="278"/>
+      <c r="Z12" s="278"/>
+      <c r="AA12" s="278"/>
+      <c r="AB12" s="278"/>
+      <c r="AC12" s="278"/>
+      <c r="AD12" s="278"/>
+      <c r="AE12" s="279"/>
       <c r="AF12" s="62"/>
       <c r="AG12" s="128"/>
       <c r="AH12" s="128"/>
@@ -9776,36 +9835,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="269"/>
-      <c r="C13" s="270"/>
-      <c r="D13" s="271"/>
-      <c r="E13" s="272"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="269"/>
-      <c r="H13" s="274"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="275"/>
-      <c r="K13" s="276"/>
-      <c r="L13" s="276"/>
-      <c r="M13" s="276"/>
-      <c r="N13" s="276"/>
-      <c r="O13" s="276"/>
-      <c r="P13" s="277"/>
-      <c r="Q13" s="275"/>
-      <c r="R13" s="276"/>
-      <c r="S13" s="276"/>
-      <c r="T13" s="276"/>
-      <c r="U13" s="276"/>
-      <c r="V13" s="276"/>
-      <c r="W13" s="276"/>
-      <c r="X13" s="276"/>
-      <c r="Y13" s="276"/>
-      <c r="Z13" s="276"/>
-      <c r="AA13" s="276"/>
-      <c r="AB13" s="276"/>
-      <c r="AC13" s="276"/>
-      <c r="AD13" s="276"/>
-      <c r="AE13" s="277"/>
+      <c r="B13" s="271"/>
+      <c r="C13" s="272"/>
+      <c r="D13" s="273"/>
+      <c r="E13" s="274"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="271"/>
+      <c r="H13" s="276"/>
+      <c r="I13" s="272"/>
+      <c r="J13" s="277"/>
+      <c r="K13" s="278"/>
+      <c r="L13" s="278"/>
+      <c r="M13" s="278"/>
+      <c r="N13" s="278"/>
+      <c r="O13" s="278"/>
+      <c r="P13" s="279"/>
+      <c r="Q13" s="277"/>
+      <c r="R13" s="278"/>
+      <c r="S13" s="278"/>
+      <c r="T13" s="278"/>
+      <c r="U13" s="278"/>
+      <c r="V13" s="278"/>
+      <c r="W13" s="278"/>
+      <c r="X13" s="278"/>
+      <c r="Y13" s="278"/>
+      <c r="Z13" s="278"/>
+      <c r="AA13" s="278"/>
+      <c r="AB13" s="278"/>
+      <c r="AC13" s="278"/>
+      <c r="AD13" s="278"/>
+      <c r="AE13" s="279"/>
       <c r="AF13" s="62"/>
       <c r="AG13" s="128"/>
       <c r="AH13" s="128"/>
@@ -10552,7 +10611,8 @@
       <c r="AI33" s="129"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="54">
+    <mergeCell ref="AF9:AI9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -10624,7 +10684,7 @@
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -10763,158 +10823,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="311" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="312" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
-      <c r="R1" s="314"/>
-      <c r="S1" s="300" t="str">
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="255"/>
+      <c r="O1" s="314" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(JSON)
 A42AA02/振込依頼作成</v>
       </c>
-      <c r="T1" s="301"/>
-      <c r="U1" s="301"/>
-      <c r="V1" s="301"/>
-      <c r="W1" s="301"/>
-      <c r="X1" s="301"/>
-      <c r="Y1" s="301"/>
-      <c r="Z1" s="302"/>
-      <c r="AA1" s="309" t="s">
+      <c r="T1" s="303"/>
+      <c r="U1" s="303"/>
+      <c r="V1" s="303"/>
+      <c r="W1" s="303"/>
+      <c r="X1" s="303"/>
+      <c r="Y1" s="303"/>
+      <c r="Z1" s="304"/>
+      <c r="AA1" s="311" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="311"/>
-      <c r="AC1" s="245" t="str">
+      <c r="AB1" s="313"/>
+      <c r="AC1" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="246"/>
-      <c r="AE1" s="246"/>
-      <c r="AF1" s="247"/>
-      <c r="AG1" s="321">
+      <c r="AD1" s="248"/>
+      <c r="AE1" s="248"/>
+      <c r="AF1" s="249"/>
+      <c r="AG1" s="323">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="322"/>
-      <c r="AI1" s="323"/>
+      <c r="AH1" s="324"/>
+      <c r="AI1" s="325"/>
     </row>
     <row r="2" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="311" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="315"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
-      <c r="R2" s="317"/>
-      <c r="S2" s="303"/>
-      <c r="T2" s="304"/>
-      <c r="U2" s="304"/>
-      <c r="V2" s="304"/>
-      <c r="W2" s="304"/>
-      <c r="X2" s="304"/>
-      <c r="Y2" s="304"/>
-      <c r="Z2" s="305"/>
-      <c r="AA2" s="309" t="s">
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="305"/>
+      <c r="T2" s="306"/>
+      <c r="U2" s="306"/>
+      <c r="V2" s="306"/>
+      <c r="W2" s="306"/>
+      <c r="X2" s="306"/>
+      <c r="Y2" s="306"/>
+      <c r="Z2" s="307"/>
+      <c r="AA2" s="311" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="311"/>
-      <c r="AC2" s="245" t="str">
+      <c r="AB2" s="313"/>
+      <c r="AC2" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="247"/>
-      <c r="AG2" s="321" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="248"/>
+      <c r="AE2" s="248"/>
+      <c r="AF2" s="249"/>
+      <c r="AG2" s="323">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="322"/>
-      <c r="AI2" s="323"/>
+        <v>44816</v>
+      </c>
+      <c r="AH2" s="324"/>
+      <c r="AI2" s="325"/>
     </row>
     <row r="3" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="309" t="s">
+      <c r="A3" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="318"/>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="319"/>
-      <c r="R3" s="320"/>
-      <c r="S3" s="306"/>
-      <c r="T3" s="307"/>
-      <c r="U3" s="307"/>
-      <c r="V3" s="307"/>
-      <c r="W3" s="307"/>
-      <c r="X3" s="307"/>
-      <c r="Y3" s="307"/>
-      <c r="Z3" s="308"/>
-      <c r="AA3" s="309"/>
-      <c r="AB3" s="311"/>
-      <c r="AC3" s="245" t="str">
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="309"/>
+      <c r="U3" s="309"/>
+      <c r="V3" s="309"/>
+      <c r="W3" s="309"/>
+      <c r="X3" s="309"/>
+      <c r="Y3" s="309"/>
+      <c r="Z3" s="310"/>
+      <c r="AA3" s="311"/>
+      <c r="AB3" s="313"/>
+      <c r="AC3" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="246"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="321" t="str">
+      <c r="AD3" s="248"/>
+      <c r="AE3" s="248"/>
+      <c r="AF3" s="249"/>
+      <c r="AG3" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="322"/>
-      <c r="AI3" s="323"/>
+      <c r="AH3" s="324"/>
+      <c r="AI3" s="325"/>
     </row>
     <row r="4" spans="1:35" s="68" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="66"/>
@@ -10971,7 +11031,7 @@
       <c r="O5" s="66"/>
       <c r="P5" s="66"/>
       <c r="Q5" s="96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
@@ -10999,7 +11059,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="171"/>
       <c r="B7" s="172" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="172"/>
       <c r="D7" s="65"/>
@@ -11075,7 +11135,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="A9" s="171"/>
       <c r="B9" s="172" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="172"/>
       <c r="D9" s="65"/>
@@ -11150,8 +11210,8 @@
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="171"/>
-      <c r="B11" s="180" t="s">
-        <v>125</v>
+      <c r="B11" s="245" t="s">
+        <v>124</v>
       </c>
       <c r="C11" s="180"/>
       <c r="D11" s="171"/>
@@ -11191,7 +11251,7 @@
       <c r="A12" s="171"/>
       <c r="B12" s="180"/>
       <c r="C12" s="172" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="171"/>
       <c r="E12" s="65"/>
@@ -12391,158 +12451,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="311" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="312" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
-      <c r="R1" s="314"/>
-      <c r="S1" s="300" t="str">
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="255"/>
+      <c r="O1" s="314" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(JSON)
 A42AA02/振込依頼作成</v>
       </c>
-      <c r="T1" s="301"/>
-      <c r="U1" s="301"/>
-      <c r="V1" s="301"/>
-      <c r="W1" s="301"/>
-      <c r="X1" s="301"/>
-      <c r="Y1" s="301"/>
-      <c r="Z1" s="302"/>
-      <c r="AA1" s="309" t="s">
+      <c r="T1" s="303"/>
+      <c r="U1" s="303"/>
+      <c r="V1" s="303"/>
+      <c r="W1" s="303"/>
+      <c r="X1" s="303"/>
+      <c r="Y1" s="303"/>
+      <c r="Z1" s="304"/>
+      <c r="AA1" s="311" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="311"/>
-      <c r="AC1" s="245" t="str">
+      <c r="AB1" s="313"/>
+      <c r="AC1" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="246"/>
-      <c r="AE1" s="246"/>
-      <c r="AF1" s="247"/>
-      <c r="AG1" s="360">
+      <c r="AD1" s="248"/>
+      <c r="AE1" s="248"/>
+      <c r="AF1" s="249"/>
+      <c r="AG1" s="362">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="361"/>
-      <c r="AI1" s="362"/>
+      <c r="AH1" s="363"/>
+      <c r="AI1" s="364"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="311" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="315"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
-      <c r="R2" s="317"/>
-      <c r="S2" s="303"/>
-      <c r="T2" s="304"/>
-      <c r="U2" s="304"/>
-      <c r="V2" s="304"/>
-      <c r="W2" s="304"/>
-      <c r="X2" s="304"/>
-      <c r="Y2" s="304"/>
-      <c r="Z2" s="305"/>
-      <c r="AA2" s="309" t="s">
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="305"/>
+      <c r="T2" s="306"/>
+      <c r="U2" s="306"/>
+      <c r="V2" s="306"/>
+      <c r="W2" s="306"/>
+      <c r="X2" s="306"/>
+      <c r="Y2" s="306"/>
+      <c r="Z2" s="307"/>
+      <c r="AA2" s="311" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="311"/>
-      <c r="AC2" s="245" t="str">
+      <c r="AB2" s="313"/>
+      <c r="AC2" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="247"/>
-      <c r="AG2" s="360" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="248"/>
+      <c r="AE2" s="248"/>
+      <c r="AF2" s="249"/>
+      <c r="AG2" s="362">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="361"/>
-      <c r="AI2" s="362"/>
+        <v>44816</v>
+      </c>
+      <c r="AH2" s="363"/>
+      <c r="AI2" s="364"/>
     </row>
     <row r="3" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="309" t="s">
+      <c r="A3" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="318"/>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="319"/>
-      <c r="R3" s="320"/>
-      <c r="S3" s="306"/>
-      <c r="T3" s="307"/>
-      <c r="U3" s="307"/>
-      <c r="V3" s="307"/>
-      <c r="W3" s="307"/>
-      <c r="X3" s="307"/>
-      <c r="Y3" s="307"/>
-      <c r="Z3" s="308"/>
-      <c r="AA3" s="309"/>
-      <c r="AB3" s="311"/>
-      <c r="AC3" s="245" t="str">
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="309"/>
+      <c r="U3" s="309"/>
+      <c r="V3" s="309"/>
+      <c r="W3" s="309"/>
+      <c r="X3" s="309"/>
+      <c r="Y3" s="309"/>
+      <c r="Z3" s="310"/>
+      <c r="AA3" s="311"/>
+      <c r="AB3" s="313"/>
+      <c r="AC3" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="246"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="360" t="str">
+      <c r="AD3" s="248"/>
+      <c r="AE3" s="248"/>
+      <c r="AF3" s="249"/>
+      <c r="AG3" s="362" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="361"/>
-      <c r="AI3" s="362"/>
+      <c r="AH3" s="363"/>
+      <c r="AI3" s="364"/>
     </row>
     <row r="4" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="39"/>
@@ -12555,7 +12615,7 @@
     </row>
     <row r="5" spans="1:35" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A5" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="74"/>
       <c r="C5" s="88"/>
@@ -12630,12 +12690,12 @@
       <c r="AI6" s="74"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="324" t="s">
+      <c r="A7" s="326" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="333"/>
-      <c r="C7" s="333"/>
-      <c r="D7" s="334"/>
+      <c r="B7" s="335"/>
+      <c r="C7" s="335"/>
+      <c r="D7" s="336"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -12648,82 +12708,82 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="335" t="s">
+      <c r="Q7" s="337" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="336"/>
-      <c r="S7" s="336"/>
-      <c r="T7" s="337"/>
-      <c r="U7" s="327" t="s">
-        <v>85</v>
-      </c>
-      <c r="V7" s="328"/>
-      <c r="W7" s="328"/>
-      <c r="X7" s="328"/>
-      <c r="Y7" s="328"/>
-      <c r="Z7" s="328"/>
-      <c r="AA7" s="328"/>
-      <c r="AB7" s="328"/>
-      <c r="AC7" s="328"/>
-      <c r="AD7" s="328"/>
-      <c r="AE7" s="328"/>
-      <c r="AF7" s="328"/>
-      <c r="AG7" s="328"/>
-      <c r="AH7" s="328"/>
-      <c r="AI7" s="329"/>
+      <c r="R7" s="338"/>
+      <c r="S7" s="338"/>
+      <c r="T7" s="339"/>
+      <c r="U7" s="329" t="s">
+        <v>84</v>
+      </c>
+      <c r="V7" s="330"/>
+      <c r="W7" s="330"/>
+      <c r="X7" s="330"/>
+      <c r="Y7" s="330"/>
+      <c r="Z7" s="330"/>
+      <c r="AA7" s="330"/>
+      <c r="AB7" s="330"/>
+      <c r="AC7" s="330"/>
+      <c r="AD7" s="330"/>
+      <c r="AE7" s="330"/>
+      <c r="AF7" s="330"/>
+      <c r="AG7" s="330"/>
+      <c r="AH7" s="330"/>
+      <c r="AI7" s="331"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="324" t="s">
+      <c r="A8" s="326" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="333"/>
-      <c r="C8" s="333"/>
-      <c r="D8" s="334"/>
-      <c r="E8" s="330" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="331"/>
-      <c r="G8" s="331"/>
-      <c r="H8" s="331"/>
-      <c r="I8" s="331"/>
-      <c r="J8" s="331"/>
-      <c r="K8" s="331"/>
-      <c r="L8" s="331"/>
-      <c r="M8" s="331"/>
-      <c r="N8" s="331"/>
-      <c r="O8" s="331"/>
-      <c r="P8" s="331"/>
-      <c r="Q8" s="324" t="s">
+      <c r="B8" s="335"/>
+      <c r="C8" s="335"/>
+      <c r="D8" s="336"/>
+      <c r="E8" s="332" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="333"/>
+      <c r="G8" s="333"/>
+      <c r="H8" s="333"/>
+      <c r="I8" s="333"/>
+      <c r="J8" s="333"/>
+      <c r="K8" s="333"/>
+      <c r="L8" s="333"/>
+      <c r="M8" s="333"/>
+      <c r="N8" s="333"/>
+      <c r="O8" s="333"/>
+      <c r="P8" s="333"/>
+      <c r="Q8" s="326" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="333"/>
-      <c r="S8" s="333"/>
-      <c r="T8" s="334"/>
-      <c r="U8" s="330" t="s">
-        <v>122</v>
-      </c>
-      <c r="V8" s="331"/>
-      <c r="W8" s="331"/>
-      <c r="X8" s="331"/>
-      <c r="Y8" s="331"/>
-      <c r="Z8" s="331"/>
-      <c r="AA8" s="331"/>
-      <c r="AB8" s="331"/>
-      <c r="AC8" s="331"/>
-      <c r="AD8" s="331"/>
-      <c r="AE8" s="331"/>
-      <c r="AF8" s="331"/>
-      <c r="AG8" s="331"/>
-      <c r="AH8" s="331"/>
-      <c r="AI8" s="332"/>
+      <c r="R8" s="335"/>
+      <c r="S8" s="335"/>
+      <c r="T8" s="336"/>
+      <c r="U8" s="332" t="s">
+        <v>121</v>
+      </c>
+      <c r="V8" s="333"/>
+      <c r="W8" s="333"/>
+      <c r="X8" s="333"/>
+      <c r="Y8" s="333"/>
+      <c r="Z8" s="333"/>
+      <c r="AA8" s="333"/>
+      <c r="AB8" s="333"/>
+      <c r="AC8" s="333"/>
+      <c r="AD8" s="333"/>
+      <c r="AE8" s="333"/>
+      <c r="AF8" s="333"/>
+      <c r="AG8" s="333"/>
+      <c r="AH8" s="333"/>
+      <c r="AI8" s="334"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="324" t="s">
+      <c r="A9" s="326" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="333"/>
-      <c r="C9" s="333"/>
-      <c r="D9" s="334"/>
+      <c r="B9" s="335"/>
+      <c r="C9" s="335"/>
+      <c r="D9" s="336"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -12759,7 +12819,7 @@
     <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -12909,12 +12969,12 @@
       <c r="AI13" s="37"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="324" t="s">
+      <c r="A14" s="326" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="325"/>
-      <c r="C14" s="325"/>
-      <c r="D14" s="326"/>
+      <c r="B14" s="327"/>
+      <c r="C14" s="327"/>
+      <c r="D14" s="328"/>
       <c r="E14" s="127"/>
       <c r="F14" s="127"/>
       <c r="G14" s="127"/>
@@ -13059,12 +13119,12 @@
       <c r="AI17" s="37"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="338" t="s">
+      <c r="A18" s="340" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="339"/>
-      <c r="C18" s="339"/>
-      <c r="D18" s="340"/>
+      <c r="B18" s="341"/>
+      <c r="C18" s="341"/>
+      <c r="D18" s="342"/>
       <c r="E18" s="157"/>
       <c r="F18" s="158"/>
       <c r="G18" s="146"/>
@@ -13077,12 +13137,12 @@
       <c r="N18" s="146"/>
       <c r="O18" s="144"/>
       <c r="P18" s="146"/>
-      <c r="Q18" s="338" t="s">
+      <c r="Q18" s="340" t="s">
         <v>41</v>
       </c>
-      <c r="R18" s="339"/>
-      <c r="S18" s="339"/>
-      <c r="T18" s="340"/>
+      <c r="R18" s="341"/>
+      <c r="S18" s="341"/>
+      <c r="T18" s="342"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -13182,53 +13242,53 @@
       <c r="AI20" s="21"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="324" t="s">
+      <c r="A21" s="326" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="333"/>
-      <c r="C21" s="333"/>
-      <c r="D21" s="334"/>
-      <c r="E21" s="330"/>
-      <c r="F21" s="331"/>
-      <c r="G21" s="331"/>
-      <c r="H21" s="331"/>
-      <c r="I21" s="331"/>
-      <c r="J21" s="331"/>
-      <c r="K21" s="331"/>
-      <c r="L21" s="331"/>
-      <c r="M21" s="331"/>
-      <c r="N21" s="331"/>
-      <c r="O21" s="331"/>
-      <c r="P21" s="332"/>
-      <c r="Q21" s="324" t="s">
+      <c r="B21" s="335"/>
+      <c r="C21" s="335"/>
+      <c r="D21" s="336"/>
+      <c r="E21" s="332"/>
+      <c r="F21" s="333"/>
+      <c r="G21" s="333"/>
+      <c r="H21" s="333"/>
+      <c r="I21" s="333"/>
+      <c r="J21" s="333"/>
+      <c r="K21" s="333"/>
+      <c r="L21" s="333"/>
+      <c r="M21" s="333"/>
+      <c r="N21" s="333"/>
+      <c r="O21" s="333"/>
+      <c r="P21" s="334"/>
+      <c r="Q21" s="326" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="333"/>
-      <c r="S21" s="333"/>
-      <c r="T21" s="334"/>
-      <c r="U21" s="341"/>
-      <c r="V21" s="342"/>
-      <c r="W21" s="342"/>
-      <c r="X21" s="342"/>
-      <c r="Y21" s="342"/>
-      <c r="Z21" s="342"/>
-      <c r="AA21" s="342"/>
-      <c r="AB21" s="342"/>
-      <c r="AC21" s="342"/>
-      <c r="AD21" s="342"/>
-      <c r="AE21" s="342"/>
-      <c r="AF21" s="342"/>
-      <c r="AG21" s="342"/>
-      <c r="AH21" s="342"/>
-      <c r="AI21" s="343"/>
+      <c r="R21" s="335"/>
+      <c r="S21" s="335"/>
+      <c r="T21" s="336"/>
+      <c r="U21" s="343"/>
+      <c r="V21" s="344"/>
+      <c r="W21" s="344"/>
+      <c r="X21" s="344"/>
+      <c r="Y21" s="344"/>
+      <c r="Z21" s="344"/>
+      <c r="AA21" s="344"/>
+      <c r="AB21" s="344"/>
+      <c r="AC21" s="344"/>
+      <c r="AD21" s="344"/>
+      <c r="AE21" s="344"/>
+      <c r="AF21" s="344"/>
+      <c r="AG21" s="344"/>
+      <c r="AH21" s="344"/>
+      <c r="AI21" s="345"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="335" t="s">
+      <c r="A22" s="337" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="336"/>
-      <c r="C22" s="336"/>
-      <c r="D22" s="337"/>
+      <c r="B22" s="338"/>
+      <c r="C22" s="338"/>
+      <c r="D22" s="339"/>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="127"/>
@@ -13241,12 +13301,12 @@
       <c r="N22" s="127"/>
       <c r="O22" s="18"/>
       <c r="P22" s="127"/>
-      <c r="Q22" s="335" t="s">
+      <c r="Q22" s="337" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="336"/>
-      <c r="S22" s="336"/>
-      <c r="T22" s="337"/>
+      <c r="R22" s="338"/>
+      <c r="S22" s="338"/>
+      <c r="T22" s="339"/>
       <c r="U22" s="154"/>
       <c r="V22" s="155"/>
       <c r="W22" s="162"/>
@@ -13309,36 +13369,36 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="357" t="s">
+      <c r="A24" s="359" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="358"/>
-      <c r="C24" s="358"/>
-      <c r="D24" s="359"/>
-      <c r="E24" s="330" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="331"/>
-      <c r="G24" s="331"/>
-      <c r="H24" s="331"/>
-      <c r="I24" s="331"/>
-      <c r="J24" s="331"/>
-      <c r="K24" s="331"/>
-      <c r="L24" s="331"/>
-      <c r="M24" s="331"/>
-      <c r="N24" s="331"/>
-      <c r="O24" s="331"/>
-      <c r="P24" s="332"/>
-      <c r="Q24" s="344" t="s">
+      <c r="B24" s="360"/>
+      <c r="C24" s="360"/>
+      <c r="D24" s="361"/>
+      <c r="E24" s="332" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="333"/>
+      <c r="G24" s="333"/>
+      <c r="H24" s="333"/>
+      <c r="I24" s="333"/>
+      <c r="J24" s="333"/>
+      <c r="K24" s="333"/>
+      <c r="L24" s="333"/>
+      <c r="M24" s="333"/>
+      <c r="N24" s="333"/>
+      <c r="O24" s="333"/>
+      <c r="P24" s="334"/>
+      <c r="Q24" s="346" t="s">
         <v>47</v>
       </c>
-      <c r="R24" s="345"/>
-      <c r="S24" s="345"/>
-      <c r="T24" s="346"/>
-      <c r="U24" s="349"/>
-      <c r="V24" s="350"/>
-      <c r="W24" s="350"/>
-      <c r="X24" s="350"/>
+      <c r="R24" s="347"/>
+      <c r="S24" s="347"/>
+      <c r="T24" s="348"/>
+      <c r="U24" s="351"/>
+      <c r="V24" s="352"/>
+      <c r="W24" s="352"/>
+      <c r="X24" s="352"/>
       <c r="Y24" s="159" t="s">
         <v>48</v>
       </c>
@@ -13354,26 +13414,26 @@
       <c r="AI24" s="161"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="353" t="s">
+      <c r="A25" s="355" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="354"/>
-      <c r="C25" s="354"/>
-      <c r="D25" s="355"/>
+      <c r="B25" s="356"/>
+      <c r="C25" s="356"/>
+      <c r="D25" s="357"/>
       <c r="E25" s="23"/>
       <c r="F25" s="36"/>
       <c r="G25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="347"/>
-      <c r="I25" s="348"/>
-      <c r="J25" s="348"/>
-      <c r="K25" s="348"/>
-      <c r="L25" s="348"/>
-      <c r="M25" s="348"/>
-      <c r="N25" s="348"/>
-      <c r="O25" s="348"/>
-      <c r="P25" s="348"/>
+      <c r="H25" s="349"/>
+      <c r="I25" s="350"/>
+      <c r="J25" s="350"/>
+      <c r="K25" s="350"/>
+      <c r="L25" s="350"/>
+      <c r="M25" s="350"/>
+      <c r="N25" s="350"/>
+      <c r="O25" s="350"/>
+      <c r="P25" s="350"/>
       <c r="Q25" s="127" t="s">
         <v>7</v>
       </c>
@@ -13382,15 +13442,15 @@
       <c r="T25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="356"/>
-      <c r="V25" s="356"/>
-      <c r="W25" s="356"/>
-      <c r="X25" s="356"/>
-      <c r="Y25" s="356"/>
-      <c r="Z25" s="356"/>
-      <c r="AA25" s="356"/>
-      <c r="AB25" s="356"/>
-      <c r="AC25" s="356"/>
+      <c r="U25" s="358"/>
+      <c r="V25" s="358"/>
+      <c r="W25" s="358"/>
+      <c r="X25" s="358"/>
+      <c r="Y25" s="358"/>
+      <c r="Z25" s="358"/>
+      <c r="AA25" s="358"/>
+      <c r="AB25" s="358"/>
+      <c r="AC25" s="358"/>
       <c r="AD25" s="127" t="s">
         <v>7</v>
       </c>
@@ -13410,15 +13470,15 @@
       <c r="G26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="352"/>
-      <c r="I26" s="352"/>
-      <c r="J26" s="352"/>
-      <c r="K26" s="352"/>
-      <c r="L26" s="352"/>
-      <c r="M26" s="352"/>
-      <c r="N26" s="352"/>
-      <c r="O26" s="352"/>
-      <c r="P26" s="352"/>
+      <c r="H26" s="354"/>
+      <c r="I26" s="354"/>
+      <c r="J26" s="354"/>
+      <c r="K26" s="354"/>
+      <c r="L26" s="354"/>
+      <c r="M26" s="354"/>
+      <c r="N26" s="354"/>
+      <c r="O26" s="354"/>
+      <c r="P26" s="354"/>
       <c r="Q26" s="126" t="s">
         <v>7</v>
       </c>
@@ -13427,15 +13487,15 @@
       <c r="T26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="352"/>
-      <c r="V26" s="352"/>
-      <c r="W26" s="352"/>
-      <c r="X26" s="352"/>
-      <c r="Y26" s="352"/>
-      <c r="Z26" s="352"/>
-      <c r="AA26" s="352"/>
-      <c r="AB26" s="352"/>
-      <c r="AC26" s="352"/>
+      <c r="U26" s="354"/>
+      <c r="V26" s="354"/>
+      <c r="W26" s="354"/>
+      <c r="X26" s="354"/>
+      <c r="Y26" s="354"/>
+      <c r="Z26" s="354"/>
+      <c r="AA26" s="354"/>
+      <c r="AB26" s="354"/>
+      <c r="AC26" s="354"/>
       <c r="AD26" s="126" t="s">
         <v>7</v>
       </c>
@@ -13455,15 +13515,15 @@
       <c r="G27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="351"/>
-      <c r="I27" s="351"/>
-      <c r="J27" s="351"/>
-      <c r="K27" s="351"/>
-      <c r="L27" s="351"/>
-      <c r="M27" s="351"/>
-      <c r="N27" s="351"/>
-      <c r="O27" s="351"/>
-      <c r="P27" s="351"/>
+      <c r="H27" s="353"/>
+      <c r="I27" s="353"/>
+      <c r="J27" s="353"/>
+      <c r="K27" s="353"/>
+      <c r="L27" s="353"/>
+      <c r="M27" s="353"/>
+      <c r="N27" s="353"/>
+      <c r="O27" s="353"/>
+      <c r="P27" s="353"/>
       <c r="Q27" s="125" t="s">
         <v>7</v>
       </c>
@@ -13472,31 +13532,31 @@
       <c r="T27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="351"/>
-      <c r="V27" s="351"/>
-      <c r="W27" s="351"/>
-      <c r="X27" s="351"/>
-      <c r="Y27" s="351"/>
-      <c r="Z27" s="351"/>
-      <c r="AA27" s="351"/>
-      <c r="AB27" s="351"/>
-      <c r="AC27" s="351"/>
-      <c r="AD27" s="351"/>
-      <c r="AE27" s="351"/>
-      <c r="AF27" s="351"/>
-      <c r="AG27" s="351"/>
-      <c r="AH27" s="351"/>
+      <c r="U27" s="353"/>
+      <c r="V27" s="353"/>
+      <c r="W27" s="353"/>
+      <c r="X27" s="353"/>
+      <c r="Y27" s="353"/>
+      <c r="Z27" s="353"/>
+      <c r="AA27" s="353"/>
+      <c r="AB27" s="353"/>
+      <c r="AC27" s="353"/>
+      <c r="AD27" s="353"/>
+      <c r="AE27" s="353"/>
+      <c r="AF27" s="353"/>
+      <c r="AG27" s="353"/>
+      <c r="AH27" s="353"/>
       <c r="AI27" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="324" t="s">
+      <c r="A28" s="326" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="325"/>
-      <c r="C28" s="325"/>
-      <c r="D28" s="326"/>
+      <c r="B28" s="327"/>
+      <c r="C28" s="327"/>
+      <c r="D28" s="328"/>
       <c r="E28" s="127"/>
       <c r="F28" s="127"/>
       <c r="G28" s="127"/>
@@ -14362,158 +14422,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="311" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="312" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
-      <c r="R1" s="314"/>
-      <c r="S1" s="300" t="str">
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="255"/>
+      <c r="O1" s="314" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(JSON)
 A42AA02/振込依頼作成</v>
       </c>
-      <c r="T1" s="301"/>
-      <c r="U1" s="301"/>
-      <c r="V1" s="301"/>
-      <c r="W1" s="301"/>
-      <c r="X1" s="301"/>
-      <c r="Y1" s="301"/>
-      <c r="Z1" s="302"/>
-      <c r="AA1" s="309" t="s">
+      <c r="T1" s="303"/>
+      <c r="U1" s="303"/>
+      <c r="V1" s="303"/>
+      <c r="W1" s="303"/>
+      <c r="X1" s="303"/>
+      <c r="Y1" s="303"/>
+      <c r="Z1" s="304"/>
+      <c r="AA1" s="311" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="311"/>
-      <c r="AC1" s="245" t="str">
+      <c r="AB1" s="313"/>
+      <c r="AC1" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="246"/>
-      <c r="AE1" s="246"/>
-      <c r="AF1" s="247"/>
-      <c r="AG1" s="360">
+      <c r="AD1" s="248"/>
+      <c r="AE1" s="248"/>
+      <c r="AF1" s="249"/>
+      <c r="AG1" s="362">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="361"/>
-      <c r="AI1" s="362"/>
+      <c r="AH1" s="363"/>
+      <c r="AI1" s="364"/>
     </row>
     <row r="2" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="311" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="315"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
-      <c r="R2" s="317"/>
-      <c r="S2" s="303"/>
-      <c r="T2" s="304"/>
-      <c r="U2" s="304"/>
-      <c r="V2" s="304"/>
-      <c r="W2" s="304"/>
-      <c r="X2" s="304"/>
-      <c r="Y2" s="304"/>
-      <c r="Z2" s="305"/>
-      <c r="AA2" s="309" t="s">
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="305"/>
+      <c r="T2" s="306"/>
+      <c r="U2" s="306"/>
+      <c r="V2" s="306"/>
+      <c r="W2" s="306"/>
+      <c r="X2" s="306"/>
+      <c r="Y2" s="306"/>
+      <c r="Z2" s="307"/>
+      <c r="AA2" s="311" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="311"/>
-      <c r="AC2" s="245" t="str">
+      <c r="AB2" s="313"/>
+      <c r="AC2" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="247"/>
-      <c r="AG2" s="360" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="248"/>
+      <c r="AE2" s="248"/>
+      <c r="AF2" s="249"/>
+      <c r="AG2" s="362">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="361"/>
-      <c r="AI2" s="362"/>
+        <v>44816</v>
+      </c>
+      <c r="AH2" s="363"/>
+      <c r="AI2" s="364"/>
     </row>
     <row r="3" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="309" t="s">
+      <c r="A3" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="318"/>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="319"/>
-      <c r="R3" s="320"/>
-      <c r="S3" s="306"/>
-      <c r="T3" s="307"/>
-      <c r="U3" s="307"/>
-      <c r="V3" s="307"/>
-      <c r="W3" s="307"/>
-      <c r="X3" s="307"/>
-      <c r="Y3" s="307"/>
-      <c r="Z3" s="308"/>
-      <c r="AA3" s="309"/>
-      <c r="AB3" s="311"/>
-      <c r="AC3" s="245" t="str">
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="309"/>
+      <c r="U3" s="309"/>
+      <c r="V3" s="309"/>
+      <c r="W3" s="309"/>
+      <c r="X3" s="309"/>
+      <c r="Y3" s="309"/>
+      <c r="Z3" s="310"/>
+      <c r="AA3" s="311"/>
+      <c r="AB3" s="313"/>
+      <c r="AC3" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="246"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="360" t="str">
+      <c r="AD3" s="248"/>
+      <c r="AE3" s="248"/>
+      <c r="AF3" s="249"/>
+      <c r="AG3" s="362" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="361"/>
-      <c r="AI3" s="362"/>
+      <c r="AH3" s="363"/>
+      <c r="AI3" s="364"/>
     </row>
     <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="91"/>
@@ -14574,7 +14634,7 @@
     </row>
     <row r="6" spans="1:47" s="55" customFormat="1">
       <c r="A6" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="74"/>
       <c r="C6" s="12"/>
@@ -14673,463 +14733,463 @@
       <c r="AU7" s="74"/>
     </row>
     <row r="8" spans="1:47">
-      <c r="A8" s="381" t="s">
+      <c r="A8" s="383" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="382"/>
-      <c r="C8" s="382"/>
-      <c r="D8" s="382"/>
-      <c r="E8" s="382"/>
-      <c r="F8" s="382"/>
-      <c r="G8" s="382"/>
-      <c r="H8" s="382"/>
-      <c r="I8" s="382"/>
-      <c r="J8" s="382"/>
-      <c r="K8" s="382"/>
-      <c r="L8" s="382"/>
-      <c r="M8" s="382"/>
-      <c r="N8" s="382"/>
-      <c r="O8" s="382"/>
-      <c r="P8" s="382"/>
-      <c r="Q8" s="382"/>
-      <c r="R8" s="382"/>
-      <c r="S8" s="382"/>
-      <c r="T8" s="382"/>
-      <c r="U8" s="382"/>
-      <c r="V8" s="382"/>
-      <c r="W8" s="382"/>
-      <c r="X8" s="382"/>
-      <c r="Y8" s="382"/>
-      <c r="Z8" s="382"/>
-      <c r="AA8" s="382"/>
-      <c r="AB8" s="383"/>
-      <c r="AC8" s="447" t="s">
+      <c r="B8" s="384"/>
+      <c r="C8" s="384"/>
+      <c r="D8" s="384"/>
+      <c r="E8" s="384"/>
+      <c r="F8" s="384"/>
+      <c r="G8" s="384"/>
+      <c r="H8" s="384"/>
+      <c r="I8" s="384"/>
+      <c r="J8" s="384"/>
+      <c r="K8" s="384"/>
+      <c r="L8" s="384"/>
+      <c r="M8" s="384"/>
+      <c r="N8" s="384"/>
+      <c r="O8" s="384"/>
+      <c r="P8" s="384"/>
+      <c r="Q8" s="384"/>
+      <c r="R8" s="384"/>
+      <c r="S8" s="384"/>
+      <c r="T8" s="384"/>
+      <c r="U8" s="384"/>
+      <c r="V8" s="384"/>
+      <c r="W8" s="384"/>
+      <c r="X8" s="384"/>
+      <c r="Y8" s="384"/>
+      <c r="Z8" s="384"/>
+      <c r="AA8" s="384"/>
+      <c r="AB8" s="385"/>
+      <c r="AC8" s="449" t="s">
         <v>50</v>
       </c>
-      <c r="AD8" s="382"/>
-      <c r="AE8" s="448"/>
-      <c r="AF8" s="444"/>
-      <c r="AG8" s="445"/>
-      <c r="AH8" s="445"/>
-      <c r="AI8" s="446"/>
+      <c r="AD8" s="384"/>
+      <c r="AE8" s="450"/>
+      <c r="AF8" s="446"/>
+      <c r="AG8" s="447"/>
+      <c r="AH8" s="447"/>
+      <c r="AI8" s="448"/>
     </row>
     <row r="9" spans="1:47" s="237" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="236" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="368" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="278"/>
+      <c r="D9" s="278"/>
+      <c r="E9" s="278"/>
+      <c r="F9" s="279"/>
+      <c r="G9" s="368" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="369"/>
+      <c r="I9" s="370"/>
+      <c r="J9" s="368" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="369"/>
+      <c r="L9" s="369"/>
+      <c r="M9" s="369"/>
+      <c r="N9" s="369"/>
+      <c r="O9" s="369"/>
+      <c r="P9" s="370"/>
+      <c r="Q9" s="373" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="375"/>
+      <c r="S9" s="373" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="366" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="276"/>
-      <c r="D9" s="276"/>
-      <c r="E9" s="276"/>
-      <c r="F9" s="277"/>
-      <c r="G9" s="366" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="367"/>
-      <c r="I9" s="368"/>
-      <c r="J9" s="366" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="367"/>
-      <c r="L9" s="367"/>
-      <c r="M9" s="367"/>
-      <c r="N9" s="367"/>
-      <c r="O9" s="367"/>
-      <c r="P9" s="368"/>
-      <c r="Q9" s="371" t="s">
-        <v>121</v>
-      </c>
-      <c r="R9" s="373"/>
-      <c r="S9" s="371" t="s">
+      <c r="T9" s="374"/>
+      <c r="U9" s="375"/>
+      <c r="V9" s="368" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="369"/>
+      <c r="X9" s="369"/>
+      <c r="Y9" s="369"/>
+      <c r="Z9" s="369"/>
+      <c r="AA9" s="369"/>
+      <c r="AB9" s="382"/>
+      <c r="AC9" s="394" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD9" s="395"/>
+      <c r="AE9" s="395"/>
+      <c r="AF9" s="395"/>
+      <c r="AG9" s="395"/>
+      <c r="AH9" s="396" t="s">
         <v>76</v>
       </c>
-      <c r="T9" s="372"/>
-      <c r="U9" s="373"/>
-      <c r="V9" s="366" t="s">
-        <v>21</v>
-      </c>
-      <c r="W9" s="367"/>
-      <c r="X9" s="367"/>
-      <c r="Y9" s="367"/>
-      <c r="Z9" s="367"/>
-      <c r="AA9" s="367"/>
-      <c r="AB9" s="380"/>
-      <c r="AC9" s="392" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD9" s="393"/>
-      <c r="AE9" s="393"/>
-      <c r="AF9" s="393"/>
-      <c r="AG9" s="393"/>
-      <c r="AH9" s="394" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI9" s="394"/>
+      <c r="AI9" s="396"/>
     </row>
     <row r="10" spans="1:47" ht="19.5" customHeight="1">
       <c r="A10" s="194">
         <v>1</v>
       </c>
-      <c r="B10" s="431" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="432"/>
-      <c r="D10" s="432"/>
-      <c r="E10" s="432"/>
-      <c r="F10" s="433"/>
-      <c r="G10" s="389"/>
-      <c r="H10" s="390"/>
-      <c r="I10" s="391"/>
-      <c r="J10" s="375"/>
-      <c r="K10" s="376"/>
-      <c r="L10" s="376"/>
-      <c r="M10" s="376"/>
-      <c r="N10" s="376"/>
-      <c r="O10" s="376"/>
-      <c r="P10" s="377"/>
-      <c r="Q10" s="387"/>
-      <c r="R10" s="388"/>
-      <c r="S10" s="387"/>
-      <c r="T10" s="434"/>
-      <c r="U10" s="388"/>
-      <c r="V10" s="395"/>
-      <c r="W10" s="396"/>
-      <c r="X10" s="396"/>
-      <c r="Y10" s="396"/>
-      <c r="Z10" s="396"/>
-      <c r="AA10" s="396"/>
-      <c r="AB10" s="397"/>
-      <c r="AC10" s="426" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD10" s="438"/>
-      <c r="AE10" s="439"/>
-      <c r="AF10" s="439"/>
-      <c r="AG10" s="440"/>
-      <c r="AH10" s="429"/>
-      <c r="AI10" s="430"/>
+      <c r="B10" s="433" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="434"/>
+      <c r="D10" s="434"/>
+      <c r="E10" s="434"/>
+      <c r="F10" s="435"/>
+      <c r="G10" s="391"/>
+      <c r="H10" s="392"/>
+      <c r="I10" s="393"/>
+      <c r="J10" s="377"/>
+      <c r="K10" s="378"/>
+      <c r="L10" s="378"/>
+      <c r="M10" s="378"/>
+      <c r="N10" s="378"/>
+      <c r="O10" s="378"/>
+      <c r="P10" s="379"/>
+      <c r="Q10" s="389"/>
+      <c r="R10" s="390"/>
+      <c r="S10" s="389"/>
+      <c r="T10" s="436"/>
+      <c r="U10" s="390"/>
+      <c r="V10" s="397"/>
+      <c r="W10" s="398"/>
+      <c r="X10" s="398"/>
+      <c r="Y10" s="398"/>
+      <c r="Z10" s="398"/>
+      <c r="AA10" s="398"/>
+      <c r="AB10" s="399"/>
+      <c r="AC10" s="428" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD10" s="440"/>
+      <c r="AE10" s="441"/>
+      <c r="AF10" s="441"/>
+      <c r="AG10" s="442"/>
+      <c r="AH10" s="431"/>
+      <c r="AI10" s="432"/>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="195">
         <v>2</v>
       </c>
-      <c r="B11" s="363"/>
-      <c r="C11" s="364"/>
-      <c r="D11" s="364"/>
-      <c r="E11" s="364"/>
-      <c r="F11" s="365"/>
-      <c r="G11" s="384"/>
-      <c r="H11" s="385"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="363"/>
-      <c r="K11" s="364"/>
-      <c r="L11" s="364"/>
-      <c r="M11" s="364"/>
-      <c r="N11" s="364"/>
-      <c r="O11" s="364"/>
-      <c r="P11" s="365"/>
-      <c r="Q11" s="369"/>
-      <c r="R11" s="370"/>
-      <c r="S11" s="369"/>
-      <c r="T11" s="374"/>
-      <c r="U11" s="370"/>
-      <c r="V11" s="398"/>
-      <c r="W11" s="399"/>
-      <c r="X11" s="399"/>
-      <c r="Y11" s="399"/>
-      <c r="Z11" s="399"/>
-      <c r="AA11" s="399"/>
-      <c r="AB11" s="400"/>
-      <c r="AC11" s="427"/>
-      <c r="AD11" s="441"/>
-      <c r="AE11" s="442"/>
-      <c r="AF11" s="442"/>
-      <c r="AG11" s="443"/>
-      <c r="AH11" s="378"/>
-      <c r="AI11" s="379"/>
+      <c r="B11" s="365"/>
+      <c r="C11" s="366"/>
+      <c r="D11" s="366"/>
+      <c r="E11" s="366"/>
+      <c r="F11" s="367"/>
+      <c r="G11" s="386"/>
+      <c r="H11" s="387"/>
+      <c r="I11" s="388"/>
+      <c r="J11" s="365"/>
+      <c r="K11" s="366"/>
+      <c r="L11" s="366"/>
+      <c r="M11" s="366"/>
+      <c r="N11" s="366"/>
+      <c r="O11" s="366"/>
+      <c r="P11" s="367"/>
+      <c r="Q11" s="371"/>
+      <c r="R11" s="372"/>
+      <c r="S11" s="371"/>
+      <c r="T11" s="376"/>
+      <c r="U11" s="372"/>
+      <c r="V11" s="400"/>
+      <c r="W11" s="401"/>
+      <c r="X11" s="401"/>
+      <c r="Y11" s="401"/>
+      <c r="Z11" s="401"/>
+      <c r="AA11" s="401"/>
+      <c r="AB11" s="402"/>
+      <c r="AC11" s="429"/>
+      <c r="AD11" s="443"/>
+      <c r="AE11" s="444"/>
+      <c r="AF11" s="444"/>
+      <c r="AG11" s="445"/>
+      <c r="AH11" s="380"/>
+      <c r="AI11" s="381"/>
     </row>
     <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="195">
         <v>3</v>
       </c>
-      <c r="B12" s="363"/>
-      <c r="C12" s="364"/>
-      <c r="D12" s="364"/>
-      <c r="E12" s="364"/>
-      <c r="F12" s="365"/>
-      <c r="G12" s="384"/>
-      <c r="H12" s="385"/>
-      <c r="I12" s="386"/>
-      <c r="J12" s="363"/>
-      <c r="K12" s="364"/>
-      <c r="L12" s="364"/>
-      <c r="M12" s="364"/>
-      <c r="N12" s="364"/>
-      <c r="O12" s="364"/>
-      <c r="P12" s="365"/>
-      <c r="Q12" s="369"/>
-      <c r="R12" s="370"/>
-      <c r="S12" s="369"/>
-      <c r="T12" s="374"/>
-      <c r="U12" s="370"/>
-      <c r="V12" s="398"/>
-      <c r="W12" s="399"/>
-      <c r="X12" s="399"/>
-      <c r="Y12" s="399"/>
-      <c r="Z12" s="399"/>
-      <c r="AA12" s="399"/>
-      <c r="AB12" s="400"/>
-      <c r="AC12" s="427"/>
-      <c r="AD12" s="401"/>
-      <c r="AE12" s="402"/>
-      <c r="AF12" s="402"/>
-      <c r="AG12" s="403"/>
-      <c r="AH12" s="378"/>
-      <c r="AI12" s="379"/>
+      <c r="B12" s="365"/>
+      <c r="C12" s="366"/>
+      <c r="D12" s="366"/>
+      <c r="E12" s="366"/>
+      <c r="F12" s="367"/>
+      <c r="G12" s="386"/>
+      <c r="H12" s="387"/>
+      <c r="I12" s="388"/>
+      <c r="J12" s="365"/>
+      <c r="K12" s="366"/>
+      <c r="L12" s="366"/>
+      <c r="M12" s="366"/>
+      <c r="N12" s="366"/>
+      <c r="O12" s="366"/>
+      <c r="P12" s="367"/>
+      <c r="Q12" s="371"/>
+      <c r="R12" s="372"/>
+      <c r="S12" s="371"/>
+      <c r="T12" s="376"/>
+      <c r="U12" s="372"/>
+      <c r="V12" s="400"/>
+      <c r="W12" s="401"/>
+      <c r="X12" s="401"/>
+      <c r="Y12" s="401"/>
+      <c r="Z12" s="401"/>
+      <c r="AA12" s="401"/>
+      <c r="AB12" s="402"/>
+      <c r="AC12" s="429"/>
+      <c r="AD12" s="403"/>
+      <c r="AE12" s="404"/>
+      <c r="AF12" s="404"/>
+      <c r="AG12" s="405"/>
+      <c r="AH12" s="380"/>
+      <c r="AI12" s="381"/>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="195">
         <v>4</v>
       </c>
-      <c r="B13" s="363"/>
-      <c r="C13" s="364"/>
-      <c r="D13" s="364"/>
-      <c r="E13" s="364"/>
-      <c r="F13" s="365"/>
-      <c r="G13" s="384"/>
-      <c r="H13" s="385"/>
-      <c r="I13" s="386"/>
-      <c r="J13" s="363"/>
-      <c r="K13" s="364"/>
-      <c r="L13" s="364"/>
-      <c r="M13" s="364"/>
-      <c r="N13" s="364"/>
-      <c r="O13" s="364"/>
-      <c r="P13" s="365"/>
-      <c r="Q13" s="369"/>
-      <c r="R13" s="370"/>
-      <c r="S13" s="369"/>
-      <c r="T13" s="374"/>
-      <c r="U13" s="370"/>
-      <c r="V13" s="398"/>
-      <c r="W13" s="399"/>
-      <c r="X13" s="399"/>
-      <c r="Y13" s="399"/>
-      <c r="Z13" s="399"/>
-      <c r="AA13" s="399"/>
-      <c r="AB13" s="400"/>
-      <c r="AC13" s="427"/>
-      <c r="AD13" s="401"/>
-      <c r="AE13" s="402"/>
-      <c r="AF13" s="402"/>
-      <c r="AG13" s="403"/>
-      <c r="AH13" s="378"/>
-      <c r="AI13" s="379"/>
+      <c r="B13" s="365"/>
+      <c r="C13" s="366"/>
+      <c r="D13" s="366"/>
+      <c r="E13" s="366"/>
+      <c r="F13" s="367"/>
+      <c r="G13" s="386"/>
+      <c r="H13" s="387"/>
+      <c r="I13" s="388"/>
+      <c r="J13" s="365"/>
+      <c r="K13" s="366"/>
+      <c r="L13" s="366"/>
+      <c r="M13" s="366"/>
+      <c r="N13" s="366"/>
+      <c r="O13" s="366"/>
+      <c r="P13" s="367"/>
+      <c r="Q13" s="371"/>
+      <c r="R13" s="372"/>
+      <c r="S13" s="371"/>
+      <c r="T13" s="376"/>
+      <c r="U13" s="372"/>
+      <c r="V13" s="400"/>
+      <c r="W13" s="401"/>
+      <c r="X13" s="401"/>
+      <c r="Y13" s="401"/>
+      <c r="Z13" s="401"/>
+      <c r="AA13" s="401"/>
+      <c r="AB13" s="402"/>
+      <c r="AC13" s="429"/>
+      <c r="AD13" s="403"/>
+      <c r="AE13" s="404"/>
+      <c r="AF13" s="404"/>
+      <c r="AG13" s="405"/>
+      <c r="AH13" s="380"/>
+      <c r="AI13" s="381"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="195">
         <v>5</v>
       </c>
-      <c r="B14" s="418"/>
-      <c r="C14" s="419"/>
-      <c r="D14" s="419"/>
-      <c r="E14" s="419"/>
-      <c r="F14" s="420"/>
-      <c r="G14" s="363"/>
-      <c r="H14" s="364"/>
-      <c r="I14" s="365"/>
-      <c r="J14" s="363"/>
-      <c r="K14" s="364"/>
-      <c r="L14" s="364"/>
-      <c r="M14" s="364"/>
-      <c r="N14" s="364"/>
-      <c r="O14" s="364"/>
-      <c r="P14" s="365"/>
-      <c r="Q14" s="369"/>
-      <c r="R14" s="370"/>
-      <c r="S14" s="369"/>
-      <c r="T14" s="374"/>
-      <c r="U14" s="370"/>
-      <c r="V14" s="398"/>
-      <c r="W14" s="399"/>
-      <c r="X14" s="399"/>
-      <c r="Y14" s="399"/>
-      <c r="Z14" s="399"/>
-      <c r="AA14" s="399"/>
-      <c r="AB14" s="400"/>
-      <c r="AC14" s="427"/>
-      <c r="AD14" s="401"/>
-      <c r="AE14" s="402"/>
-      <c r="AF14" s="402"/>
-      <c r="AG14" s="403"/>
-      <c r="AH14" s="378"/>
-      <c r="AI14" s="379"/>
+      <c r="B14" s="420"/>
+      <c r="C14" s="421"/>
+      <c r="D14" s="421"/>
+      <c r="E14" s="421"/>
+      <c r="F14" s="422"/>
+      <c r="G14" s="365"/>
+      <c r="H14" s="366"/>
+      <c r="I14" s="367"/>
+      <c r="J14" s="365"/>
+      <c r="K14" s="366"/>
+      <c r="L14" s="366"/>
+      <c r="M14" s="366"/>
+      <c r="N14" s="366"/>
+      <c r="O14" s="366"/>
+      <c r="P14" s="367"/>
+      <c r="Q14" s="371"/>
+      <c r="R14" s="372"/>
+      <c r="S14" s="371"/>
+      <c r="T14" s="376"/>
+      <c r="U14" s="372"/>
+      <c r="V14" s="400"/>
+      <c r="W14" s="401"/>
+      <c r="X14" s="401"/>
+      <c r="Y14" s="401"/>
+      <c r="Z14" s="401"/>
+      <c r="AA14" s="401"/>
+      <c r="AB14" s="402"/>
+      <c r="AC14" s="429"/>
+      <c r="AD14" s="403"/>
+      <c r="AE14" s="404"/>
+      <c r="AF14" s="404"/>
+      <c r="AG14" s="405"/>
+      <c r="AH14" s="380"/>
+      <c r="AI14" s="381"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="195">
         <v>6</v>
       </c>
-      <c r="B15" s="418"/>
-      <c r="C15" s="419"/>
-      <c r="D15" s="419"/>
-      <c r="E15" s="419"/>
-      <c r="F15" s="420"/>
-      <c r="G15" s="363"/>
-      <c r="H15" s="364"/>
-      <c r="I15" s="365"/>
-      <c r="J15" s="363"/>
-      <c r="K15" s="364"/>
-      <c r="L15" s="364"/>
-      <c r="M15" s="364"/>
-      <c r="N15" s="364"/>
-      <c r="O15" s="364"/>
-      <c r="P15" s="365"/>
-      <c r="Q15" s="369"/>
-      <c r="R15" s="370"/>
-      <c r="S15" s="369"/>
-      <c r="T15" s="374"/>
-      <c r="U15" s="370"/>
-      <c r="V15" s="398"/>
-      <c r="W15" s="399"/>
-      <c r="X15" s="399"/>
-      <c r="Y15" s="399"/>
-      <c r="Z15" s="399"/>
-      <c r="AA15" s="399"/>
-      <c r="AB15" s="400"/>
-      <c r="AC15" s="427"/>
-      <c r="AD15" s="401"/>
-      <c r="AE15" s="402"/>
-      <c r="AF15" s="402"/>
-      <c r="AG15" s="403"/>
-      <c r="AH15" s="378"/>
-      <c r="AI15" s="379"/>
+      <c r="B15" s="420"/>
+      <c r="C15" s="421"/>
+      <c r="D15" s="421"/>
+      <c r="E15" s="421"/>
+      <c r="F15" s="422"/>
+      <c r="G15" s="365"/>
+      <c r="H15" s="366"/>
+      <c r="I15" s="367"/>
+      <c r="J15" s="365"/>
+      <c r="K15" s="366"/>
+      <c r="L15" s="366"/>
+      <c r="M15" s="366"/>
+      <c r="N15" s="366"/>
+      <c r="O15" s="366"/>
+      <c r="P15" s="367"/>
+      <c r="Q15" s="371"/>
+      <c r="R15" s="372"/>
+      <c r="S15" s="371"/>
+      <c r="T15" s="376"/>
+      <c r="U15" s="372"/>
+      <c r="V15" s="400"/>
+      <c r="W15" s="401"/>
+      <c r="X15" s="401"/>
+      <c r="Y15" s="401"/>
+      <c r="Z15" s="401"/>
+      <c r="AA15" s="401"/>
+      <c r="AB15" s="402"/>
+      <c r="AC15" s="429"/>
+      <c r="AD15" s="403"/>
+      <c r="AE15" s="404"/>
+      <c r="AF15" s="404"/>
+      <c r="AG15" s="405"/>
+      <c r="AH15" s="380"/>
+      <c r="AI15" s="381"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="196">
         <v>7</v>
       </c>
-      <c r="B16" s="418"/>
-      <c r="C16" s="419"/>
-      <c r="D16" s="419"/>
-      <c r="E16" s="419"/>
-      <c r="F16" s="420"/>
-      <c r="G16" s="363"/>
-      <c r="H16" s="364"/>
-      <c r="I16" s="365"/>
-      <c r="J16" s="363"/>
-      <c r="K16" s="364"/>
-      <c r="L16" s="364"/>
-      <c r="M16" s="364"/>
-      <c r="N16" s="364"/>
-      <c r="O16" s="364"/>
-      <c r="P16" s="365"/>
-      <c r="Q16" s="369"/>
-      <c r="R16" s="370"/>
-      <c r="S16" s="369"/>
-      <c r="T16" s="374"/>
-      <c r="U16" s="370"/>
-      <c r="V16" s="398"/>
-      <c r="W16" s="399"/>
-      <c r="X16" s="399"/>
-      <c r="Y16" s="399"/>
-      <c r="Z16" s="399"/>
-      <c r="AA16" s="399"/>
-      <c r="AB16" s="400"/>
-      <c r="AC16" s="427"/>
-      <c r="AD16" s="401"/>
-      <c r="AE16" s="402"/>
-      <c r="AF16" s="402"/>
-      <c r="AG16" s="403"/>
-      <c r="AH16" s="378"/>
-      <c r="AI16" s="379"/>
+      <c r="B16" s="420"/>
+      <c r="C16" s="421"/>
+      <c r="D16" s="421"/>
+      <c r="E16" s="421"/>
+      <c r="F16" s="422"/>
+      <c r="G16" s="365"/>
+      <c r="H16" s="366"/>
+      <c r="I16" s="367"/>
+      <c r="J16" s="365"/>
+      <c r="K16" s="366"/>
+      <c r="L16" s="366"/>
+      <c r="M16" s="366"/>
+      <c r="N16" s="366"/>
+      <c r="O16" s="366"/>
+      <c r="P16" s="367"/>
+      <c r="Q16" s="371"/>
+      <c r="R16" s="372"/>
+      <c r="S16" s="371"/>
+      <c r="T16" s="376"/>
+      <c r="U16" s="372"/>
+      <c r="V16" s="400"/>
+      <c r="W16" s="401"/>
+      <c r="X16" s="401"/>
+      <c r="Y16" s="401"/>
+      <c r="Z16" s="401"/>
+      <c r="AA16" s="401"/>
+      <c r="AB16" s="402"/>
+      <c r="AC16" s="429"/>
+      <c r="AD16" s="403"/>
+      <c r="AE16" s="404"/>
+      <c r="AF16" s="404"/>
+      <c r="AG16" s="405"/>
+      <c r="AH16" s="380"/>
+      <c r="AI16" s="381"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="196">
         <v>8</v>
       </c>
-      <c r="B17" s="418"/>
-      <c r="C17" s="419"/>
-      <c r="D17" s="419"/>
-      <c r="E17" s="419"/>
-      <c r="F17" s="420"/>
-      <c r="G17" s="363"/>
-      <c r="H17" s="364"/>
-      <c r="I17" s="365"/>
-      <c r="J17" s="363"/>
-      <c r="K17" s="364"/>
-      <c r="L17" s="364"/>
-      <c r="M17" s="364"/>
-      <c r="N17" s="364"/>
-      <c r="O17" s="364"/>
-      <c r="P17" s="365"/>
-      <c r="Q17" s="369"/>
-      <c r="R17" s="370"/>
-      <c r="S17" s="369"/>
-      <c r="T17" s="374"/>
-      <c r="U17" s="370"/>
-      <c r="V17" s="398"/>
-      <c r="W17" s="399"/>
-      <c r="X17" s="399"/>
-      <c r="Y17" s="399"/>
-      <c r="Z17" s="399"/>
-      <c r="AA17" s="399"/>
-      <c r="AB17" s="400"/>
-      <c r="AC17" s="427"/>
-      <c r="AD17" s="401"/>
-      <c r="AE17" s="402"/>
-      <c r="AF17" s="402"/>
-      <c r="AG17" s="403"/>
-      <c r="AH17" s="378"/>
-      <c r="AI17" s="379"/>
+      <c r="B17" s="420"/>
+      <c r="C17" s="421"/>
+      <c r="D17" s="421"/>
+      <c r="E17" s="421"/>
+      <c r="F17" s="422"/>
+      <c r="G17" s="365"/>
+      <c r="H17" s="366"/>
+      <c r="I17" s="367"/>
+      <c r="J17" s="365"/>
+      <c r="K17" s="366"/>
+      <c r="L17" s="366"/>
+      <c r="M17" s="366"/>
+      <c r="N17" s="366"/>
+      <c r="O17" s="366"/>
+      <c r="P17" s="367"/>
+      <c r="Q17" s="371"/>
+      <c r="R17" s="372"/>
+      <c r="S17" s="371"/>
+      <c r="T17" s="376"/>
+      <c r="U17" s="372"/>
+      <c r="V17" s="400"/>
+      <c r="W17" s="401"/>
+      <c r="X17" s="401"/>
+      <c r="Y17" s="401"/>
+      <c r="Z17" s="401"/>
+      <c r="AA17" s="401"/>
+      <c r="AB17" s="402"/>
+      <c r="AC17" s="429"/>
+      <c r="AD17" s="403"/>
+      <c r="AE17" s="404"/>
+      <c r="AF17" s="404"/>
+      <c r="AG17" s="405"/>
+      <c r="AH17" s="380"/>
+      <c r="AI17" s="381"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="197">
         <v>9</v>
       </c>
-      <c r="B18" s="421"/>
-      <c r="C18" s="422"/>
-      <c r="D18" s="422"/>
-      <c r="E18" s="422"/>
-      <c r="F18" s="423"/>
-      <c r="G18" s="415"/>
-      <c r="H18" s="416"/>
-      <c r="I18" s="417"/>
-      <c r="J18" s="415"/>
-      <c r="K18" s="416"/>
-      <c r="L18" s="416"/>
-      <c r="M18" s="416"/>
-      <c r="N18" s="416"/>
-      <c r="O18" s="416"/>
-      <c r="P18" s="417"/>
-      <c r="Q18" s="412"/>
-      <c r="R18" s="414"/>
-      <c r="S18" s="412"/>
-      <c r="T18" s="413"/>
-      <c r="U18" s="414"/>
-      <c r="V18" s="407"/>
-      <c r="W18" s="408"/>
-      <c r="X18" s="408"/>
-      <c r="Y18" s="408"/>
-      <c r="Z18" s="408"/>
-      <c r="AA18" s="408"/>
-      <c r="AB18" s="409"/>
-      <c r="AC18" s="428"/>
-      <c r="AD18" s="435"/>
-      <c r="AE18" s="436"/>
-      <c r="AF18" s="436"/>
-      <c r="AG18" s="437"/>
-      <c r="AH18" s="424"/>
-      <c r="AI18" s="425"/>
+      <c r="B18" s="423"/>
+      <c r="C18" s="424"/>
+      <c r="D18" s="424"/>
+      <c r="E18" s="424"/>
+      <c r="F18" s="425"/>
+      <c r="G18" s="417"/>
+      <c r="H18" s="418"/>
+      <c r="I18" s="419"/>
+      <c r="J18" s="417"/>
+      <c r="K18" s="418"/>
+      <c r="L18" s="418"/>
+      <c r="M18" s="418"/>
+      <c r="N18" s="418"/>
+      <c r="O18" s="418"/>
+      <c r="P18" s="419"/>
+      <c r="Q18" s="414"/>
+      <c r="R18" s="416"/>
+      <c r="S18" s="414"/>
+      <c r="T18" s="415"/>
+      <c r="U18" s="416"/>
+      <c r="V18" s="409"/>
+      <c r="W18" s="410"/>
+      <c r="X18" s="410"/>
+      <c r="Y18" s="410"/>
+      <c r="Z18" s="410"/>
+      <c r="AA18" s="410"/>
+      <c r="AB18" s="411"/>
+      <c r="AC18" s="430"/>
+      <c r="AD18" s="437"/>
+      <c r="AE18" s="438"/>
+      <c r="AF18" s="438"/>
+      <c r="AG18" s="439"/>
+      <c r="AH18" s="426"/>
+      <c r="AI18" s="427"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="410"/>
-      <c r="B19" s="411"/>
-      <c r="C19" s="411"/>
-      <c r="D19" s="411"/>
-      <c r="E19" s="411"/>
-      <c r="F19" s="411"/>
+      <c r="A19" s="412"/>
+      <c r="B19" s="413"/>
+      <c r="C19" s="413"/>
+      <c r="D19" s="413"/>
+      <c r="E19" s="413"/>
+      <c r="F19" s="413"/>
       <c r="G19" s="130"/>
       <c r="H19" s="130"/>
       <c r="I19" s="130"/>
@@ -15153,23 +15213,23 @@
       <c r="AA19" s="130"/>
       <c r="AB19" s="130"/>
       <c r="AC19" s="39"/>
-      <c r="AD19" s="406"/>
-      <c r="AE19" s="406"/>
-      <c r="AF19" s="406"/>
-      <c r="AG19" s="406"/>
-      <c r="AH19" s="406"/>
+      <c r="AD19" s="408"/>
+      <c r="AE19" s="408"/>
+      <c r="AF19" s="408"/>
+      <c r="AG19" s="408"/>
+      <c r="AH19" s="408"/>
       <c r="AI19" s="75"/>
       <c r="AJ19" s="34"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="404" t="s">
+      <c r="A20" s="406" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="405"/>
-      <c r="C20" s="405"/>
-      <c r="D20" s="405"/>
-      <c r="E20" s="405"/>
-      <c r="F20" s="405"/>
+      <c r="B20" s="407"/>
+      <c r="C20" s="407"/>
+      <c r="D20" s="407"/>
+      <c r="E20" s="407"/>
+      <c r="F20" s="407"/>
       <c r="G20" s="154"/>
       <c r="H20" s="155"/>
       <c r="I20" s="155"/>
@@ -15846,10 +15906,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CQ45"/>
+  <dimension ref="A1:CQ46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -15858,397 +15918,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="311" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="312" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
-      <c r="R1" s="314"/>
-      <c r="S1" s="300" t="str">
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="255"/>
+      <c r="O1" s="314" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(JSON)
 A42AA02/振込依頼作成</v>
       </c>
-      <c r="T1" s="301"/>
-      <c r="U1" s="301"/>
-      <c r="V1" s="301"/>
-      <c r="W1" s="301"/>
-      <c r="X1" s="301"/>
-      <c r="Y1" s="301"/>
-      <c r="Z1" s="302"/>
-      <c r="AA1" s="309" t="s">
+      <c r="T1" s="303"/>
+      <c r="U1" s="303"/>
+      <c r="V1" s="303"/>
+      <c r="W1" s="303"/>
+      <c r="X1" s="303"/>
+      <c r="Y1" s="303"/>
+      <c r="Z1" s="304"/>
+      <c r="AA1" s="311" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="311"/>
+      <c r="AB1" s="313"/>
       <c r="AC1" s="242" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
       <c r="AD1" s="243"/>
       <c r="AE1" s="243"/>
-      <c r="AF1" s="360">
+      <c r="AF1" s="362">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AG1" s="361"/>
-      <c r="AH1" s="362"/>
+      <c r="AG1" s="363"/>
+      <c r="AH1" s="364"/>
     </row>
     <row r="2" spans="1:95" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="311" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="315"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
-      <c r="R2" s="317"/>
-      <c r="S2" s="303"/>
-      <c r="T2" s="304"/>
-      <c r="U2" s="304"/>
-      <c r="V2" s="304"/>
-      <c r="W2" s="304"/>
-      <c r="X2" s="304"/>
-      <c r="Y2" s="304"/>
-      <c r="Z2" s="305"/>
-      <c r="AA2" s="309" t="s">
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="305"/>
+      <c r="T2" s="306"/>
+      <c r="U2" s="306"/>
+      <c r="V2" s="306"/>
+      <c r="W2" s="306"/>
+      <c r="X2" s="306"/>
+      <c r="Y2" s="306"/>
+      <c r="Z2" s="307"/>
+      <c r="AA2" s="311" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="311"/>
+      <c r="AB2" s="313"/>
       <c r="AC2" s="242" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
       <c r="AD2" s="243"/>
       <c r="AE2" s="243"/>
-      <c r="AF2" s="360" t="str">
+      <c r="AF2" s="362">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AG2" s="361"/>
-      <c r="AH2" s="362"/>
+        <v>44816</v>
+      </c>
+      <c r="AG2" s="363"/>
+      <c r="AH2" s="364"/>
     </row>
     <row r="3" spans="1:95" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="309" t="s">
+      <c r="A3" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="318"/>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="319"/>
-      <c r="R3" s="320"/>
-      <c r="S3" s="306"/>
-      <c r="T3" s="307"/>
-      <c r="U3" s="307"/>
-      <c r="V3" s="307"/>
-      <c r="W3" s="307"/>
-      <c r="X3" s="307"/>
-      <c r="Y3" s="307"/>
-      <c r="Z3" s="308"/>
-      <c r="AA3" s="309"/>
-      <c r="AB3" s="311"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="309"/>
+      <c r="U3" s="309"/>
+      <c r="V3" s="309"/>
+      <c r="W3" s="309"/>
+      <c r="X3" s="309"/>
+      <c r="Y3" s="309"/>
+      <c r="Z3" s="310"/>
+      <c r="AA3" s="311"/>
+      <c r="AB3" s="313"/>
       <c r="AC3" s="242" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
       <c r="AD3" s="243"/>
       <c r="AE3" s="243"/>
-      <c r="AF3" s="360" t="str">
+      <c r="AF3" s="362" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AG3" s="361"/>
-      <c r="AH3" s="362"/>
+      <c r="AG3" s="363"/>
+      <c r="AH3" s="364"/>
     </row>
     <row r="4" spans="1:95" ht="12" customHeight="1"/>
-    <row r="5" spans="1:95" ht="15" customHeight="1">
-      <c r="A5" s="180" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
+    <row r="5" spans="1:95" ht="12" customHeight="1">
+      <c r="A5" s="74" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6" spans="1:95" ht="15" customHeight="1">
-      <c r="A6" s="180"/>
+      <c r="A6" s="245" t="s">
+        <v>122</v>
+      </c>
       <c r="B6" s="92"/>
       <c r="C6" s="92"/>
       <c r="D6" s="92"/>
     </row>
     <row r="7" spans="1:95" ht="15" customHeight="1">
-      <c r="A7" s="472" t="s">
+      <c r="A7" s="180"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+    </row>
+    <row r="8" spans="1:95" ht="15" customHeight="1">
+      <c r="A8" s="474" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="475"/>
+      <c r="C8" s="476"/>
+      <c r="D8" s="477" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="478"/>
+      <c r="F8" s="478"/>
+      <c r="G8" s="478"/>
+      <c r="H8" s="479"/>
+    </row>
+    <row r="9" spans="1:95" ht="15" customHeight="1">
+      <c r="A9" s="474" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="473"/>
-      <c r="C7" s="474"/>
-      <c r="D7" s="475" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="476"/>
-      <c r="F7" s="476"/>
-      <c r="G7" s="476"/>
-      <c r="H7" s="477"/>
-    </row>
-    <row r="8" spans="1:95" ht="15" customHeight="1">
-      <c r="A8" s="472" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="473"/>
-      <c r="C8" s="474"/>
-      <c r="D8" s="475" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="476"/>
-      <c r="F8" s="476"/>
-      <c r="G8" s="476"/>
-      <c r="H8" s="477"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="92"/>
-    </row>
-    <row r="9" spans="1:95" ht="15" customHeight="1">
-      <c r="A9" s="209" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="454" t="s">
+      <c r="B9" s="475"/>
+      <c r="C9" s="476"/>
+      <c r="D9" s="477" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="478"/>
+      <c r="F9" s="478"/>
+      <c r="G9" s="478"/>
+      <c r="H9" s="479"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+    </row>
+    <row r="10" spans="1:95" ht="15" customHeight="1">
+      <c r="A10" s="209" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="456" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="455"/>
-      <c r="D9" s="455"/>
-      <c r="E9" s="455"/>
-      <c r="F9" s="456"/>
-      <c r="G9" s="454" t="s">
+      <c r="C10" s="457"/>
+      <c r="D10" s="457"/>
+      <c r="E10" s="457"/>
+      <c r="F10" s="458"/>
+      <c r="G10" s="456" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="455"/>
-      <c r="I9" s="455"/>
-      <c r="J9" s="455"/>
-      <c r="K9" s="456"/>
-      <c r="L9" s="454" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" s="455"/>
-      <c r="N9" s="455"/>
-      <c r="O9" s="455"/>
-      <c r="P9" s="456"/>
-      <c r="Q9" s="210" t="s">
+      <c r="H10" s="457"/>
+      <c r="I10" s="457"/>
+      <c r="J10" s="457"/>
+      <c r="K10" s="458"/>
+      <c r="L10" s="456" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="457"/>
+      <c r="N10" s="457"/>
+      <c r="O10" s="457"/>
+      <c r="P10" s="458"/>
+      <c r="Q10" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="457" t="s">
+      <c r="R10" s="459" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="457"/>
-      <c r="T9" s="457"/>
-      <c r="U9" s="457"/>
-      <c r="V9" s="479" t="s">
-        <v>126</v>
-      </c>
-      <c r="W9" s="459"/>
-      <c r="X9" s="458" t="s">
+      <c r="S10" s="459"/>
+      <c r="T10" s="459"/>
+      <c r="U10" s="459"/>
+      <c r="V10" s="481" t="s">
+        <v>125</v>
+      </c>
+      <c r="W10" s="461"/>
+      <c r="X10" s="460" t="s">
         <v>55</v>
       </c>
-      <c r="Y9" s="459"/>
-      <c r="Z9" s="458" t="s">
+      <c r="Y10" s="461"/>
+      <c r="Z10" s="460" t="s">
         <v>25</v>
       </c>
-      <c r="AA9" s="459"/>
-      <c r="AB9" s="454" t="s">
+      <c r="AA10" s="461"/>
+      <c r="AB10" s="456" t="s">
         <v>59</v>
       </c>
-      <c r="AC9" s="455"/>
-      <c r="AD9" s="456"/>
-      <c r="AE9" s="454" t="s">
+      <c r="AC10" s="457"/>
+      <c r="AD10" s="458"/>
+      <c r="AE10" s="456" t="s">
         <v>56</v>
       </c>
-      <c r="AF9" s="455"/>
-      <c r="AG9" s="455"/>
-      <c r="AH9" s="455"/>
-      <c r="AI9" s="455"/>
-      <c r="AJ9" s="455"/>
-      <c r="AK9" s="455"/>
-      <c r="AL9" s="456"/>
-      <c r="AM9" s="75"/>
-      <c r="AN9" s="75"/>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="75"/>
-      <c r="AQ9" s="75"/>
-      <c r="AR9" s="75"/>
-      <c r="AS9" s="75"/>
-      <c r="AT9" s="75"/>
-      <c r="AU9" s="75"/>
-      <c r="AV9" s="75"/>
-      <c r="AW9" s="75"/>
-      <c r="AX9" s="75"/>
-      <c r="AY9" s="75"/>
-      <c r="AZ9" s="75"/>
-      <c r="BA9" s="75"/>
-      <c r="BB9" s="75"/>
-      <c r="BC9" s="75"/>
-      <c r="BD9" s="75"/>
-      <c r="BE9" s="75"/>
-      <c r="BF9" s="75"/>
-      <c r="BG9" s="75"/>
-      <c r="BH9" s="75"/>
-      <c r="BI9" s="75"/>
-      <c r="BJ9" s="75"/>
-      <c r="BK9" s="75"/>
-      <c r="BL9" s="75"/>
-      <c r="BM9" s="75"/>
-      <c r="BN9" s="75"/>
-      <c r="BO9" s="75"/>
-      <c r="BP9" s="75"/>
-      <c r="BQ9" s="75"/>
-      <c r="BR9" s="75"/>
-      <c r="BS9" s="75"/>
-      <c r="BT9" s="75"/>
-      <c r="BU9" s="75"/>
-      <c r="BV9" s="75"/>
-      <c r="BW9" s="75"/>
-      <c r="BX9" s="75"/>
-      <c r="BY9" s="75"/>
-      <c r="BZ9" s="75"/>
-      <c r="CA9" s="75"/>
-      <c r="CB9" s="75"/>
-      <c r="CC9" s="75"/>
-      <c r="CD9" s="202"/>
-      <c r="CE9" s="202"/>
-      <c r="CF9" s="202"/>
-      <c r="CG9" s="202"/>
-      <c r="CH9" s="202"/>
-      <c r="CI9" s="202"/>
-      <c r="CJ9" s="202"/>
-      <c r="CK9" s="202"/>
-      <c r="CL9" s="202"/>
-      <c r="CM9" s="202"/>
-      <c r="CN9" s="202"/>
-    </row>
-    <row r="10" spans="1:95" ht="15" customHeight="1">
-      <c r="A10" s="168">
-        <v>1</v>
-      </c>
-      <c r="B10" s="451" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="452"/>
-      <c r="D10" s="452"/>
-      <c r="E10" s="452"/>
-      <c r="F10" s="453"/>
-      <c r="G10" s="460" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="460"/>
-      <c r="I10" s="460"/>
-      <c r="J10" s="460"/>
-      <c r="K10" s="460"/>
-      <c r="L10" s="460" t="s">
-        <v>97</v>
-      </c>
-      <c r="M10" s="460"/>
-      <c r="N10" s="460"/>
-      <c r="O10" s="460"/>
-      <c r="P10" s="460"/>
-      <c r="Q10" s="211" t="s">
-        <v>101</v>
-      </c>
-      <c r="R10" s="468" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="452"/>
-      <c r="T10" s="452"/>
-      <c r="U10" s="453"/>
-      <c r="V10" s="462"/>
-      <c r="W10" s="463"/>
-      <c r="X10" s="462">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="463"/>
-      <c r="Z10" s="469"/>
-      <c r="AA10" s="470"/>
-      <c r="AB10" s="451"/>
-      <c r="AC10" s="452"/>
-      <c r="AD10" s="453"/>
-      <c r="AE10" s="451"/>
-      <c r="AF10" s="452"/>
-      <c r="AG10" s="452"/>
-      <c r="AH10" s="452"/>
-      <c r="AI10" s="452"/>
-      <c r="AJ10" s="452"/>
-      <c r="AK10" s="452"/>
-      <c r="AL10" s="453"/>
-      <c r="AM10" s="202"/>
-      <c r="AN10" s="202"/>
-      <c r="AO10" s="202"/>
-      <c r="AQ10" s="202"/>
-      <c r="AR10" s="202"/>
-      <c r="AS10" s="202"/>
-      <c r="AT10" s="202"/>
-      <c r="AU10" s="202"/>
-      <c r="AV10" s="202"/>
-      <c r="AW10" s="202"/>
-      <c r="AX10" s="202"/>
+      <c r="AF10" s="457"/>
+      <c r="AG10" s="457"/>
+      <c r="AH10" s="457"/>
+      <c r="AI10" s="457"/>
+      <c r="AJ10" s="457"/>
+      <c r="AK10" s="457"/>
+      <c r="AL10" s="458"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
       <c r="AY10" s="75"/>
       <c r="AZ10" s="75"/>
       <c r="BA10" s="75"/>
@@ -16294,57 +16252,57 @@
     </row>
     <row r="11" spans="1:95" ht="15" customHeight="1">
       <c r="A11" s="168">
-        <v>2</v>
-      </c>
-      <c r="B11" s="451" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="452"/>
-      <c r="D11" s="452"/>
-      <c r="E11" s="452"/>
-      <c r="F11" s="453"/>
-      <c r="G11" s="460" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="460"/>
-      <c r="I11" s="460"/>
-      <c r="J11" s="460"/>
-      <c r="K11" s="460"/>
-      <c r="L11" s="460" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11" s="460"/>
-      <c r="N11" s="460"/>
-      <c r="O11" s="460"/>
-      <c r="P11" s="460"/>
+        <v>1</v>
+      </c>
+      <c r="B11" s="453" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="454"/>
+      <c r="D11" s="454"/>
+      <c r="E11" s="454"/>
+      <c r="F11" s="455"/>
+      <c r="G11" s="462" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="462"/>
+      <c r="I11" s="462"/>
+      <c r="J11" s="462"/>
+      <c r="K11" s="462"/>
+      <c r="L11" s="462" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="462"/>
+      <c r="N11" s="462"/>
+      <c r="O11" s="462"/>
+      <c r="P11" s="462"/>
       <c r="Q11" s="211" t="s">
-        <v>101</v>
-      </c>
-      <c r="R11" s="451" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="452"/>
-      <c r="T11" s="452"/>
-      <c r="U11" s="453"/>
-      <c r="V11" s="462"/>
-      <c r="W11" s="463"/>
-      <c r="X11" s="462">
+        <v>100</v>
+      </c>
+      <c r="R11" s="470" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="454"/>
+      <c r="T11" s="454"/>
+      <c r="U11" s="455"/>
+      <c r="V11" s="464"/>
+      <c r="W11" s="465"/>
+      <c r="X11" s="464">
         <v>1</v>
       </c>
-      <c r="Y11" s="463"/>
-      <c r="Z11" s="449"/>
-      <c r="AA11" s="450"/>
-      <c r="AB11" s="451"/>
-      <c r="AC11" s="452"/>
-      <c r="AD11" s="453"/>
-      <c r="AE11" s="451"/>
-      <c r="AF11" s="452"/>
-      <c r="AG11" s="452"/>
-      <c r="AH11" s="452"/>
-      <c r="AI11" s="452"/>
-      <c r="AJ11" s="452"/>
-      <c r="AK11" s="452"/>
-      <c r="AL11" s="453"/>
+      <c r="Y11" s="465"/>
+      <c r="Z11" s="471"/>
+      <c r="AA11" s="472"/>
+      <c r="AB11" s="453"/>
+      <c r="AC11" s="454"/>
+      <c r="AD11" s="455"/>
+      <c r="AE11" s="453"/>
+      <c r="AF11" s="454"/>
+      <c r="AG11" s="454"/>
+      <c r="AH11" s="454"/>
+      <c r="AI11" s="454"/>
+      <c r="AJ11" s="454"/>
+      <c r="AK11" s="454"/>
+      <c r="AL11" s="455"/>
       <c r="AM11" s="202"/>
       <c r="AN11" s="202"/>
       <c r="AO11" s="202"/>
@@ -16401,55 +16359,57 @@
     </row>
     <row r="12" spans="1:95" ht="15" customHeight="1">
       <c r="A12" s="168">
-        <v>3</v>
-      </c>
-      <c r="B12" s="468" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="452"/>
-      <c r="D12" s="452"/>
-      <c r="E12" s="452"/>
-      <c r="F12" s="453"/>
-      <c r="G12" s="478" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="471"/>
-      <c r="I12" s="471"/>
-      <c r="J12" s="471"/>
-      <c r="K12" s="450"/>
-      <c r="L12" s="449"/>
-      <c r="M12" s="471"/>
-      <c r="N12" s="471"/>
-      <c r="O12" s="471"/>
-      <c r="P12" s="450"/>
+        <v>2</v>
+      </c>
+      <c r="B12" s="453" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="454"/>
+      <c r="D12" s="454"/>
+      <c r="E12" s="454"/>
+      <c r="F12" s="455"/>
+      <c r="G12" s="462" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="462"/>
+      <c r="I12" s="462"/>
+      <c r="J12" s="462"/>
+      <c r="K12" s="462"/>
+      <c r="L12" s="462" t="s">
+        <v>97</v>
+      </c>
+      <c r="M12" s="462"/>
+      <c r="N12" s="462"/>
+      <c r="O12" s="462"/>
+      <c r="P12" s="462"/>
       <c r="Q12" s="211" t="s">
-        <v>101</v>
-      </c>
-      <c r="R12" s="451" t="s">
-        <v>116</v>
-      </c>
-      <c r="S12" s="452"/>
-      <c r="T12" s="452"/>
-      <c r="U12" s="453"/>
-      <c r="V12" s="462"/>
-      <c r="W12" s="463"/>
-      <c r="X12" s="462">
+        <v>100</v>
+      </c>
+      <c r="R12" s="453" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="454"/>
+      <c r="T12" s="454"/>
+      <c r="U12" s="455"/>
+      <c r="V12" s="464"/>
+      <c r="W12" s="465"/>
+      <c r="X12" s="464">
         <v>1</v>
       </c>
-      <c r="Y12" s="463"/>
-      <c r="Z12" s="212"/>
-      <c r="AA12" s="213"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="203"/>
-      <c r="AD12" s="204"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="203"/>
-      <c r="AG12" s="203"/>
-      <c r="AH12" s="203"/>
-      <c r="AI12" s="203"/>
-      <c r="AJ12" s="203"/>
-      <c r="AK12" s="203"/>
-      <c r="AL12" s="204"/>
+      <c r="Y12" s="465"/>
+      <c r="Z12" s="451"/>
+      <c r="AA12" s="452"/>
+      <c r="AB12" s="453"/>
+      <c r="AC12" s="454"/>
+      <c r="AD12" s="455"/>
+      <c r="AE12" s="453"/>
+      <c r="AF12" s="454"/>
+      <c r="AG12" s="454"/>
+      <c r="AH12" s="454"/>
+      <c r="AI12" s="454"/>
+      <c r="AJ12" s="454"/>
+      <c r="AK12" s="454"/>
+      <c r="AL12" s="455"/>
       <c r="AM12" s="202"/>
       <c r="AN12" s="202"/>
       <c r="AO12" s="202"/>
@@ -16506,42 +16466,42 @@
     </row>
     <row r="13" spans="1:95" ht="15" customHeight="1">
       <c r="A13" s="168">
-        <v>4</v>
-      </c>
-      <c r="B13" s="468" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="452"/>
-      <c r="D13" s="452"/>
-      <c r="E13" s="452"/>
-      <c r="F13" s="453"/>
-      <c r="G13" s="478" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="470" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="454"/>
+      <c r="D13" s="454"/>
+      <c r="E13" s="454"/>
+      <c r="F13" s="455"/>
+      <c r="G13" s="480" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="473"/>
+      <c r="I13" s="473"/>
+      <c r="J13" s="473"/>
+      <c r="K13" s="452"/>
+      <c r="L13" s="451"/>
+      <c r="M13" s="473"/>
+      <c r="N13" s="473"/>
+      <c r="O13" s="473"/>
+      <c r="P13" s="452"/>
+      <c r="Q13" s="211" t="s">
+        <v>100</v>
+      </c>
+      <c r="R13" s="453" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="471"/>
-      <c r="I13" s="471"/>
-      <c r="J13" s="471"/>
-      <c r="K13" s="450"/>
-      <c r="L13" s="449"/>
-      <c r="M13" s="471"/>
-      <c r="N13" s="471"/>
-      <c r="O13" s="471"/>
-      <c r="P13" s="450"/>
-      <c r="Q13" s="211" t="s">
-        <v>101</v>
-      </c>
-      <c r="R13" s="451" t="s">
-        <v>116</v>
-      </c>
-      <c r="S13" s="452"/>
-      <c r="T13" s="452"/>
-      <c r="U13" s="453"/>
-      <c r="V13" s="462"/>
-      <c r="W13" s="463"/>
-      <c r="X13" s="462">
+      <c r="S13" s="454"/>
+      <c r="T13" s="454"/>
+      <c r="U13" s="455"/>
+      <c r="V13" s="464"/>
+      <c r="W13" s="465"/>
+      <c r="X13" s="464">
         <v>1</v>
       </c>
-      <c r="Y13" s="463"/>
+      <c r="Y13" s="465"/>
       <c r="Z13" s="212"/>
       <c r="AA13" s="213"/>
       <c r="AB13" s="62"/>
@@ -16609,94 +16569,145 @@
       <c r="CM13" s="202"/>
       <c r="CN13" s="202"/>
     </row>
-    <row r="14" spans="1:95" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="214"/>
-      <c r="I14" s="214"/>
-      <c r="J14" s="214"/>
-      <c r="K14" s="214"/>
-      <c r="L14" s="214"/>
-      <c r="M14" s="214"/>
-      <c r="N14" s="214"/>
-      <c r="O14" s="214"/>
-      <c r="P14" s="214"/>
-      <c r="Q14" s="214"/>
-      <c r="R14" s="214"/>
-      <c r="S14" s="215"/>
-      <c r="T14" s="215"/>
-      <c r="U14" s="215"/>
-      <c r="V14" s="216"/>
-      <c r="W14" s="216"/>
-      <c r="X14" s="217"/>
-      <c r="Y14" s="217"/>
-      <c r="Z14" s="214"/>
-      <c r="AA14" s="214"/>
-      <c r="AB14" s="214"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="214"/>
-      <c r="AG14" s="79"/>
-      <c r="CC14" s="81"/>
-      <c r="CD14" s="81"/>
-      <c r="CE14" s="81"/>
-      <c r="CF14" s="81"/>
-      <c r="CG14" s="82"/>
-      <c r="CH14" s="82"/>
-      <c r="CI14" s="82"/>
-      <c r="CJ14" s="82"/>
-      <c r="CK14" s="82"/>
-      <c r="CL14" s="82"/>
-      <c r="CM14" s="82"/>
-      <c r="CN14" s="82"/>
-      <c r="CO14" s="82"/>
-      <c r="CP14" s="82"/>
-      <c r="CQ14" s="82"/>
+    <row r="14" spans="1:95" ht="15" customHeight="1">
+      <c r="A14" s="168">
+        <v>4</v>
+      </c>
+      <c r="B14" s="470" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="454"/>
+      <c r="D14" s="454"/>
+      <c r="E14" s="454"/>
+      <c r="F14" s="455"/>
+      <c r="G14" s="480" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="473"/>
+      <c r="I14" s="473"/>
+      <c r="J14" s="473"/>
+      <c r="K14" s="452"/>
+      <c r="L14" s="451"/>
+      <c r="M14" s="473"/>
+      <c r="N14" s="473"/>
+      <c r="O14" s="473"/>
+      <c r="P14" s="452"/>
+      <c r="Q14" s="211" t="s">
+        <v>100</v>
+      </c>
+      <c r="R14" s="453" t="s">
+        <v>115</v>
+      </c>
+      <c r="S14" s="454"/>
+      <c r="T14" s="454"/>
+      <c r="U14" s="455"/>
+      <c r="V14" s="464"/>
+      <c r="W14" s="465"/>
+      <c r="X14" s="464">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="465"/>
+      <c r="Z14" s="212"/>
+      <c r="AA14" s="213"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="203"/>
+      <c r="AD14" s="204"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="203"/>
+      <c r="AG14" s="203"/>
+      <c r="AH14" s="203"/>
+      <c r="AI14" s="203"/>
+      <c r="AJ14" s="203"/>
+      <c r="AK14" s="203"/>
+      <c r="AL14" s="204"/>
+      <c r="AM14" s="202"/>
+      <c r="AN14" s="202"/>
+      <c r="AO14" s="202"/>
+      <c r="AQ14" s="202"/>
+      <c r="AR14" s="202"/>
+      <c r="AS14" s="202"/>
+      <c r="AT14" s="202"/>
+      <c r="AU14" s="202"/>
+      <c r="AV14" s="202"/>
+      <c r="AW14" s="202"/>
+      <c r="AX14" s="202"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="75"/>
+      <c r="BA14" s="75"/>
+      <c r="BB14" s="75"/>
+      <c r="BC14" s="75"/>
+      <c r="BD14" s="75"/>
+      <c r="BE14" s="75"/>
+      <c r="BF14" s="75"/>
+      <c r="BG14" s="75"/>
+      <c r="BH14" s="75"/>
+      <c r="BI14" s="75"/>
+      <c r="BJ14" s="75"/>
+      <c r="BK14" s="75"/>
+      <c r="BL14" s="75"/>
+      <c r="BM14" s="75"/>
+      <c r="BN14" s="75"/>
+      <c r="BO14" s="75"/>
+      <c r="BP14" s="75"/>
+      <c r="BQ14" s="75"/>
+      <c r="BR14" s="75"/>
+      <c r="BS14" s="75"/>
+      <c r="BT14" s="75"/>
+      <c r="BU14" s="75"/>
+      <c r="BV14" s="75"/>
+      <c r="BW14" s="75"/>
+      <c r="BX14" s="75"/>
+      <c r="BY14" s="75"/>
+      <c r="BZ14" s="75"/>
+      <c r="CA14" s="75"/>
+      <c r="CB14" s="75"/>
+      <c r="CC14" s="75"/>
+      <c r="CD14" s="202"/>
+      <c r="CE14" s="202"/>
+      <c r="CF14" s="202"/>
+      <c r="CG14" s="202"/>
+      <c r="CH14" s="202"/>
+      <c r="CI14" s="202"/>
+      <c r="CJ14" s="202"/>
+      <c r="CK14" s="202"/>
+      <c r="CL14" s="202"/>
+      <c r="CM14" s="202"/>
+      <c r="CN14" s="202"/>
     </row>
     <row r="15" spans="1:95" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="472" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="473"/>
-      <c r="C15" s="474"/>
-      <c r="D15" s="475" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="476"/>
-      <c r="F15" s="476"/>
-      <c r="G15" s="476"/>
-      <c r="H15" s="477"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="218"/>
-      <c r="L15" s="218"/>
-      <c r="M15" s="218"/>
-      <c r="N15" s="218"/>
-      <c r="O15" s="218"/>
-      <c r="P15" s="218"/>
-      <c r="Q15" s="218"/>
-      <c r="R15" s="218"/>
-      <c r="S15" s="219"/>
-      <c r="T15" s="219"/>
-      <c r="U15" s="219"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="220"/>
-      <c r="Y15" s="220"/>
-      <c r="Z15" s="218"/>
-      <c r="AA15" s="218"/>
-      <c r="AB15" s="218"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="218"/>
-      <c r="AG15" s="82"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="214"/>
+      <c r="I15" s="214"/>
+      <c r="J15" s="214"/>
+      <c r="K15" s="214"/>
+      <c r="L15" s="214"/>
+      <c r="M15" s="214"/>
+      <c r="N15" s="214"/>
+      <c r="O15" s="214"/>
+      <c r="P15" s="214"/>
+      <c r="Q15" s="214"/>
+      <c r="R15" s="214"/>
+      <c r="S15" s="215"/>
+      <c r="T15" s="215"/>
+      <c r="U15" s="215"/>
+      <c r="V15" s="216"/>
+      <c r="W15" s="216"/>
+      <c r="X15" s="217"/>
+      <c r="Y15" s="217"/>
+      <c r="Z15" s="214"/>
+      <c r="AA15" s="214"/>
+      <c r="AB15" s="214"/>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="214"/>
+      <c r="AG15" s="79"/>
       <c r="CC15" s="81"/>
       <c r="CD15" s="81"/>
       <c r="CE15" s="81"/>
@@ -16714,18 +16725,18 @@
       <c r="CQ15" s="82"/>
     </row>
     <row r="16" spans="1:95" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="472" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="473"/>
-      <c r="C16" s="474"/>
-      <c r="D16" s="475" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="476"/>
-      <c r="F16" s="476"/>
-      <c r="G16" s="476"/>
-      <c r="H16" s="477"/>
+      <c r="A16" s="474" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="475"/>
+      <c r="C16" s="476"/>
+      <c r="D16" s="477" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="478"/>
+      <c r="F16" s="478"/>
+      <c r="G16" s="478"/>
+      <c r="H16" s="479"/>
       <c r="I16" s="218"/>
       <c r="J16" s="218"/>
       <c r="K16" s="218"/>
@@ -16751,7 +16762,6 @@
       <c r="AE16" s="82"/>
       <c r="AF16" s="218"/>
       <c r="AG16" s="82"/>
-      <c r="AH16" s="82"/>
       <c r="CC16" s="81"/>
       <c r="CD16" s="81"/>
       <c r="CE16" s="81"/>
@@ -16768,186 +16778,134 @@
       <c r="CP16" s="82"/>
       <c r="CQ16" s="82"/>
     </row>
-    <row r="17" spans="1:95" ht="15" customHeight="1">
-      <c r="A17" s="209" t="s">
+    <row r="17" spans="1:95" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="474" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="475"/>
+      <c r="C17" s="476"/>
+      <c r="D17" s="477" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="454" t="s">
+      <c r="E17" s="478"/>
+      <c r="F17" s="478"/>
+      <c r="G17" s="478"/>
+      <c r="H17" s="479"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="218"/>
+      <c r="P17" s="218"/>
+      <c r="Q17" s="218"/>
+      <c r="R17" s="218"/>
+      <c r="S17" s="219"/>
+      <c r="T17" s="219"/>
+      <c r="U17" s="219"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="220"/>
+      <c r="Y17" s="220"/>
+      <c r="Z17" s="218"/>
+      <c r="AA17" s="218"/>
+      <c r="AB17" s="218"/>
+      <c r="AC17" s="82"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="82"/>
+      <c r="AF17" s="218"/>
+      <c r="AG17" s="82"/>
+      <c r="AH17" s="82"/>
+      <c r="CC17" s="81"/>
+      <c r="CD17" s="81"/>
+      <c r="CE17" s="81"/>
+      <c r="CF17" s="81"/>
+      <c r="CG17" s="82"/>
+      <c r="CH17" s="82"/>
+      <c r="CI17" s="82"/>
+      <c r="CJ17" s="82"/>
+      <c r="CK17" s="82"/>
+      <c r="CL17" s="82"/>
+      <c r="CM17" s="82"/>
+      <c r="CN17" s="82"/>
+      <c r="CO17" s="82"/>
+      <c r="CP17" s="82"/>
+      <c r="CQ17" s="82"/>
+    </row>
+    <row r="18" spans="1:95" ht="15" customHeight="1">
+      <c r="A18" s="209" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="456" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="455"/>
-      <c r="D17" s="455"/>
-      <c r="E17" s="455"/>
-      <c r="F17" s="456"/>
-      <c r="G17" s="454" t="s">
+      <c r="C18" s="457"/>
+      <c r="D18" s="457"/>
+      <c r="E18" s="457"/>
+      <c r="F18" s="458"/>
+      <c r="G18" s="456" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="455"/>
-      <c r="I17" s="455"/>
-      <c r="J17" s="455"/>
-      <c r="K17" s="456"/>
-      <c r="L17" s="454" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" s="455"/>
-      <c r="N17" s="455"/>
-      <c r="O17" s="455"/>
-      <c r="P17" s="456"/>
-      <c r="Q17" s="238" t="s">
+      <c r="H18" s="457"/>
+      <c r="I18" s="457"/>
+      <c r="J18" s="457"/>
+      <c r="K18" s="458"/>
+      <c r="L18" s="456" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="457"/>
+      <c r="N18" s="457"/>
+      <c r="O18" s="457"/>
+      <c r="P18" s="458"/>
+      <c r="Q18" s="238" t="s">
         <v>60</v>
       </c>
-      <c r="R17" s="457" t="s">
+      <c r="R18" s="459" t="s">
         <v>66</v>
       </c>
-      <c r="S17" s="457"/>
-      <c r="T17" s="457"/>
-      <c r="U17" s="457"/>
-      <c r="V17" s="479" t="s">
-        <v>126</v>
-      </c>
-      <c r="W17" s="459"/>
-      <c r="X17" s="458" t="s">
+      <c r="S18" s="459"/>
+      <c r="T18" s="459"/>
+      <c r="U18" s="459"/>
+      <c r="V18" s="481" t="s">
+        <v>125</v>
+      </c>
+      <c r="W18" s="461"/>
+      <c r="X18" s="460" t="s">
         <v>55</v>
       </c>
-      <c r="Y17" s="459"/>
-      <c r="Z17" s="458" t="s">
+      <c r="Y18" s="461"/>
+      <c r="Z18" s="460" t="s">
         <v>25</v>
       </c>
-      <c r="AA17" s="459"/>
-      <c r="AB17" s="454" t="s">
+      <c r="AA18" s="461"/>
+      <c r="AB18" s="456" t="s">
         <v>59</v>
       </c>
-      <c r="AC17" s="455"/>
-      <c r="AD17" s="456"/>
-      <c r="AE17" s="454" t="s">
+      <c r="AC18" s="457"/>
+      <c r="AD18" s="458"/>
+      <c r="AE18" s="456" t="s">
         <v>56</v>
       </c>
-      <c r="AF17" s="455"/>
-      <c r="AG17" s="455"/>
-      <c r="AH17" s="455"/>
-      <c r="AI17" s="455"/>
-      <c r="AJ17" s="455"/>
-      <c r="AK17" s="455"/>
-      <c r="AL17" s="456"/>
-      <c r="AM17" s="75"/>
-      <c r="AN17" s="75"/>
-      <c r="AO17" s="75"/>
-      <c r="AP17" s="75"/>
-      <c r="AQ17" s="75"/>
-      <c r="AR17" s="75"/>
-      <c r="AS17" s="75"/>
-      <c r="AT17" s="75"/>
-      <c r="AU17" s="75"/>
-      <c r="AV17" s="75"/>
-      <c r="AW17" s="75"/>
-      <c r="AX17" s="75"/>
-      <c r="AY17" s="75"/>
-      <c r="AZ17" s="75"/>
-      <c r="BA17" s="75"/>
-      <c r="BB17" s="75"/>
-      <c r="BC17" s="75"/>
-      <c r="BD17" s="75"/>
-      <c r="BE17" s="75"/>
-      <c r="BF17" s="75"/>
-      <c r="BG17" s="75"/>
-      <c r="BH17" s="75"/>
-      <c r="BI17" s="75"/>
-      <c r="BJ17" s="75"/>
-      <c r="BK17" s="75"/>
-      <c r="BL17" s="75"/>
-      <c r="BM17" s="75"/>
-      <c r="BN17" s="75"/>
-      <c r="BO17" s="75"/>
-      <c r="BP17" s="75"/>
-      <c r="BQ17" s="75"/>
-      <c r="BR17" s="75"/>
-      <c r="BS17" s="75"/>
-      <c r="BT17" s="75"/>
-      <c r="BU17" s="75"/>
-      <c r="BV17" s="75"/>
-      <c r="BW17" s="75"/>
-      <c r="BX17" s="75"/>
-      <c r="BY17" s="75"/>
-      <c r="BZ17" s="75"/>
-      <c r="CA17" s="75"/>
-      <c r="CB17" s="75"/>
-      <c r="CC17" s="75"/>
-      <c r="CD17" s="239"/>
-      <c r="CE17" s="239"/>
-      <c r="CF17" s="239"/>
-      <c r="CG17" s="239"/>
-      <c r="CH17" s="239"/>
-      <c r="CI17" s="239"/>
-      <c r="CJ17" s="239"/>
-      <c r="CK17" s="239"/>
-      <c r="CL17" s="239"/>
-      <c r="CM17" s="239"/>
-      <c r="CN17" s="239"/>
-    </row>
-    <row r="18" spans="1:95" ht="15" customHeight="1">
-      <c r="A18" s="168">
-        <v>1</v>
-      </c>
-      <c r="B18" s="451" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="452"/>
-      <c r="D18" s="452"/>
-      <c r="E18" s="452"/>
-      <c r="F18" s="453"/>
-      <c r="G18" s="460" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="460"/>
-      <c r="I18" s="460"/>
-      <c r="J18" s="460"/>
-      <c r="K18" s="460"/>
-      <c r="L18" s="460" t="s">
-        <v>99</v>
-      </c>
-      <c r="M18" s="460"/>
-      <c r="N18" s="460"/>
-      <c r="O18" s="460"/>
-      <c r="P18" s="460"/>
-      <c r="Q18" s="211" t="s">
-        <v>101</v>
-      </c>
-      <c r="R18" s="461" t="s">
-        <v>27</v>
-      </c>
-      <c r="S18" s="461"/>
-      <c r="T18" s="461"/>
-      <c r="U18" s="461"/>
-      <c r="V18" s="462"/>
-      <c r="W18" s="463"/>
-      <c r="X18" s="462">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="463"/>
-      <c r="Z18" s="449"/>
-      <c r="AA18" s="450"/>
-      <c r="AB18" s="451"/>
-      <c r="AC18" s="452"/>
-      <c r="AD18" s="453"/>
-      <c r="AE18" s="451"/>
-      <c r="AF18" s="452"/>
-      <c r="AG18" s="452"/>
-      <c r="AH18" s="452"/>
-      <c r="AI18" s="452"/>
-      <c r="AJ18" s="452"/>
-      <c r="AK18" s="452"/>
-      <c r="AL18" s="453"/>
-      <c r="AM18" s="239"/>
-      <c r="AN18" s="239"/>
-      <c r="AO18" s="239"/>
-      <c r="AQ18" s="239"/>
-      <c r="AR18" s="239"/>
-      <c r="AS18" s="239"/>
-      <c r="AT18" s="239"/>
-      <c r="AU18" s="239"/>
-      <c r="AV18" s="239"/>
-      <c r="AW18" s="239"/>
-      <c r="AX18" s="239"/>
+      <c r="AF18" s="457"/>
+      <c r="AG18" s="457"/>
+      <c r="AH18" s="457"/>
+      <c r="AI18" s="457"/>
+      <c r="AJ18" s="457"/>
+      <c r="AK18" s="457"/>
+      <c r="AL18" s="458"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="75"/>
+      <c r="AO18" s="75"/>
+      <c r="AP18" s="75"/>
+      <c r="AQ18" s="75"/>
+      <c r="AR18" s="75"/>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="75"/>
+      <c r="AU18" s="75"/>
+      <c r="AV18" s="75"/>
+      <c r="AW18" s="75"/>
+      <c r="AX18" s="75"/>
       <c r="AY18" s="75"/>
       <c r="AZ18" s="75"/>
       <c r="BA18" s="75"/>
@@ -16993,57 +16951,57 @@
     </row>
     <row r="19" spans="1:95" ht="15" customHeight="1">
       <c r="A19" s="168">
-        <v>2</v>
-      </c>
-      <c r="B19" s="451" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="452"/>
-      <c r="D19" s="452"/>
-      <c r="E19" s="452"/>
-      <c r="F19" s="453"/>
-      <c r="G19" s="460" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="460"/>
-      <c r="I19" s="460"/>
-      <c r="J19" s="460"/>
-      <c r="K19" s="460"/>
-      <c r="L19" s="460" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="453" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="454"/>
+      <c r="D19" s="454"/>
+      <c r="E19" s="454"/>
+      <c r="F19" s="455"/>
+      <c r="G19" s="462" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="462"/>
+      <c r="I19" s="462"/>
+      <c r="J19" s="462"/>
+      <c r="K19" s="462"/>
+      <c r="L19" s="462" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="462"/>
+      <c r="N19" s="462"/>
+      <c r="O19" s="462"/>
+      <c r="P19" s="462"/>
+      <c r="Q19" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="M19" s="460"/>
-      <c r="N19" s="460"/>
-      <c r="O19" s="460"/>
-      <c r="P19" s="460"/>
-      <c r="Q19" s="211" t="s">
-        <v>101</v>
-      </c>
-      <c r="R19" s="461" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19" s="461"/>
-      <c r="T19" s="461"/>
-      <c r="U19" s="461"/>
-      <c r="V19" s="462"/>
-      <c r="W19" s="463"/>
-      <c r="X19" s="462">
+      <c r="R19" s="463" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" s="463"/>
+      <c r="T19" s="463"/>
+      <c r="U19" s="463"/>
+      <c r="V19" s="464"/>
+      <c r="W19" s="465"/>
+      <c r="X19" s="464">
         <v>1</v>
       </c>
-      <c r="Y19" s="463"/>
-      <c r="Z19" s="449"/>
-      <c r="AA19" s="450"/>
-      <c r="AB19" s="451"/>
-      <c r="AC19" s="452"/>
-      <c r="AD19" s="453"/>
-      <c r="AE19" s="451"/>
-      <c r="AF19" s="452"/>
-      <c r="AG19" s="452"/>
-      <c r="AH19" s="452"/>
-      <c r="AI19" s="452"/>
-      <c r="AJ19" s="452"/>
-      <c r="AK19" s="452"/>
-      <c r="AL19" s="453"/>
+      <c r="Y19" s="465"/>
+      <c r="Z19" s="451"/>
+      <c r="AA19" s="452"/>
+      <c r="AB19" s="453"/>
+      <c r="AC19" s="454"/>
+      <c r="AD19" s="455"/>
+      <c r="AE19" s="453"/>
+      <c r="AF19" s="454"/>
+      <c r="AG19" s="454"/>
+      <c r="AH19" s="454"/>
+      <c r="AI19" s="454"/>
+      <c r="AJ19" s="454"/>
+      <c r="AK19" s="454"/>
+      <c r="AL19" s="455"/>
       <c r="AM19" s="239"/>
       <c r="AN19" s="239"/>
       <c r="AO19" s="239"/>
@@ -17098,69 +17056,122 @@
       <c r="CM19" s="239"/>
       <c r="CN19" s="239"/>
     </row>
-    <row r="20" spans="1:95" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="218"/>
-      <c r="J20" s="218"/>
-      <c r="K20" s="218"/>
-      <c r="L20" s="218"/>
-      <c r="M20" s="218"/>
-      <c r="N20" s="218"/>
-      <c r="O20" s="218"/>
-      <c r="P20" s="218"/>
-      <c r="Q20" s="218"/>
-      <c r="R20" s="218"/>
-      <c r="S20" s="219"/>
-      <c r="T20" s="219"/>
-      <c r="U20" s="219"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="220"/>
-      <c r="Y20" s="220"/>
-      <c r="Z20" s="218"/>
-      <c r="AA20" s="218"/>
-      <c r="AB20" s="218"/>
-      <c r="AC20" s="82"/>
-      <c r="AD20" s="82"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="218"/>
-      <c r="AG20" s="82"/>
-      <c r="CC20" s="81"/>
-      <c r="CD20" s="81"/>
-      <c r="CE20" s="81"/>
-      <c r="CF20" s="81"/>
-      <c r="CG20" s="82"/>
-      <c r="CH20" s="82"/>
-      <c r="CI20" s="82"/>
-      <c r="CJ20" s="82"/>
-      <c r="CK20" s="82"/>
-      <c r="CL20" s="82"/>
-      <c r="CM20" s="82"/>
-      <c r="CN20" s="82"/>
-      <c r="CO20" s="82"/>
-      <c r="CP20" s="82"/>
-      <c r="CQ20" s="82"/>
+    <row r="20" spans="1:95" ht="15" customHeight="1">
+      <c r="A20" s="168">
+        <v>2</v>
+      </c>
+      <c r="B20" s="453" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="454"/>
+      <c r="D20" s="454"/>
+      <c r="E20" s="454"/>
+      <c r="F20" s="455"/>
+      <c r="G20" s="462" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="462"/>
+      <c r="I20" s="462"/>
+      <c r="J20" s="462"/>
+      <c r="K20" s="462"/>
+      <c r="L20" s="462" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="462"/>
+      <c r="N20" s="462"/>
+      <c r="O20" s="462"/>
+      <c r="P20" s="462"/>
+      <c r="Q20" s="211" t="s">
+        <v>100</v>
+      </c>
+      <c r="R20" s="463" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="463"/>
+      <c r="T20" s="463"/>
+      <c r="U20" s="463"/>
+      <c r="V20" s="464"/>
+      <c r="W20" s="465"/>
+      <c r="X20" s="464">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="465"/>
+      <c r="Z20" s="451"/>
+      <c r="AA20" s="452"/>
+      <c r="AB20" s="453"/>
+      <c r="AC20" s="454"/>
+      <c r="AD20" s="455"/>
+      <c r="AE20" s="453"/>
+      <c r="AF20" s="454"/>
+      <c r="AG20" s="454"/>
+      <c r="AH20" s="454"/>
+      <c r="AI20" s="454"/>
+      <c r="AJ20" s="454"/>
+      <c r="AK20" s="454"/>
+      <c r="AL20" s="455"/>
+      <c r="AM20" s="239"/>
+      <c r="AN20" s="239"/>
+      <c r="AO20" s="239"/>
+      <c r="AQ20" s="239"/>
+      <c r="AR20" s="239"/>
+      <c r="AS20" s="239"/>
+      <c r="AT20" s="239"/>
+      <c r="AU20" s="239"/>
+      <c r="AV20" s="239"/>
+      <c r="AW20" s="239"/>
+      <c r="AX20" s="239"/>
+      <c r="AY20" s="75"/>
+      <c r="AZ20" s="75"/>
+      <c r="BA20" s="75"/>
+      <c r="BB20" s="75"/>
+      <c r="BC20" s="75"/>
+      <c r="BD20" s="75"/>
+      <c r="BE20" s="75"/>
+      <c r="BF20" s="75"/>
+      <c r="BG20" s="75"/>
+      <c r="BH20" s="75"/>
+      <c r="BI20" s="75"/>
+      <c r="BJ20" s="75"/>
+      <c r="BK20" s="75"/>
+      <c r="BL20" s="75"/>
+      <c r="BM20" s="75"/>
+      <c r="BN20" s="75"/>
+      <c r="BO20" s="75"/>
+      <c r="BP20" s="75"/>
+      <c r="BQ20" s="75"/>
+      <c r="BR20" s="75"/>
+      <c r="BS20" s="75"/>
+      <c r="BT20" s="75"/>
+      <c r="BU20" s="75"/>
+      <c r="BV20" s="75"/>
+      <c r="BW20" s="75"/>
+      <c r="BX20" s="75"/>
+      <c r="BY20" s="75"/>
+      <c r="BZ20" s="75"/>
+      <c r="CA20" s="75"/>
+      <c r="CB20" s="75"/>
+      <c r="CC20" s="75"/>
+      <c r="CD20" s="239"/>
+      <c r="CE20" s="239"/>
+      <c r="CF20" s="239"/>
+      <c r="CG20" s="239"/>
+      <c r="CH20" s="239"/>
+      <c r="CI20" s="239"/>
+      <c r="CJ20" s="239"/>
+      <c r="CK20" s="239"/>
+      <c r="CL20" s="239"/>
+      <c r="CM20" s="239"/>
+      <c r="CN20" s="239"/>
     </row>
     <row r="21" spans="1:95" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="472" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="473"/>
-      <c r="C21" s="474"/>
-      <c r="D21" s="475" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="476"/>
-      <c r="F21" s="476"/>
-      <c r="G21" s="476"/>
-      <c r="H21" s="477"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="218"/>
       <c r="I21" s="218"/>
       <c r="J21" s="218"/>
       <c r="K21" s="218"/>
@@ -17203,18 +17214,18 @@
       <c r="CQ21" s="82"/>
     </row>
     <row r="22" spans="1:95" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="472" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="473"/>
-      <c r="C22" s="474"/>
-      <c r="D22" s="475" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="476"/>
-      <c r="F22" s="476"/>
-      <c r="G22" s="476"/>
-      <c r="H22" s="477"/>
+      <c r="A22" s="474" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="475"/>
+      <c r="C22" s="476"/>
+      <c r="D22" s="477" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="478"/>
+      <c r="F22" s="478"/>
+      <c r="G22" s="478"/>
+      <c r="H22" s="479"/>
       <c r="I22" s="218"/>
       <c r="J22" s="218"/>
       <c r="K22" s="218"/>
@@ -17240,7 +17251,6 @@
       <c r="AE22" s="82"/>
       <c r="AF22" s="218"/>
       <c r="AG22" s="82"/>
-      <c r="AH22" s="82"/>
       <c r="CC22" s="81"/>
       <c r="CD22" s="81"/>
       <c r="CE22" s="81"/>
@@ -17257,186 +17267,134 @@
       <c r="CP22" s="82"/>
       <c r="CQ22" s="82"/>
     </row>
-    <row r="23" spans="1:95" ht="15" customHeight="1">
-      <c r="A23" s="209" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="454" t="s">
+    <row r="23" spans="1:95" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="474" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="475"/>
+      <c r="C23" s="476"/>
+      <c r="D23" s="477" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="478"/>
+      <c r="F23" s="478"/>
+      <c r="G23" s="478"/>
+      <c r="H23" s="479"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="218"/>
+      <c r="M23" s="218"/>
+      <c r="N23" s="218"/>
+      <c r="O23" s="218"/>
+      <c r="P23" s="218"/>
+      <c r="Q23" s="218"/>
+      <c r="R23" s="218"/>
+      <c r="S23" s="219"/>
+      <c r="T23" s="219"/>
+      <c r="U23" s="219"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="220"/>
+      <c r="Y23" s="220"/>
+      <c r="Z23" s="218"/>
+      <c r="AA23" s="218"/>
+      <c r="AB23" s="218"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="82"/>
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="218"/>
+      <c r="AG23" s="82"/>
+      <c r="AH23" s="82"/>
+      <c r="CC23" s="81"/>
+      <c r="CD23" s="81"/>
+      <c r="CE23" s="81"/>
+      <c r="CF23" s="81"/>
+      <c r="CG23" s="82"/>
+      <c r="CH23" s="82"/>
+      <c r="CI23" s="82"/>
+      <c r="CJ23" s="82"/>
+      <c r="CK23" s="82"/>
+      <c r="CL23" s="82"/>
+      <c r="CM23" s="82"/>
+      <c r="CN23" s="82"/>
+      <c r="CO23" s="82"/>
+      <c r="CP23" s="82"/>
+      <c r="CQ23" s="82"/>
+    </row>
+    <row r="24" spans="1:95" ht="15" customHeight="1">
+      <c r="A24" s="209" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="456" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="455"/>
-      <c r="D23" s="455"/>
-      <c r="E23" s="455"/>
-      <c r="F23" s="456"/>
-      <c r="G23" s="454" t="s">
+      <c r="C24" s="457"/>
+      <c r="D24" s="457"/>
+      <c r="E24" s="457"/>
+      <c r="F24" s="458"/>
+      <c r="G24" s="456" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="455"/>
-      <c r="I23" s="455"/>
-      <c r="J23" s="455"/>
-      <c r="K23" s="456"/>
-      <c r="L23" s="454" t="s">
-        <v>80</v>
-      </c>
-      <c r="M23" s="455"/>
-      <c r="N23" s="455"/>
-      <c r="O23" s="455"/>
-      <c r="P23" s="456"/>
-      <c r="Q23" s="241" t="s">
+      <c r="H24" s="457"/>
+      <c r="I24" s="457"/>
+      <c r="J24" s="457"/>
+      <c r="K24" s="458"/>
+      <c r="L24" s="456" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" s="457"/>
+      <c r="N24" s="457"/>
+      <c r="O24" s="457"/>
+      <c r="P24" s="458"/>
+      <c r="Q24" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="R23" s="457" t="s">
+      <c r="R24" s="459" t="s">
         <v>66</v>
       </c>
-      <c r="S23" s="457"/>
-      <c r="T23" s="457"/>
-      <c r="U23" s="457"/>
-      <c r="V23" s="479" t="s">
-        <v>126</v>
-      </c>
-      <c r="W23" s="459"/>
-      <c r="X23" s="458" t="s">
+      <c r="S24" s="459"/>
+      <c r="T24" s="459"/>
+      <c r="U24" s="459"/>
+      <c r="V24" s="481" t="s">
+        <v>125</v>
+      </c>
+      <c r="W24" s="461"/>
+      <c r="X24" s="460" t="s">
         <v>55</v>
       </c>
-      <c r="Y23" s="459"/>
-      <c r="Z23" s="458" t="s">
+      <c r="Y24" s="461"/>
+      <c r="Z24" s="460" t="s">
         <v>25</v>
       </c>
-      <c r="AA23" s="459"/>
-      <c r="AB23" s="454" t="s">
+      <c r="AA24" s="461"/>
+      <c r="AB24" s="456" t="s">
         <v>59</v>
       </c>
-      <c r="AC23" s="455"/>
-      <c r="AD23" s="456"/>
-      <c r="AE23" s="454" t="s">
+      <c r="AC24" s="457"/>
+      <c r="AD24" s="458"/>
+      <c r="AE24" s="456" t="s">
         <v>56</v>
       </c>
-      <c r="AF23" s="455"/>
-      <c r="AG23" s="455"/>
-      <c r="AH23" s="455"/>
-      <c r="AI23" s="455"/>
-      <c r="AJ23" s="455"/>
-      <c r="AK23" s="455"/>
-      <c r="AL23" s="456"/>
-      <c r="AM23" s="75"/>
-      <c r="AN23" s="75"/>
-      <c r="AO23" s="75"/>
-      <c r="AP23" s="75"/>
-      <c r="AQ23" s="75"/>
-      <c r="AR23" s="75"/>
-      <c r="AS23" s="75"/>
-      <c r="AT23" s="75"/>
-      <c r="AU23" s="75"/>
-      <c r="AV23" s="75"/>
-      <c r="AW23" s="75"/>
-      <c r="AX23" s="75"/>
-      <c r="AY23" s="75"/>
-      <c r="AZ23" s="75"/>
-      <c r="BA23" s="75"/>
-      <c r="BB23" s="75"/>
-      <c r="BC23" s="75"/>
-      <c r="BD23" s="75"/>
-      <c r="BE23" s="75"/>
-      <c r="BF23" s="75"/>
-      <c r="BG23" s="75"/>
-      <c r="BH23" s="75"/>
-      <c r="BI23" s="75"/>
-      <c r="BJ23" s="75"/>
-      <c r="BK23" s="75"/>
-      <c r="BL23" s="75"/>
-      <c r="BM23" s="75"/>
-      <c r="BN23" s="75"/>
-      <c r="BO23" s="75"/>
-      <c r="BP23" s="75"/>
-      <c r="BQ23" s="75"/>
-      <c r="BR23" s="75"/>
-      <c r="BS23" s="75"/>
-      <c r="BT23" s="75"/>
-      <c r="BU23" s="75"/>
-      <c r="BV23" s="75"/>
-      <c r="BW23" s="75"/>
-      <c r="BX23" s="75"/>
-      <c r="BY23" s="75"/>
-      <c r="BZ23" s="75"/>
-      <c r="CA23" s="75"/>
-      <c r="CB23" s="75"/>
-      <c r="CC23" s="75"/>
-      <c r="CD23" s="240"/>
-      <c r="CE23" s="240"/>
-      <c r="CF23" s="240"/>
-      <c r="CG23" s="240"/>
-      <c r="CH23" s="240"/>
-      <c r="CI23" s="240"/>
-      <c r="CJ23" s="240"/>
-      <c r="CK23" s="240"/>
-      <c r="CL23" s="240"/>
-      <c r="CM23" s="240"/>
-      <c r="CN23" s="240"/>
-    </row>
-    <row r="24" spans="1:95" ht="15" customHeight="1">
-      <c r="A24" s="168">
-        <v>1</v>
-      </c>
-      <c r="B24" s="451" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="452"/>
-      <c r="D24" s="452"/>
-      <c r="E24" s="452"/>
-      <c r="F24" s="453"/>
-      <c r="G24" s="460" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="460"/>
-      <c r="I24" s="460"/>
-      <c r="J24" s="460"/>
-      <c r="K24" s="460"/>
-      <c r="L24" s="460" t="s">
-        <v>99</v>
-      </c>
-      <c r="M24" s="460"/>
-      <c r="N24" s="460"/>
-      <c r="O24" s="460"/>
-      <c r="P24" s="460"/>
-      <c r="Q24" s="211" t="s">
-        <v>101</v>
-      </c>
-      <c r="R24" s="461" t="s">
-        <v>27</v>
-      </c>
-      <c r="S24" s="461"/>
-      <c r="T24" s="461"/>
-      <c r="U24" s="461"/>
-      <c r="V24" s="462"/>
-      <c r="W24" s="463"/>
-      <c r="X24" s="462">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="463"/>
-      <c r="Z24" s="449"/>
-      <c r="AA24" s="450"/>
-      <c r="AB24" s="451"/>
-      <c r="AC24" s="452"/>
-      <c r="AD24" s="453"/>
-      <c r="AE24" s="451"/>
-      <c r="AF24" s="452"/>
-      <c r="AG24" s="452"/>
-      <c r="AH24" s="452"/>
-      <c r="AI24" s="452"/>
-      <c r="AJ24" s="452"/>
-      <c r="AK24" s="452"/>
-      <c r="AL24" s="453"/>
-      <c r="AM24" s="202"/>
-      <c r="AN24" s="202"/>
-      <c r="AO24" s="202"/>
-      <c r="AQ24" s="202"/>
-      <c r="AR24" s="202"/>
-      <c r="AS24" s="202"/>
-      <c r="AT24" s="202"/>
-      <c r="AU24" s="202"/>
-      <c r="AV24" s="202"/>
-      <c r="AW24" s="202"/>
-      <c r="AX24" s="202"/>
+      <c r="AF24" s="457"/>
+      <c r="AG24" s="457"/>
+      <c r="AH24" s="457"/>
+      <c r="AI24" s="457"/>
+      <c r="AJ24" s="457"/>
+      <c r="AK24" s="457"/>
+      <c r="AL24" s="458"/>
+      <c r="AM24" s="75"/>
+      <c r="AN24" s="75"/>
+      <c r="AO24" s="75"/>
+      <c r="AP24" s="75"/>
+      <c r="AQ24" s="75"/>
+      <c r="AR24" s="75"/>
+      <c r="AS24" s="75"/>
+      <c r="AT24" s="75"/>
+      <c r="AU24" s="75"/>
+      <c r="AV24" s="75"/>
+      <c r="AW24" s="75"/>
+      <c r="AX24" s="75"/>
       <c r="AY24" s="75"/>
       <c r="AZ24" s="75"/>
       <c r="BA24" s="75"/>
@@ -17468,71 +17426,71 @@
       <c r="CA24" s="75"/>
       <c r="CB24" s="75"/>
       <c r="CC24" s="75"/>
-      <c r="CD24" s="202"/>
-      <c r="CE24" s="202"/>
-      <c r="CF24" s="202"/>
-      <c r="CG24" s="202"/>
-      <c r="CH24" s="202"/>
-      <c r="CI24" s="202"/>
-      <c r="CJ24" s="202"/>
-      <c r="CK24" s="202"/>
-      <c r="CL24" s="202"/>
-      <c r="CM24" s="202"/>
-      <c r="CN24" s="202"/>
+      <c r="CD24" s="240"/>
+      <c r="CE24" s="240"/>
+      <c r="CF24" s="240"/>
+      <c r="CG24" s="240"/>
+      <c r="CH24" s="240"/>
+      <c r="CI24" s="240"/>
+      <c r="CJ24" s="240"/>
+      <c r="CK24" s="240"/>
+      <c r="CL24" s="240"/>
+      <c r="CM24" s="240"/>
+      <c r="CN24" s="240"/>
     </row>
     <row r="25" spans="1:95" ht="15" customHeight="1">
       <c r="A25" s="168">
-        <v>2</v>
-      </c>
-      <c r="B25" s="451" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="452"/>
-      <c r="D25" s="452"/>
-      <c r="E25" s="452"/>
-      <c r="F25" s="453"/>
-      <c r="G25" s="460" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" s="460"/>
-      <c r="I25" s="460"/>
-      <c r="J25" s="460"/>
-      <c r="K25" s="460"/>
-      <c r="L25" s="460" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="453" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="454"/>
+      <c r="D25" s="454"/>
+      <c r="E25" s="454"/>
+      <c r="F25" s="455"/>
+      <c r="G25" s="462" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="462"/>
+      <c r="I25" s="462"/>
+      <c r="J25" s="462"/>
+      <c r="K25" s="462"/>
+      <c r="L25" s="462" t="s">
+        <v>98</v>
+      </c>
+      <c r="M25" s="462"/>
+      <c r="N25" s="462"/>
+      <c r="O25" s="462"/>
+      <c r="P25" s="462"/>
+      <c r="Q25" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="460"/>
-      <c r="N25" s="460"/>
-      <c r="O25" s="460"/>
-      <c r="P25" s="460"/>
-      <c r="Q25" s="211" t="s">
-        <v>101</v>
-      </c>
-      <c r="R25" s="461" t="s">
-        <v>124</v>
-      </c>
-      <c r="S25" s="461"/>
-      <c r="T25" s="461"/>
-      <c r="U25" s="461"/>
-      <c r="V25" s="462"/>
-      <c r="W25" s="463"/>
-      <c r="X25" s="462">
+      <c r="R25" s="463" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" s="463"/>
+      <c r="T25" s="463"/>
+      <c r="U25" s="463"/>
+      <c r="V25" s="464"/>
+      <c r="W25" s="465"/>
+      <c r="X25" s="464">
         <v>1</v>
       </c>
-      <c r="Y25" s="463"/>
-      <c r="Z25" s="449"/>
-      <c r="AA25" s="450"/>
-      <c r="AB25" s="451"/>
-      <c r="AC25" s="452"/>
-      <c r="AD25" s="453"/>
-      <c r="AE25" s="451"/>
-      <c r="AF25" s="452"/>
-      <c r="AG25" s="452"/>
-      <c r="AH25" s="452"/>
-      <c r="AI25" s="452"/>
-      <c r="AJ25" s="452"/>
-      <c r="AK25" s="452"/>
-      <c r="AL25" s="453"/>
+      <c r="Y25" s="465"/>
+      <c r="Z25" s="451"/>
+      <c r="AA25" s="452"/>
+      <c r="AB25" s="453"/>
+      <c r="AC25" s="454"/>
+      <c r="AD25" s="455"/>
+      <c r="AE25" s="453"/>
+      <c r="AF25" s="454"/>
+      <c r="AG25" s="454"/>
+      <c r="AH25" s="454"/>
+      <c r="AI25" s="454"/>
+      <c r="AJ25" s="454"/>
+      <c r="AK25" s="454"/>
+      <c r="AL25" s="455"/>
       <c r="AM25" s="202"/>
       <c r="AN25" s="202"/>
       <c r="AO25" s="202"/>
@@ -17587,70 +17545,127 @@
       <c r="CM25" s="202"/>
       <c r="CN25" s="202"/>
     </row>
-    <row r="26" spans="1:95" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="218"/>
-      <c r="I26" s="218"/>
-      <c r="J26" s="218"/>
-      <c r="K26" s="218"/>
-      <c r="L26" s="218"/>
-      <c r="M26" s="218"/>
-      <c r="N26" s="218"/>
-      <c r="O26" s="218"/>
-      <c r="P26" s="218"/>
-      <c r="Q26" s="218"/>
-      <c r="R26" s="218"/>
-      <c r="S26" s="219"/>
-      <c r="T26" s="219"/>
-      <c r="U26" s="219"/>
-      <c r="V26" s="81"/>
-      <c r="W26" s="81"/>
-      <c r="X26" s="220"/>
-      <c r="Y26" s="220"/>
-      <c r="Z26" s="218"/>
-      <c r="AA26" s="218"/>
-      <c r="AB26" s="218"/>
-      <c r="AC26" s="82"/>
-      <c r="AD26" s="82"/>
-      <c r="AE26" s="82"/>
-      <c r="AF26" s="218"/>
-      <c r="AG26" s="82"/>
-      <c r="CC26" s="81"/>
-      <c r="CD26" s="81"/>
-      <c r="CE26" s="81"/>
-      <c r="CF26" s="81"/>
-      <c r="CG26" s="82"/>
-      <c r="CH26" s="82"/>
-      <c r="CI26" s="82"/>
-      <c r="CJ26" s="82"/>
-      <c r="CK26" s="82"/>
-      <c r="CL26" s="82"/>
-      <c r="CM26" s="82"/>
-      <c r="CN26" s="82"/>
-      <c r="CO26" s="82"/>
-      <c r="CP26" s="82"/>
-      <c r="CQ26" s="82"/>
+    <row r="26" spans="1:95" ht="15" customHeight="1">
+      <c r="A26" s="168">
+        <v>2</v>
+      </c>
+      <c r="B26" s="453" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="454"/>
+      <c r="D26" s="454"/>
+      <c r="E26" s="454"/>
+      <c r="F26" s="455"/>
+      <c r="G26" s="462" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="462"/>
+      <c r="I26" s="462"/>
+      <c r="J26" s="462"/>
+      <c r="K26" s="462"/>
+      <c r="L26" s="462" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" s="462"/>
+      <c r="N26" s="462"/>
+      <c r="O26" s="462"/>
+      <c r="P26" s="462"/>
+      <c r="Q26" s="211" t="s">
+        <v>100</v>
+      </c>
+      <c r="R26" s="463" t="s">
+        <v>123</v>
+      </c>
+      <c r="S26" s="463"/>
+      <c r="T26" s="463"/>
+      <c r="U26" s="463"/>
+      <c r="V26" s="464"/>
+      <c r="W26" s="465"/>
+      <c r="X26" s="464">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="465"/>
+      <c r="Z26" s="451"/>
+      <c r="AA26" s="452"/>
+      <c r="AB26" s="453"/>
+      <c r="AC26" s="454"/>
+      <c r="AD26" s="455"/>
+      <c r="AE26" s="453"/>
+      <c r="AF26" s="454"/>
+      <c r="AG26" s="454"/>
+      <c r="AH26" s="454"/>
+      <c r="AI26" s="454"/>
+      <c r="AJ26" s="454"/>
+      <c r="AK26" s="454"/>
+      <c r="AL26" s="455"/>
+      <c r="AM26" s="202"/>
+      <c r="AN26" s="202"/>
+      <c r="AO26" s="202"/>
+      <c r="AQ26" s="202"/>
+      <c r="AR26" s="202"/>
+      <c r="AS26" s="202"/>
+      <c r="AT26" s="202"/>
+      <c r="AU26" s="202"/>
+      <c r="AV26" s="202"/>
+      <c r="AW26" s="202"/>
+      <c r="AX26" s="202"/>
+      <c r="AY26" s="75"/>
+      <c r="AZ26" s="75"/>
+      <c r="BA26" s="75"/>
+      <c r="BB26" s="75"/>
+      <c r="BC26" s="75"/>
+      <c r="BD26" s="75"/>
+      <c r="BE26" s="75"/>
+      <c r="BF26" s="75"/>
+      <c r="BG26" s="75"/>
+      <c r="BH26" s="75"/>
+      <c r="BI26" s="75"/>
+      <c r="BJ26" s="75"/>
+      <c r="BK26" s="75"/>
+      <c r="BL26" s="75"/>
+      <c r="BM26" s="75"/>
+      <c r="BN26" s="75"/>
+      <c r="BO26" s="75"/>
+      <c r="BP26" s="75"/>
+      <c r="BQ26" s="75"/>
+      <c r="BR26" s="75"/>
+      <c r="BS26" s="75"/>
+      <c r="BT26" s="75"/>
+      <c r="BU26" s="75"/>
+      <c r="BV26" s="75"/>
+      <c r="BW26" s="75"/>
+      <c r="BX26" s="75"/>
+      <c r="BY26" s="75"/>
+      <c r="BZ26" s="75"/>
+      <c r="CA26" s="75"/>
+      <c r="CB26" s="75"/>
+      <c r="CC26" s="75"/>
+      <c r="CD26" s="202"/>
+      <c r="CE26" s="202"/>
+      <c r="CF26" s="202"/>
+      <c r="CG26" s="202"/>
+      <c r="CH26" s="202"/>
+      <c r="CI26" s="202"/>
+      <c r="CJ26" s="202"/>
+      <c r="CK26" s="202"/>
+      <c r="CL26" s="202"/>
+      <c r="CM26" s="202"/>
+      <c r="CN26" s="202"/>
     </row>
     <row r="27" spans="1:95" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="221"/>
-      <c r="B27" s="221"/>
-      <c r="C27" s="221"/>
-      <c r="D27" s="221"/>
-      <c r="E27" s="221"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="221"/>
-      <c r="H27" s="222"/>
-      <c r="I27" s="222"/>
-      <c r="J27" s="222"/>
-      <c r="K27" s="222"/>
-      <c r="L27" s="222"/>
-      <c r="M27" s="222"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="218"/>
+      <c r="K27" s="218"/>
+      <c r="L27" s="218"/>
+      <c r="M27" s="218"/>
       <c r="N27" s="218"/>
       <c r="O27" s="218"/>
       <c r="P27" s="218"/>
@@ -17687,143 +17702,155 @@
       <c r="CP27" s="82"/>
       <c r="CQ27" s="82"/>
     </row>
-    <row r="28" spans="1:95" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="464" t="s">
+    <row r="28" spans="1:95" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="221"/>
+      <c r="B28" s="221"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="221"/>
+      <c r="H28" s="222"/>
+      <c r="I28" s="222"/>
+      <c r="J28" s="222"/>
+      <c r="K28" s="222"/>
+      <c r="L28" s="222"/>
+      <c r="M28" s="222"/>
+      <c r="N28" s="218"/>
+      <c r="O28" s="218"/>
+      <c r="P28" s="218"/>
+      <c r="Q28" s="218"/>
+      <c r="R28" s="218"/>
+      <c r="S28" s="219"/>
+      <c r="T28" s="219"/>
+      <c r="U28" s="219"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="220"/>
+      <c r="Y28" s="220"/>
+      <c r="Z28" s="218"/>
+      <c r="AA28" s="218"/>
+      <c r="AB28" s="218"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="82"/>
+      <c r="AF28" s="218"/>
+      <c r="AG28" s="82"/>
+      <c r="CC28" s="81"/>
+      <c r="CD28" s="81"/>
+      <c r="CE28" s="81"/>
+      <c r="CF28" s="81"/>
+      <c r="CG28" s="82"/>
+      <c r="CH28" s="82"/>
+      <c r="CI28" s="82"/>
+      <c r="CJ28" s="82"/>
+      <c r="CK28" s="82"/>
+      <c r="CL28" s="82"/>
+      <c r="CM28" s="82"/>
+      <c r="CN28" s="82"/>
+      <c r="CO28" s="82"/>
+      <c r="CP28" s="82"/>
+      <c r="CQ28" s="82"/>
+    </row>
+    <row r="29" spans="1:95" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="466" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="464"/>
-      <c r="C28" s="464"/>
-      <c r="D28" s="464"/>
-      <c r="E28" s="464"/>
-      <c r="F28" s="464"/>
-      <c r="G28" s="464"/>
-      <c r="H28" s="464"/>
-      <c r="I28" s="464"/>
-      <c r="J28" s="464"/>
-      <c r="K28" s="464"/>
-      <c r="L28" s="464"/>
-      <c r="M28" s="464"/>
-      <c r="N28" s="464"/>
-      <c r="O28" s="464"/>
-      <c r="P28" s="464"/>
-      <c r="Q28" s="464"/>
-      <c r="R28" s="464"/>
-      <c r="S28" s="464"/>
-      <c r="T28" s="464"/>
-      <c r="U28" s="464"/>
-      <c r="V28" s="464"/>
-      <c r="W28" s="464"/>
-      <c r="X28" s="464"/>
-      <c r="Y28" s="465" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z28" s="466"/>
-      <c r="AA28" s="466"/>
-      <c r="AB28" s="466"/>
-      <c r="AC28" s="466"/>
-      <c r="AD28" s="466"/>
-      <c r="AE28" s="466"/>
-      <c r="AF28" s="466"/>
-      <c r="AG28" s="466"/>
-      <c r="AH28" s="466"/>
-      <c r="AI28" s="466"/>
-      <c r="AJ28" s="467"/>
-    </row>
-    <row r="29" spans="1:95" ht="15" customHeight="1">
-      <c r="A29" s="223"/>
-      <c r="B29" s="224"/>
-      <c r="C29" s="224"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
-      <c r="F29" s="224"/>
-      <c r="G29" s="224"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="224"/>
-      <c r="J29" s="224"/>
-      <c r="K29" s="224"/>
-      <c r="L29" s="224"/>
-      <c r="M29" s="224"/>
-      <c r="N29" s="224"/>
-      <c r="O29" s="224"/>
-      <c r="P29" s="224"/>
-      <c r="Q29" s="224"/>
-      <c r="R29" s="224"/>
-      <c r="S29" s="224"/>
-      <c r="T29" s="224"/>
-      <c r="U29" s="224"/>
-      <c r="V29" s="224"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="225"/>
-      <c r="Z29" s="226"/>
-      <c r="AA29" s="226"/>
-      <c r="AB29" s="226"/>
-      <c r="AC29" s="226"/>
-      <c r="AD29" s="226"/>
-      <c r="AE29" s="226"/>
-      <c r="AF29" s="226"/>
-      <c r="AG29" s="226"/>
-      <c r="AH29" s="226"/>
-      <c r="AI29" s="226"/>
-      <c r="AJ29" s="227"/>
-      <c r="CC29" s="75"/>
-      <c r="CD29" s="75"/>
-      <c r="CE29" s="75"/>
-      <c r="CF29" s="75"/>
-      <c r="CG29" s="202"/>
-      <c r="CH29" s="202"/>
-      <c r="CI29" s="202"/>
-      <c r="CJ29" s="202"/>
-      <c r="CK29" s="202"/>
-      <c r="CL29" s="202"/>
-      <c r="CM29" s="202"/>
-      <c r="CN29" s="202"/>
-      <c r="CO29" s="202"/>
-      <c r="CP29" s="202"/>
-      <c r="CQ29" s="202"/>
+      <c r="B29" s="466"/>
+      <c r="C29" s="466"/>
+      <c r="D29" s="466"/>
+      <c r="E29" s="466"/>
+      <c r="F29" s="466"/>
+      <c r="G29" s="466"/>
+      <c r="H29" s="466"/>
+      <c r="I29" s="466"/>
+      <c r="J29" s="466"/>
+      <c r="K29" s="466"/>
+      <c r="L29" s="466"/>
+      <c r="M29" s="466"/>
+      <c r="N29" s="466"/>
+      <c r="O29" s="466"/>
+      <c r="P29" s="466"/>
+      <c r="Q29" s="466"/>
+      <c r="R29" s="466"/>
+      <c r="S29" s="466"/>
+      <c r="T29" s="466"/>
+      <c r="U29" s="466"/>
+      <c r="V29" s="466"/>
+      <c r="W29" s="466"/>
+      <c r="X29" s="466"/>
+      <c r="Y29" s="467" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z29" s="468"/>
+      <c r="AA29" s="468"/>
+      <c r="AB29" s="468"/>
+      <c r="AC29" s="468"/>
+      <c r="AD29" s="468"/>
+      <c r="AE29" s="468"/>
+      <c r="AF29" s="468"/>
+      <c r="AG29" s="468"/>
+      <c r="AH29" s="468"/>
+      <c r="AI29" s="468"/>
+      <c r="AJ29" s="469"/>
     </row>
     <row r="30" spans="1:95" ht="15" customHeight="1">
-      <c r="A30" s="228"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="480"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="202"/>
-      <c r="X30" s="76"/>
-      <c r="Y30" s="229"/>
-      <c r="Z30" s="188"/>
-      <c r="AA30" s="188"/>
-      <c r="AB30" s="188"/>
-      <c r="AC30" s="188"/>
-      <c r="AD30" s="188"/>
-      <c r="AE30" s="188"/>
-      <c r="AF30" s="188"/>
-      <c r="AG30" s="188"/>
-      <c r="AH30" s="188"/>
-      <c r="AI30" s="188"/>
-      <c r="AJ30" s="230"/>
+      <c r="A30" s="223"/>
+      <c r="B30" s="224"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="224"/>
+      <c r="F30" s="224"/>
+      <c r="G30" s="224"/>
+      <c r="H30" s="224"/>
+      <c r="I30" s="224"/>
+      <c r="J30" s="224"/>
+      <c r="K30" s="224"/>
+      <c r="L30" s="224"/>
+      <c r="M30" s="224"/>
+      <c r="N30" s="224"/>
+      <c r="O30" s="224"/>
+      <c r="P30" s="224"/>
+      <c r="Q30" s="224"/>
+      <c r="R30" s="224"/>
+      <c r="S30" s="224"/>
+      <c r="T30" s="224"/>
+      <c r="U30" s="224"/>
+      <c r="V30" s="224"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="225"/>
+      <c r="Z30" s="226"/>
+      <c r="AA30" s="226"/>
+      <c r="AB30" s="226"/>
+      <c r="AC30" s="226"/>
+      <c r="AD30" s="226"/>
+      <c r="AE30" s="226"/>
+      <c r="AF30" s="226"/>
+      <c r="AG30" s="226"/>
+      <c r="AH30" s="226"/>
+      <c r="AI30" s="226"/>
+      <c r="AJ30" s="227"/>
+      <c r="CC30" s="75"/>
+      <c r="CD30" s="75"/>
+      <c r="CE30" s="75"/>
+      <c r="CF30" s="75"/>
+      <c r="CG30" s="202"/>
+      <c r="CH30" s="202"/>
+      <c r="CI30" s="202"/>
+      <c r="CJ30" s="202"/>
+      <c r="CK30" s="202"/>
+      <c r="CL30" s="202"/>
+      <c r="CM30" s="202"/>
+      <c r="CN30" s="202"/>
+      <c r="CO30" s="202"/>
+      <c r="CP30" s="202"/>
+      <c r="CQ30" s="202"/>
     </row>
     <row r="31" spans="1:95" ht="15" customHeight="1">
       <c r="A31" s="228"/>
       <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
+      <c r="C31" s="244"/>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
       <c r="F31" s="68"/>
@@ -18315,111 +18342,149 @@
       <c r="AJ43" s="230"/>
     </row>
     <row r="44" spans="1:36" ht="15" customHeight="1">
-      <c r="A44" s="231"/>
-      <c r="B44" s="232"/>
-      <c r="C44" s="232"/>
-      <c r="D44" s="232"/>
-      <c r="E44" s="232"/>
-      <c r="F44" s="232"/>
-      <c r="G44" s="232"/>
-      <c r="H44" s="232"/>
-      <c r="I44" s="232"/>
-      <c r="J44" s="232"/>
-      <c r="K44" s="232"/>
-      <c r="L44" s="232"/>
-      <c r="M44" s="232"/>
-      <c r="N44" s="232"/>
-      <c r="O44" s="232"/>
-      <c r="P44" s="232"/>
-      <c r="Q44" s="232"/>
-      <c r="R44" s="232"/>
-      <c r="S44" s="232"/>
-      <c r="T44" s="232"/>
-      <c r="U44" s="232"/>
-      <c r="V44" s="232"/>
-      <c r="W44" s="77"/>
-      <c r="X44" s="78"/>
-      <c r="Y44" s="233"/>
-      <c r="Z44" s="234"/>
-      <c r="AA44" s="234"/>
-      <c r="AB44" s="234"/>
-      <c r="AC44" s="234"/>
-      <c r="AD44" s="234"/>
-      <c r="AE44" s="234"/>
-      <c r="AF44" s="234"/>
-      <c r="AG44" s="234"/>
-      <c r="AH44" s="234"/>
-      <c r="AI44" s="234"/>
-      <c r="AJ44" s="235"/>
+      <c r="A44" s="228"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="202"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="229"/>
+      <c r="Z44" s="188"/>
+      <c r="AA44" s="188"/>
+      <c r="AB44" s="188"/>
+      <c r="AC44" s="188"/>
+      <c r="AD44" s="188"/>
+      <c r="AE44" s="188"/>
+      <c r="AF44" s="188"/>
+      <c r="AG44" s="188"/>
+      <c r="AH44" s="188"/>
+      <c r="AI44" s="188"/>
+      <c r="AJ44" s="230"/>
     </row>
     <row r="45" spans="1:36" ht="15" customHeight="1">
-      <c r="D45" s="88"/>
-      <c r="X45" s="88"/>
+      <c r="A45" s="231"/>
+      <c r="B45" s="232"/>
+      <c r="C45" s="232"/>
+      <c r="D45" s="232"/>
+      <c r="E45" s="232"/>
+      <c r="F45" s="232"/>
+      <c r="G45" s="232"/>
+      <c r="H45" s="232"/>
+      <c r="I45" s="232"/>
+      <c r="J45" s="232"/>
+      <c r="K45" s="232"/>
+      <c r="L45" s="232"/>
+      <c r="M45" s="232"/>
+      <c r="N45" s="232"/>
+      <c r="O45" s="232"/>
+      <c r="P45" s="232"/>
+      <c r="Q45" s="232"/>
+      <c r="R45" s="232"/>
+      <c r="S45" s="232"/>
+      <c r="T45" s="232"/>
+      <c r="U45" s="232"/>
+      <c r="V45" s="232"/>
+      <c r="W45" s="77"/>
+      <c r="X45" s="78"/>
+      <c r="Y45" s="233"/>
+      <c r="Z45" s="234"/>
+      <c r="AA45" s="234"/>
+      <c r="AB45" s="234"/>
+      <c r="AC45" s="234"/>
+      <c r="AD45" s="234"/>
+      <c r="AE45" s="234"/>
+      <c r="AF45" s="234"/>
+      <c r="AG45" s="234"/>
+      <c r="AH45" s="234"/>
+      <c r="AI45" s="234"/>
+      <c r="AJ45" s="235"/>
+    </row>
+    <row r="46" spans="1:36" ht="15" customHeight="1">
+      <c r="D46" s="88"/>
+      <c r="X46" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="AE23:AL23"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="AE24:AL24"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AE26:AL26"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AE25:AL25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:W24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="G25:K25"/>
     <mergeCell ref="L25:P25"/>
     <mergeCell ref="R25:U25"/>
     <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AE25:AL25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="AE24:AL24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="X20:Y20"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:H16"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:H17"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:H22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="X24:Y24"/>
     <mergeCell ref="V18:W18"/>
     <mergeCell ref="V19:W19"/>
-    <mergeCell ref="AE10:AL10"/>
+    <mergeCell ref="V20:W20"/>
     <mergeCell ref="AE11:AL11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="AE12:AL12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AB10:AD10"/>
     <mergeCell ref="G13:K13"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="V10:W10"/>
     <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="V13:W13"/>
     <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="X14:Y14"/>
     <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:W14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AF2:AH2"/>
@@ -18430,62 +18495,62 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:H8"/>
-    <mergeCell ref="A28:X28"/>
-    <mergeCell ref="Y28:AJ28"/>
-    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A29:X29"/>
+    <mergeCell ref="Y29:AJ29"/>
     <mergeCell ref="R10:U10"/>
     <mergeCell ref="R11:U11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="G11:K11"/>
-    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
     <mergeCell ref="L11:P11"/>
     <mergeCell ref="X11:Y11"/>
     <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="L14:P14"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="AE9:AL9"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="AE10:AL10"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AE20:AL20"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:K18"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AE19:AL19"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE17:AL17"/>
-    <mergeCell ref="AE18:AL18"/>
     <mergeCell ref="L18:P18"/>
     <mergeCell ref="R18:U18"/>
     <mergeCell ref="X18:Y18"/>
     <mergeCell ref="Z18:AA18"/>
     <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="AE18:AL18"/>
+    <mergeCell ref="AE19:AL19"/>
     <mergeCell ref="L19:P19"/>
     <mergeCell ref="R19:U19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="R20:U20"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q24:Q25 Q18:Q19 Q10:Q13" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q25:Q26 Q19:Q20 Q11:Q14" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R24:R25 R18:R19 R10:R13" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R25:R26 R19:R20 R11:R14" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>データ型</formula1>
     </dataValidation>
   </dataValidations>
@@ -18496,7 +18561,7 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="26" max="37" man="1"/>
+    <brk id="27" max="37" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
